--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4F87DA-1AFA-6D49-959F-C72BECAA9093}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064ADEE3-C00C-9D4D-A007-7310172216C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
@@ -16,6 +16,14 @@
     <sheet name="Redis-Benchmarks" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">('Redis-Benchmarks'!$D$33,'Redis-Benchmarks'!$D$35,'Redis-Benchmarks'!$D$36)</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">('Redis-Benchmarks'!$D$61,'Redis-Benchmarks'!$D$63,'Redis-Benchmarks'!$D$64)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">('Redis-Benchmarks'!$D$88,'Redis-Benchmarks'!$D$90,'Redis-Benchmarks'!$D$91)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">('Redis-Benchmarks'!$D$33,'Redis-Benchmarks'!$D$35,'Redis-Benchmarks'!$D$36)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">('Redis-Benchmarks'!$D$61,'Redis-Benchmarks'!$D$63,'Redis-Benchmarks'!$D$64)</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">('Redis-Benchmarks'!$D$88,'Redis-Benchmarks'!$D$90,'Redis-Benchmarks'!$D$91)</definedName>
     <definedName name="tests_1" localSheetId="0">'Redis-Benchmarks'!$C$12:$J$16</definedName>
     <definedName name="tests_2" localSheetId="0">'Redis-Benchmarks'!$C$17:$J$20</definedName>
     <definedName name="tests_3" localSheetId="0">'Redis-Benchmarks'!$C$21:$J$24</definedName>
@@ -23,7 +31,7 @@
     <definedName name="tests_5" localSheetId="0">'Redis-Benchmarks'!$C$29:$J$32</definedName>
     <definedName name="tests_6" localSheetId="0">'Redis-Benchmarks'!$C$40:$J$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +52,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{5F28BD02-A2D1-0E43-BE5E-3D053BADFCAE}" name="tests11" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -58,7 +66,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{D0A8215D-028D-3A43-8BF3-821B811B7B9C}" name="tests21" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -72,7 +80,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{07E02C75-0852-7849-87D7-2F4613D44B07}" name="tests31" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -86,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{547D8AB3-218B-DD48-9DA4-F5878DE8198A}" name="tests41" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr firstRow="2" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -100,7 +108,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{15893E77-E2CF-1945-949A-4088976D868A}" name="tests7" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -114,7 +122,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{4338E35F-A64B-004F-913C-FDA36F99BDA6}" name="tests71" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/miguelanciaes/Desktop/tests.csv" decimal="," thousands=" " comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -131,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -198,13 +206,22 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -534,38 +551,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,6 +584,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,6 +607,2445 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Redis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Benchmark Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Normal Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Redis-Benchmarks'!$E$33,'Redis-Benchmarks'!$E$35,'Redis-Benchmarks'!$E$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.435199999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.427000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A07C-8042-8AD6-CC030ED8774F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Unprotected Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-A07C-8042-8AD6-CC030ED8774F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Redis-Benchmarks'!$E$61,'Redis-Benchmarks'!$E$63,'Redis-Benchmarks'!$E$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.8262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.905799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.865400000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A07C-8042-8AD6-CC030ED8774F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SGX Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Redis-Benchmarks'!$E$88,'Redis-Benchmarks'!$E$90,'Redis-Benchmarks'!$E$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.863599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.827199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-A07C-8042-8AD6-CC030ED8774F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="157352607"/>
+        <c:axId val="157929647"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="157352607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157929647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="157929647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="157352607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Redis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Benchmark Throughput (op/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Normal Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Redis-Benchmarks'!$D$33,'Redis-Benchmarks'!$D$35,'Redis-Benchmarks'!$D$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1261.684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1261.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1262.366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6661-164B-9F8F-5F302B7FFDF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Unprotected Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Redis-Benchmarks'!$D$61,'Redis-Benchmarks'!$D$63,'Redis-Benchmarks'!$D$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1233.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1230.3220000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1231.5719999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6661-164B-9F8F-5F302B7FFDF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SGX Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Redis-Benchmarks'!$D$88,'Redis-Benchmarks'!$D$90,'Redis-Benchmarks'!$D$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1148.636</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1144.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1147.454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6661-164B-9F8F-5F302B7FFDF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1947686256"/>
+        <c:axId val="209290559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1947686256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209290559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209290559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947686256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>265165</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>167473</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0DF1F6F-31B0-4C43-AB47-D8676DB6A8D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>265165</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>83736</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2510CFE2-87AF-F744-BD97-3B9F72407D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="91" workbookViewId="0">
+      <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,20 +3430,20 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1011,12 +3467,12 @@
       <c r="I12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
+      <c r="B13" s="34">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1040,12 +3496,12 @@
       <c r="I13" s="8">
         <v>39.966999999999999</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>41.598999999999997</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -1067,12 +3523,12 @@
       <c r="I14" s="9">
         <v>40.030999999999999</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="12">
         <v>43.039000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -1094,12 +3550,12 @@
       <c r="I15" s="9">
         <v>40.030999999999999</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="12">
         <v>44.639000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -1121,12 +3577,12 @@
       <c r="I16" s="10">
         <v>40.063000000000002</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>49.247</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
+      <c r="B17" s="34">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1150,12 +3606,12 @@
       <c r="I17" s="8">
         <v>40.158999999999999</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>40.831000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -1177,12 +3633,12 @@
       <c r="I18" s="9">
         <v>40.127000000000002</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="12">
         <v>44.734999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -1204,12 +3660,12 @@
       <c r="I19" s="9">
         <v>40.158999999999999</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>42.591000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -1231,12 +3687,12 @@
       <c r="I20" s="10">
         <v>40.158999999999999</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="13">
         <v>42.655000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
+      <c r="B21" s="34">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1260,12 +3716,12 @@
       <c r="I21" s="8">
         <v>40.127000000000002</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>41.854999999999997</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -1287,12 +3743,12 @@
       <c r="I22" s="9">
         <v>40.158999999999999</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="12">
         <v>42.558999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -1314,12 +3770,12 @@
       <c r="I23" s="9">
         <v>40.158999999999999</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="12">
         <v>42.558999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -1341,12 +3797,12 @@
       <c r="I24" s="10">
         <v>40.191000000000003</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="13">
         <v>42.686999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
+      <c r="B25" s="34">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -1370,12 +3826,12 @@
       <c r="I25" s="8">
         <v>40.158999999999999</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>43.039000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -1397,12 +3853,12 @@
       <c r="I26" s="9">
         <v>40.094999999999999</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="12">
         <v>42.238999999999997</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -1424,12 +3880,12 @@
       <c r="I27" s="9">
         <v>40.094999999999999</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="12">
         <v>42.719000000000001</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1451,12 +3907,12 @@
       <c r="I28" s="10">
         <v>40.030999999999999</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="13">
         <v>42.558999999999997</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
+      <c r="B29" s="34">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1480,12 +3936,12 @@
       <c r="I29" s="8">
         <v>39.999000000000002</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>41.023000000000003</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="13"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -1507,12 +3963,12 @@
       <c r="I30" s="9">
         <v>39.999000000000002</v>
       </c>
-      <c r="J30" s="14">
+      <c r="J30" s="12">
         <v>42.174999999999997</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="13"/>
+      <c r="B31" s="29"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -1534,171 +3990,171 @@
       <c r="I31" s="9">
         <v>40.030999999999999</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="12">
         <v>42.463000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="14">
         <v>1264.67</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="14">
         <v>39.383000000000003</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="14">
         <v>37.984000000000002</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="14">
         <v>39.390999999999998</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="14">
         <v>39.871000000000002</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="14">
         <v>40.063000000000002</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="15">
         <v>43.103000000000002</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="30">
+      <c r="C33" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="25">
         <f>AVERAGE(D13,D17,D21,D25,D29)</f>
         <v>1261.684</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="25">
         <f>AVERAGE(E13,E17,E21,E25,E29)</f>
         <v>39.444800000000001</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="25">
         <f t="shared" ref="F33:J33" si="0">AVERAGE(F13,F17,F21,F25,F29)</f>
         <v>38.035199999999996</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="25">
         <f t="shared" si="0"/>
         <v>39.454999999999998</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="25">
         <f t="shared" si="0"/>
         <v>39.883800000000008</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="25">
         <f t="shared" si="0"/>
         <v>40.0822</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="25">
         <f t="shared" si="0"/>
         <v>41.669400000000003</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="13"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="19">
         <f>AVERAGE(D14,D18,D22,D26,D30)</f>
         <v>1261.9519999999998</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="19">
         <f t="shared" ref="E34:J34" si="1">AVERAGE(E14,E18,E22,E26,E30)</f>
         <v>39.443799999999996</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="19">
         <f t="shared" si="1"/>
         <v>38.028800000000004</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="19">
         <f t="shared" si="1"/>
         <v>39.448600000000006</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="19">
         <f t="shared" si="1"/>
         <v>39.883799999999994</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="19">
         <f t="shared" si="1"/>
         <v>40.0822</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="19">
         <f t="shared" si="1"/>
         <v>42.949400000000004</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="13"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="24">
+        <v>23</v>
+      </c>
+      <c r="D35" s="19">
         <f>AVERAGE(D15,D19,D23,D27,D31)</f>
         <v>1261.74</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="19">
         <f t="shared" ref="E35:J35" si="2">AVERAGE(E15,E19,E23,E27,E31)</f>
         <v>39.435199999999995</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="19">
         <f t="shared" si="2"/>
         <v>38.080000000000005</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="19">
         <f t="shared" si="2"/>
         <v>39.4358</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="19">
         <f t="shared" si="2"/>
         <v>39.896599999999999</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="19">
         <f t="shared" si="2"/>
         <v>40.094999999999999</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="19">
         <f t="shared" si="2"/>
         <v>42.994199999999992</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="28">
+      <c r="B36" s="30"/>
+      <c r="C36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="23">
         <f>AVERAGE(D16,D20,D24,D28,D32)</f>
         <v>1262.366</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="23">
         <f t="shared" ref="E36:J36" si="3">AVERAGE(E16,E20,E24,E28,E32)</f>
         <v>39.427000000000007</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="23">
         <f t="shared" si="3"/>
         <v>37.9968</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="23">
         <f t="shared" si="3"/>
         <v>39.429400000000001</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="23">
         <f t="shared" si="3"/>
         <v>39.8902</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="23">
         <f t="shared" si="3"/>
         <v>40.101399999999998</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="23">
         <f t="shared" si="3"/>
         <v>44.050200000000004</v>
       </c>
@@ -1706,20 +4162,20 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="35"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -1743,12 +4199,12 @@
       <c r="I40" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J40" s="32" t="s">
+      <c r="J40" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
+      <c r="B41" s="34">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -1772,12 +4228,12 @@
       <c r="I41" s="8">
         <v>39.966999999999999</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="11">
         <v>2064.3829999999998</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="13"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -1799,12 +4255,12 @@
       <c r="I42" s="9">
         <v>39.966999999999999</v>
       </c>
-      <c r="J42" s="14">
+      <c r="J42" s="12">
         <v>2063.3589999999999</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="13"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -1826,12 +4282,12 @@
       <c r="I43" s="9">
         <v>39.871000000000002</v>
       </c>
-      <c r="J43" s="14">
+      <c r="J43" s="12">
         <v>2063.3589999999999</v>
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
+      <c r="B44" s="35"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -1853,12 +4309,12 @@
       <c r="I44" s="10">
         <v>39.902999999999999</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="13">
         <v>2063.3589999999999</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="11">
+      <c r="B45" s="34">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -1882,12 +4338,12 @@
       <c r="I45" s="8">
         <v>39.871000000000002</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <v>2061.3110000000001</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="13"/>
+      <c r="B46" s="29"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -1909,12 +4365,12 @@
       <c r="I46" s="9">
         <v>40.094999999999999</v>
       </c>
-      <c r="J46" s="14">
+      <c r="J46" s="12">
         <v>2061.3110000000001</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="13"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -1936,12 +4392,12 @@
       <c r="I47" s="9">
         <v>40.127000000000002</v>
       </c>
-      <c r="J47" s="14">
+      <c r="J47" s="12">
         <v>2067.4549999999999</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
+      <c r="B48" s="35"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -1963,12 +4419,12 @@
       <c r="I48" s="10">
         <v>40.030999999999999</v>
       </c>
-      <c r="J48" s="16">
+      <c r="J48" s="13">
         <v>2068.4789999999998</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="11">
+      <c r="B49" s="34">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -1992,12 +4448,12 @@
       <c r="I49" s="8">
         <v>40.094999999999999</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>2069.5030000000002</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="13"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -2019,12 +4475,12 @@
       <c r="I50" s="9">
         <v>40.191000000000003</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="12">
         <v>2077.6950000000002</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="13"/>
+      <c r="B51" s="29"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -2046,12 +4502,12 @@
       <c r="I51" s="9">
         <v>40.222999999999999</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="12">
         <v>2074.623</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
+      <c r="B52" s="35"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -2073,12 +4529,12 @@
       <c r="I52" s="10">
         <v>40.191000000000003</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="13">
         <v>2077.6950000000002</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="11">
+      <c r="B53" s="34">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -2102,12 +4558,12 @@
       <c r="I53" s="8">
         <v>40.191000000000003</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="11">
         <v>2075.6469999999999</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="13"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -2129,12 +4585,12 @@
       <c r="I54" s="9">
         <v>40.222999999999999</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="12">
         <v>2077.6950000000002</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="13"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -2156,12 +4612,12 @@
       <c r="I55" s="9">
         <v>40.191000000000003</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="12">
         <v>2077.6950000000002</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -2183,12 +4639,12 @@
       <c r="I56" s="10">
         <v>40.222999999999999</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="13">
         <v>2077.6950000000002</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="11">
+      <c r="B57" s="34">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -2212,12 +4668,12 @@
       <c r="I57" s="8">
         <v>40.094999999999999</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>2068.4789999999998</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="13"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -2239,12 +4695,12 @@
       <c r="I58" s="9">
         <v>40.063000000000002</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="12">
         <v>2074.623</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="13"/>
+      <c r="B59" s="29"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -2266,191 +4722,191 @@
       <c r="I59" s="9">
         <v>40.063000000000002</v>
       </c>
-      <c r="J59" s="14">
+      <c r="J59" s="12">
         <v>2068.4789999999998</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="17"/>
-      <c r="C60" s="18" t="s">
+      <c r="B60" s="30"/>
+      <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="18">
+      <c r="D60" s="14">
         <v>1234.92</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="14">
         <v>39.804000000000002</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="14">
         <v>37.92</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="14">
         <v>39.295000000000002</v>
       </c>
-      <c r="H60" s="18">
+      <c r="H60" s="14">
         <v>39.774999999999999</v>
       </c>
-      <c r="I60" s="18">
+      <c r="I60" s="14">
         <v>40.030999999999999</v>
       </c>
-      <c r="J60" s="19">
+      <c r="J60" s="15">
         <v>2071.5509999999999</v>
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="25">
         <f>AVERAGE(D41,D45,D49,D53,D57)</f>
         <v>1233.18</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="25">
         <f>AVERAGE(E41,E45,E49,E53,E57)</f>
         <v>39.8262</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="25">
         <f t="shared" ref="F61:J61" si="4">AVERAGE(F41,F45,F49,F53,F57)</f>
         <v>38.035199999999996</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="25">
         <f t="shared" si="4"/>
         <v>39.3142</v>
       </c>
-      <c r="H61" s="30">
+      <c r="H61" s="25">
         <f t="shared" si="4"/>
         <v>39.787800000000004</v>
       </c>
-      <c r="I61" s="30">
+      <c r="I61" s="25">
         <f t="shared" si="4"/>
         <v>40.043799999999997</v>
       </c>
-      <c r="J61" s="30">
+      <c r="J61" s="25">
         <f t="shared" si="4"/>
         <v>2067.8645999999999</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="13"/>
+      <c r="B62" s="29"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="19">
         <f>AVERAGE(D42,D46,D50,D54,D58)</f>
         <v>1230.2620000000002</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="19">
         <f t="shared" ref="E62:J62" si="5">AVERAGE(E42,E46,E50,E54,E58)</f>
         <v>39.902200000000008</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="19">
         <f t="shared" si="5"/>
         <v>38.111999999999995</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="19">
         <f t="shared" si="5"/>
         <v>39.391000000000005</v>
       </c>
-      <c r="H62" s="24">
+      <c r="H62" s="19">
         <f t="shared" si="5"/>
         <v>39.864599999999996</v>
       </c>
-      <c r="I62" s="24">
+      <c r="I62" s="19">
         <f t="shared" si="5"/>
         <v>40.107799999999997</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="19">
         <f t="shared" si="5"/>
         <v>2070.9366</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="13"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="19">
         <f>AVERAGE(D43,D47,D51,D55,D59)</f>
         <v>1230.3220000000001</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="19">
         <f t="shared" ref="E63:J63" si="6">AVERAGE(E43,E47,E51,E55,E59)</f>
         <v>39.905799999999999</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="19">
         <f t="shared" si="6"/>
         <v>38.0608</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="19">
         <f t="shared" si="6"/>
         <v>39.403800000000004</v>
       </c>
-      <c r="H63" s="24">
+      <c r="H63" s="19">
         <f t="shared" si="6"/>
         <v>39.858199999999997</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I63" s="19">
         <f t="shared" si="6"/>
         <v>40.095000000000006</v>
       </c>
-      <c r="J63" s="24">
+      <c r="J63" s="19">
         <f t="shared" si="6"/>
         <v>2070.3221999999996</v>
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="17"/>
-      <c r="C64" s="18" t="s">
+      <c r="B64" s="30"/>
+      <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="28">
+      <c r="D64" s="23">
         <f>AVERAGE(D44,D48,D52,D56,D60)</f>
         <v>1231.5719999999999</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="23">
         <f t="shared" ref="E64:J64" si="7">AVERAGE(E44,E48,E52,E56,E60)</f>
         <v>39.865400000000008</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="23">
         <f t="shared" si="7"/>
         <v>38.0672</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="23">
         <f t="shared" si="7"/>
         <v>39.359000000000002</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="23">
         <f t="shared" si="7"/>
         <v>39.8262</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="23">
         <f t="shared" si="7"/>
         <v>40.075800000000001</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="23">
         <f t="shared" si="7"/>
         <v>2071.7557999999999</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="35"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C67" s="7" t="s">
@@ -2474,694 +4930,694 @@
       <c r="I67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="32" t="s">
+      <c r="J67" s="27" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="11">
+      <c r="B68" s="34">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D68" s="17">
         <v>1150.97</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="17">
         <v>41.65</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F68" s="17">
         <v>38.207999999999998</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G68" s="17">
         <v>40.414999999999999</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H68" s="17">
         <v>43.103000000000002</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I68" s="17">
         <v>44.478999999999999</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="18">
         <v>3000.319</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="13"/>
+      <c r="B69" s="29"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="19">
         <v>1149.6600000000001</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="19">
         <v>41.695999999999998</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="19">
         <v>38.08</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="19">
         <v>40.447000000000003</v>
       </c>
-      <c r="H69" s="24">
+      <c r="H69" s="19">
         <v>43.295000000000002</v>
       </c>
-      <c r="I69" s="24">
+      <c r="I69" s="19">
         <v>44.639000000000003</v>
       </c>
-      <c r="J69" s="25">
+      <c r="J69" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="13"/>
+      <c r="B70" s="29"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="19">
         <v>1147.3499999999999</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="19">
         <v>41.720999999999997</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="19">
         <v>38.143999999999998</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="19">
         <v>40.414999999999999</v>
       </c>
-      <c r="H70" s="24">
+      <c r="H70" s="19">
         <v>43.198999999999998</v>
       </c>
-      <c r="I70" s="24">
+      <c r="I70" s="19">
         <v>44.575000000000003</v>
       </c>
-      <c r="J70" s="25">
+      <c r="J70" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="15"/>
+      <c r="B71" s="35"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D71" s="26">
+      <c r="D71" s="21">
         <v>1148.05</v>
       </c>
-      <c r="E71" s="26">
+      <c r="E71" s="21">
         <v>41.759</v>
       </c>
-      <c r="F71" s="26">
+      <c r="F71" s="21">
         <v>38.271999999999998</v>
       </c>
-      <c r="G71" s="26">
+      <c r="G71" s="21">
         <v>40.478999999999999</v>
       </c>
-      <c r="H71" s="26">
+      <c r="H71" s="21">
         <v>43.198999999999998</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="21">
         <v>44.606999999999999</v>
       </c>
-      <c r="J71" s="27">
+      <c r="J71" s="22">
         <v>3000.319</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="11">
+      <c r="B72" s="34">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="17">
         <v>1152.6199999999999</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="17">
         <v>41.616999999999997</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F72" s="17">
         <v>38.207999999999998</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G72" s="17">
         <v>40.383000000000003</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H72" s="17">
         <v>43.039000000000001</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="17">
         <v>44.447000000000003</v>
       </c>
-      <c r="J72" s="23">
+      <c r="J72" s="18">
         <v>3000.319</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="13"/>
+      <c r="B73" s="29"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="19">
         <v>1150.21</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="19">
         <v>41.651000000000003</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="19">
         <v>38.271999999999998</v>
       </c>
-      <c r="G73" s="24">
+      <c r="G73" s="19">
         <v>40.447000000000003</v>
       </c>
-      <c r="H73" s="24">
+      <c r="H73" s="19">
         <v>43.070999999999998</v>
       </c>
-      <c r="I73" s="24">
+      <c r="I73" s="19">
         <v>44.414999999999999</v>
       </c>
-      <c r="J73" s="25">
+      <c r="J73" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="13"/>
+      <c r="B74" s="29"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="24">
+      <c r="D74" s="19">
         <v>1146.07</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="19">
         <v>41.808999999999997</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="19">
         <v>38.143999999999998</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="19">
         <v>40.447000000000003</v>
       </c>
-      <c r="H74" s="24">
+      <c r="H74" s="19">
         <v>43.231000000000002</v>
       </c>
-      <c r="I74" s="24">
+      <c r="I74" s="19">
         <v>44.639000000000003</v>
       </c>
-      <c r="J74" s="25">
+      <c r="J74" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="15"/>
+      <c r="B75" s="35"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="26">
+      <c r="D75" s="21">
         <v>1155.5999999999999</v>
       </c>
-      <c r="E75" s="26">
+      <c r="E75" s="21">
         <v>41.637999999999998</v>
       </c>
-      <c r="F75" s="26">
+      <c r="F75" s="21">
         <v>38.271999999999998</v>
       </c>
-      <c r="G75" s="26">
+      <c r="G75" s="21">
         <v>40.350999999999999</v>
       </c>
-      <c r="H75" s="26">
+      <c r="H75" s="21">
         <v>42.975000000000001</v>
       </c>
-      <c r="I75" s="26">
+      <c r="I75" s="21">
         <v>44.286999999999999</v>
       </c>
-      <c r="J75" s="27">
+      <c r="J75" s="22">
         <v>3000.319</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="11">
+      <c r="B76" s="34">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D76" s="17">
         <v>1151.3</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="17">
         <v>41.646999999999998</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F76" s="17">
         <v>38.335999999999999</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G76" s="17">
         <v>40.447000000000003</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H76" s="17">
         <v>43.006999999999998</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="17">
         <v>44.383000000000003</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J76" s="18">
         <v>3000.319</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="13"/>
+      <c r="B77" s="29"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D77" s="19">
         <v>1149.68</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="19">
         <v>41.692999999999998</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="19">
         <v>38.24</v>
       </c>
-      <c r="G77" s="24">
+      <c r="G77" s="19">
         <v>40.478999999999999</v>
       </c>
-      <c r="H77" s="24">
+      <c r="H77" s="19">
         <v>43.167000000000002</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I77" s="19">
         <v>44.511000000000003</v>
       </c>
-      <c r="J77" s="25">
+      <c r="J77" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="13"/>
+      <c r="B78" s="29"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D78" s="19">
         <v>1146.93</v>
       </c>
-      <c r="E78" s="24">
+      <c r="E78" s="19">
         <v>41.808</v>
       </c>
-      <c r="F78" s="24">
+      <c r="F78" s="19">
         <v>38.304000000000002</v>
       </c>
-      <c r="G78" s="24">
+      <c r="G78" s="19">
         <v>40.478999999999999</v>
       </c>
-      <c r="H78" s="24">
+      <c r="H78" s="19">
         <v>43.167000000000002</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I78" s="19">
         <v>44.575000000000003</v>
       </c>
-      <c r="J78" s="25">
+      <c r="J78" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="15"/>
+      <c r="B79" s="35"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="26">
+      <c r="D79" s="21">
         <v>1146.5</v>
       </c>
-      <c r="E79" s="26">
+      <c r="E79" s="21">
         <v>41.832999999999998</v>
       </c>
-      <c r="F79" s="26">
+      <c r="F79" s="21">
         <v>38.527999999999999</v>
       </c>
-      <c r="G79" s="26">
+      <c r="G79" s="21">
         <v>40.575000000000003</v>
       </c>
-      <c r="H79" s="26">
+      <c r="H79" s="21">
         <v>43.070999999999998</v>
       </c>
-      <c r="I79" s="26">
+      <c r="I79" s="21">
         <v>44.414999999999999</v>
       </c>
-      <c r="J79" s="27">
+      <c r="J79" s="22">
         <v>3000.319</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="11">
+      <c r="B80" s="34">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D80" s="17">
         <v>1147.8399999999999</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="17">
         <v>41.762</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F80" s="17">
         <v>38.304000000000002</v>
       </c>
-      <c r="G80" s="22">
+      <c r="G80" s="17">
         <v>40.511000000000003</v>
       </c>
-      <c r="H80" s="22">
+      <c r="H80" s="17">
         <v>43.295000000000002</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="17">
         <v>44.670999999999999</v>
       </c>
-      <c r="J80" s="23">
+      <c r="J80" s="18">
         <v>3000.319</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="13"/>
+      <c r="B81" s="29"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="24">
+      <c r="D81" s="19">
         <v>1152.43</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="19">
         <v>41.613</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="19">
         <v>38.048000000000002</v>
       </c>
-      <c r="G81" s="24">
+      <c r="G81" s="19">
         <v>40.414999999999999</v>
       </c>
-      <c r="H81" s="24">
+      <c r="H81" s="19">
         <v>42.942999999999998</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I81" s="19">
         <v>44.319000000000003</v>
       </c>
-      <c r="J81" s="25">
+      <c r="J81" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="13"/>
+      <c r="B82" s="29"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="24">
+      <c r="D82" s="19">
         <v>1137.1300000000001</v>
       </c>
-      <c r="E82" s="24">
+      <c r="E82" s="19">
         <v>42.110999999999997</v>
       </c>
-      <c r="F82" s="24">
+      <c r="F82" s="19">
         <v>38.432000000000002</v>
       </c>
-      <c r="G82" s="24">
+      <c r="G82" s="19">
         <v>40.734999999999999</v>
       </c>
-      <c r="H82" s="24">
+      <c r="H82" s="19">
         <v>43.646999999999998</v>
       </c>
-      <c r="I82" s="24">
+      <c r="I82" s="19">
         <v>44.991</v>
       </c>
-      <c r="J82" s="25">
+      <c r="J82" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="15"/>
+      <c r="B83" s="35"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D83" s="26">
+      <c r="D83" s="21">
         <v>1145.48</v>
       </c>
-      <c r="E83" s="26">
+      <c r="E83" s="21">
         <v>41.963999999999999</v>
       </c>
-      <c r="F83" s="26">
+      <c r="F83" s="21">
         <v>38.655999999999999</v>
       </c>
-      <c r="G83" s="26">
+      <c r="G83" s="21">
         <v>40.639000000000003</v>
       </c>
-      <c r="H83" s="26">
+      <c r="H83" s="21">
         <v>43.518999999999998</v>
       </c>
-      <c r="I83" s="26">
+      <c r="I83" s="21">
         <v>44.798999999999999</v>
       </c>
-      <c r="J83" s="27">
+      <c r="J83" s="22">
         <v>3000.319</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="11">
+      <c r="B84" s="34">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="22">
+      <c r="D84" s="17">
         <v>1140.45</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="17">
         <v>42.018999999999998</v>
       </c>
-      <c r="F84" s="22">
+      <c r="F84" s="17">
         <v>38.304000000000002</v>
       </c>
-      <c r="G84" s="22">
+      <c r="G84" s="17">
         <v>40.670999999999999</v>
       </c>
-      <c r="H84" s="22">
+      <c r="H84" s="17">
         <v>43.551000000000002</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="17">
         <v>44.959000000000003</v>
       </c>
-      <c r="J84" s="23">
+      <c r="J84" s="18">
         <v>3000.319</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
+      <c r="B85" s="29"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D85" s="24">
+      <c r="D85" s="19">
         <v>1146.43</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="19">
         <v>41.808999999999997</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="19">
         <v>38.271999999999998</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G85" s="19">
         <v>40.575000000000003</v>
       </c>
-      <c r="H85" s="24">
+      <c r="H85" s="19">
         <v>43.326999999999998</v>
       </c>
-      <c r="I85" s="24">
+      <c r="I85" s="19">
         <v>44.606999999999999</v>
       </c>
-      <c r="J85" s="25">
+      <c r="J85" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="19">
         <v>1145.32</v>
       </c>
-      <c r="E86" s="24">
+      <c r="E86" s="19">
         <v>41.869</v>
       </c>
-      <c r="F86" s="24">
+      <c r="F86" s="19">
         <v>38.271999999999998</v>
       </c>
-      <c r="G86" s="24">
+      <c r="G86" s="19">
         <v>40.542999999999999</v>
       </c>
-      <c r="H86" s="24">
+      <c r="H86" s="19">
         <v>43.198999999999998</v>
       </c>
-      <c r="I86" s="24">
+      <c r="I86" s="19">
         <v>44.542999999999999</v>
       </c>
-      <c r="J86" s="25">
+      <c r="J86" s="20">
         <v>3000.319</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="17"/>
-      <c r="C87" s="18" t="s">
+      <c r="B87" s="30"/>
+      <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="23">
         <v>1141.6400000000001</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="23">
         <v>41.942</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="23">
         <v>38.24</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G87" s="23">
         <v>40.639000000000003</v>
       </c>
-      <c r="H87" s="28">
+      <c r="H87" s="23">
         <v>43.518999999999998</v>
       </c>
-      <c r="I87" s="28">
+      <c r="I87" s="23">
         <v>44.798999999999999</v>
       </c>
-      <c r="J87" s="29">
+      <c r="J87" s="24">
         <v>3000.319</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="20" t="s">
+      <c r="B88" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="25">
         <f>AVERAGE(D68,D72,D76,D80,D84)</f>
         <v>1148.636</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="25">
         <f>AVERAGE(E68,E72,E76,E80,E84)</f>
         <v>41.738999999999997</v>
       </c>
-      <c r="F88" s="30">
+      <c r="F88" s="25">
         <f t="shared" ref="F88:J88" si="8">AVERAGE(F68,F72,F76,F80,F84)</f>
         <v>38.271999999999998</v>
       </c>
-      <c r="G88" s="30">
+      <c r="G88" s="25">
         <f t="shared" si="8"/>
         <v>40.485399999999998</v>
       </c>
-      <c r="H88" s="30">
+      <c r="H88" s="25">
         <f t="shared" si="8"/>
         <v>43.198999999999998</v>
       </c>
-      <c r="I88" s="30">
+      <c r="I88" s="25">
         <f t="shared" si="8"/>
         <v>44.587800000000001</v>
       </c>
-      <c r="J88" s="30">
+      <c r="J88" s="25">
         <f t="shared" si="8"/>
         <v>3000.319</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="13"/>
+      <c r="B89" s="29"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="24">
+      <c r="D89" s="19">
         <f>AVERAGE(D69,D73,D77,D81,D85)</f>
         <v>1149.6820000000002</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E89" s="19">
         <f t="shared" ref="E89:J89" si="9">AVERAGE(E69,E73,E77,E81,E85)</f>
         <v>41.692400000000006</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="19">
         <f t="shared" si="9"/>
         <v>38.182400000000001</v>
       </c>
-      <c r="G89" s="24">
+      <c r="G89" s="19">
         <f t="shared" si="9"/>
         <v>40.4726</v>
       </c>
-      <c r="H89" s="24">
+      <c r="H89" s="19">
         <f t="shared" si="9"/>
         <v>43.160600000000002</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I89" s="19">
         <f t="shared" si="9"/>
         <v>44.498200000000004</v>
       </c>
-      <c r="J89" s="24">
+      <c r="J89" s="19">
         <f t="shared" si="9"/>
         <v>3000.319</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="13"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="19">
         <f>AVERAGE(D70,D74,D78,D82,D86)</f>
         <v>1144.56</v>
       </c>
-      <c r="E90" s="24">
+      <c r="E90" s="19">
         <f t="shared" ref="E90:J90" si="10">AVERAGE(E70,E74,E78,E82,E86)</f>
         <v>41.863599999999998</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="19">
         <f t="shared" si="10"/>
         <v>38.2592</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="19">
         <f t="shared" si="10"/>
         <v>40.523800000000001</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H90" s="19">
         <f t="shared" si="10"/>
         <v>43.288599999999995</v>
       </c>
-      <c r="I90" s="24">
+      <c r="I90" s="19">
         <f t="shared" si="10"/>
         <v>44.664599999999993</v>
       </c>
-      <c r="J90" s="24">
+      <c r="J90" s="19">
         <f t="shared" si="10"/>
         <v>3000.319</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="17"/>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="30"/>
+      <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D91" s="28">
+      <c r="D91" s="23">
         <f>AVERAGE(D71,D75,D79,D83,D87)</f>
         <v>1147.454</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="23">
         <f t="shared" ref="E91:J91" si="11">AVERAGE(E71,E75,E79,E83,E87)</f>
         <v>41.827199999999998</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="23">
         <f t="shared" si="11"/>
         <v>38.393600000000006</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="23">
         <f t="shared" si="11"/>
         <v>40.536600000000007</v>
       </c>
-      <c r="H91" s="28">
+      <c r="H91" s="23">
         <f t="shared" si="11"/>
         <v>43.256600000000006</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="23">
         <f t="shared" si="11"/>
         <v>44.581400000000002</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="23">
         <f t="shared" si="11"/>
         <v>3000.319</v>
       </c>
@@ -3169,6 +5625,12 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -3184,13 +5646,8 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,30 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064ADEE3-C00C-9D4D-A007-7310172216C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D775239-CDFA-C24A-991B-F47D2FA4E2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Redis-Benchmarks" sheetId="2" r:id="rId1"/>
+    <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
+    <sheet name="Internal Redis-Benchmarks" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">('Redis-Benchmarks'!$D$33,'Redis-Benchmarks'!$D$35,'Redis-Benchmarks'!$D$36)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">('Redis-Benchmarks'!$D$61,'Redis-Benchmarks'!$D$63,'Redis-Benchmarks'!$D$64)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">('Redis-Benchmarks'!$D$88,'Redis-Benchmarks'!$D$90,'Redis-Benchmarks'!$D$91)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">('Redis-Benchmarks'!$D$33,'Redis-Benchmarks'!$D$35,'Redis-Benchmarks'!$D$36)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">('Redis-Benchmarks'!$D$61,'Redis-Benchmarks'!$D$63,'Redis-Benchmarks'!$D$64)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">('Redis-Benchmarks'!$D$88,'Redis-Benchmarks'!$D$90,'Redis-Benchmarks'!$D$91)</definedName>
-    <definedName name="tests_1" localSheetId="0">'Redis-Benchmarks'!$C$12:$J$16</definedName>
-    <definedName name="tests_2" localSheetId="0">'Redis-Benchmarks'!$C$17:$J$20</definedName>
-    <definedName name="tests_3" localSheetId="0">'Redis-Benchmarks'!$C$21:$J$24</definedName>
-    <definedName name="tests_4" localSheetId="0">'Redis-Benchmarks'!$C$25:$J$28</definedName>
-    <definedName name="tests_5" localSheetId="0">'Redis-Benchmarks'!$C$29:$J$32</definedName>
-    <definedName name="tests_6" localSheetId="0">'Redis-Benchmarks'!$C$40:$J$44</definedName>
+    <definedName name="tests_1" localSheetId="0">'External Redis-Benchmarks'!$C$12:$J$16</definedName>
+    <definedName name="tests_2" localSheetId="0">'External Redis-Benchmarks'!$C$17:$J$20</definedName>
+    <definedName name="tests_3" localSheetId="0">'External Redis-Benchmarks'!$C$21:$J$24</definedName>
+    <definedName name="tests_4" localSheetId="0">'External Redis-Benchmarks'!$C$25:$J$28</definedName>
+    <definedName name="tests_5" localSheetId="0">'External Redis-Benchmarks'!$C$29:$J$32</definedName>
+    <definedName name="tests_6" localSheetId="0">'External Redis-Benchmarks'!$C$40:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -246,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -535,11 +529,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -568,7 +620,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -586,12 +638,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,6 +774,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C7B8-2049-8577-95FE69DC01E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -732,6 +793,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C7B8-2049-8577-95FE69DC01E5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -792,7 +858,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -809,7 +875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Redis-Benchmarks'!$E$33,'Redis-Benchmarks'!$E$35,'Redis-Benchmarks'!$E$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$E$33,'External Redis-Benchmarks'!$E$35,'External Redis-Benchmarks'!$E$36)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -920,7 +986,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -937,7 +1003,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Redis-Benchmarks'!$E$61,'Redis-Benchmarks'!$E$63,'Redis-Benchmarks'!$E$64)</c:f>
+              <c:f>('External Redis-Benchmarks'!$E$61,'External Redis-Benchmarks'!$E$63,'External Redis-Benchmarks'!$E$64)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1034,7 +1100,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1051,7 +1117,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Redis-Benchmarks'!$E$88,'Redis-Benchmarks'!$E$90,'Redis-Benchmarks'!$E$91)</c:f>
+              <c:f>('External Redis-Benchmarks'!$E$88,'External Redis-Benchmarks'!$E$90,'External Redis-Benchmarks'!$E$91)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1431,7 +1497,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1448,7 +1514,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Redis-Benchmarks'!$D$33,'Redis-Benchmarks'!$D$35,'Redis-Benchmarks'!$D$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$D$33,'External Redis-Benchmarks'!$D$35,'External Redis-Benchmarks'!$D$36)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1545,7 +1611,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1562,7 +1628,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Redis-Benchmarks'!$D$61,'Redis-Benchmarks'!$D$63,'Redis-Benchmarks'!$D$64)</c:f>
+              <c:f>('External Redis-Benchmarks'!$D$61,'External Redis-Benchmarks'!$D$63,'External Redis-Benchmarks'!$D$64)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1659,7 +1725,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Redis-Benchmarks'!$C$33,'Redis-Benchmarks'!$C$35,'Redis-Benchmarks'!$C$36)</c:f>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1676,7 +1742,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Redis-Benchmarks'!$D$88,'Redis-Benchmarks'!$D$90,'Redis-Benchmarks'!$D$91)</c:f>
+              <c:f>('External Redis-Benchmarks'!$D$88,'External Redis-Benchmarks'!$D$90,'External Redis-Benchmarks'!$D$91)</c:f>
               <c:numCache>
                 <c:formatCode>#\ ##0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1894,6 +1960,1314 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Redis Benchmark Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Normal Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$E$33,'Internal Redis-Benchmarks'!$E$35,'Internal Redis-Benchmarks'!$E$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.18099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18119999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85C0-3C48-866E-5B327DAA31FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Unprotected Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$E$61,'Internal Redis-Benchmarks'!$E$63,'Internal Redis-Benchmarks'!$E$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-85C0-3C48-866E-5B327DAA31FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SGX Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$E$88,'Internal Redis-Benchmarks'!$E$90,'Internal Redis-Benchmarks'!$E$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7796000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7822000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-85C0-3C48-866E-5B327DAA31FE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1230831215"/>
+        <c:axId val="1230832863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1230831215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230832863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1230832863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1230831215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Redis Benchmark Throughput (op/s)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Normal Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$D$33,'Internal Redis-Benchmarks'!$D$35,'Internal Redis-Benchmarks'!$D$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>159477.614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154979.29199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157071.03400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1C5-804F-8854-80A54B526BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Unprotected Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$D$61,'Internal Redis-Benchmarks'!$D$63,'Internal Redis-Benchmarks'!$D$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133159.57999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128920.31000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126850.876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1C5-804F-8854-80A54B526BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SGX Redis</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$D$88,'Internal Redis-Benchmarks'!$D$90,'Internal Redis-Benchmarks'!$D$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17363.324000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17670.458000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17681.723999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A1C5-804F-8854-80A54B526BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1170987759"/>
+        <c:axId val="1170989407"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1170987759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170989407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1170989407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1170987759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1974,6 +3348,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2939,6 +4393,1012 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3048,28 +5508,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>474135</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B106E1ED-3620-7543-B245-35F3491D1273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>321732</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABA9DFB-945C-7046-8BC1-06BCEF34EE3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_4" connectionId="3" xr16:uid="{C5EE8FE5-0397-574F-96C7-029D8D92F13D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_4" connectionId="3" xr16:uid="{C5EE8FE5-0397-574F-96C7-029D8D92F13D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3371,8 +5908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="91" workbookViewId="0">
-      <selection activeCell="Y38" sqref="Y38"/>
+    <sheetView topLeftCell="E23" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3406,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>100000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -3472,7 +6009,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="34">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -3555,7 +6092,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -3582,7 +6119,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="34">
+      <c r="B17" s="28">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -3665,7 +6202,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="35"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -3692,7 +6229,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="34">
+      <c r="B21" s="28">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -3775,7 +6312,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -3802,7 +6339,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="34">
+      <c r="B25" s="28">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -3885,7 +6422,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3912,7 +6449,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="34">
+      <c r="B29" s="28">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -4022,7 +6559,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -4204,7 +6741,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="34">
+      <c r="B41" s="28">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -4287,7 +6824,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -4314,7 +6851,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="34">
+      <c r="B45" s="28">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -4397,7 +6934,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -4424,7 +6961,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="34">
+      <c r="B49" s="28">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -4507,7 +7044,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -4534,7 +7071,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="34">
+      <c r="B53" s="28">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -4617,7 +7154,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -4644,7 +7181,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="34">
+      <c r="B57" s="28">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -4754,7 +7291,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -4935,7 +7472,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="34">
+      <c r="B68" s="28">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -5018,7 +7555,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="35"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -5045,7 +7582,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="34">
+      <c r="B72" s="28">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -5128,7 +7665,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -5155,7 +7692,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="34">
+      <c r="B76" s="28">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -5238,7 +7775,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="35"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -5265,7 +7802,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="34">
+      <c r="B80" s="28">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -5348,7 +7885,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="35"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -5375,7 +7912,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="34">
+      <c r="B84" s="28">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -5485,7 +8022,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -5625,12 +8162,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -5646,6 +8177,2297 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D7AB5-56EB-A14B-8A61-C582BDE41FCF}">
+  <dimension ref="B2:J92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17">
+        <v>162074.56</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.183</v>
+      </c>
+      <c r="F13" s="17">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.183</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.247</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.311</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="29"/>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="19">
+        <v>155038.76999999999</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="29"/>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="19">
+        <v>153846.16</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="34"/>
+      <c r="C16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="21">
+        <v>160771.70000000001</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F16" s="21">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G16" s="21">
+        <v>0.183</v>
+      </c>
+      <c r="H16" s="21">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J16" s="22">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="28">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="17">
+        <v>160000</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.183</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.223</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="29"/>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="19">
+        <v>158478.60999999999</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G18" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="29"/>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="19">
+        <v>158730.16</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F19" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="34"/>
+      <c r="C20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="21">
+        <v>154559.5</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.184</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0.183</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="28">
+        <v>3</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17">
+        <v>157232.70000000001</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="F21" s="17">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.183</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0.223</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="29"/>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="19">
+        <v>157480.31</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F22" s="19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.58299999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="29"/>
+      <c r="C23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="19">
+        <v>154798.75</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.187</v>
+      </c>
+      <c r="F23" s="19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G23" s="19">
+        <v>0.191</v>
+      </c>
+      <c r="H23" s="19">
+        <v>0.247</v>
+      </c>
+      <c r="I23" s="19">
+        <v>0.311</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="21">
+        <v>154559.5</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.182</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0.183</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0.223</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="28">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17">
+        <v>162074.56</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.182</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="G25" s="17">
+        <v>0.183</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0.247</v>
+      </c>
+      <c r="I25" s="17">
+        <v>0.311</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="29"/>
+      <c r="C26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="19">
+        <v>158227.84</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="F26" s="19">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="C27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="19">
+        <v>151515.14000000001</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0.184</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0.191</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.66300000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="21">
+        <v>156985.85999999999</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.183</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J28" s="22">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="28">
+        <v>5</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="17">
+        <v>156006.25</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.182</v>
+      </c>
+      <c r="F29" s="17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.183</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" s="29"/>
+      <c r="C30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="19">
+        <v>156250</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G30" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H30" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I30" s="19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="29"/>
+      <c r="C31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="19">
+        <v>156006.25</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.182</v>
+      </c>
+      <c r="F31" s="19">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G31" s="19">
+        <v>0.183</v>
+      </c>
+      <c r="H31" s="19">
+        <v>0.223</v>
+      </c>
+      <c r="I31" s="19">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="30"/>
+      <c r="C32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="23">
+        <v>158478.60999999999</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.18</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.04</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0.183</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0.223</v>
+      </c>
+      <c r="I32" s="23">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J32" s="24">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="37">
+        <f>AVERAGE(D13,D17,D21,D25,D29)</f>
+        <v>159477.614</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" ref="E33:J33" si="0">AVERAGE(E13,E17,E21,E25,E29)</f>
+        <v>0.18099999999999997</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="0"/>
+        <v>4.1600000000000005E-2</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="0"/>
+        <v>0.183</v>
+      </c>
+      <c r="H33" s="25">
+        <f t="shared" si="0"/>
+        <v>0.23420000000000002</v>
+      </c>
+      <c r="I33" s="25">
+        <f t="shared" si="0"/>
+        <v>0.3014</v>
+      </c>
+      <c r="J33" s="36">
+        <f t="shared" si="0"/>
+        <v>0.85179999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="38">
+        <f t="shared" ref="D34:J34" si="1">AVERAGE(D14,D18,D22,D26,D30)</f>
+        <v>157095.106</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1794</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="1"/>
+        <v>4.1600000000000005E-2</v>
+      </c>
+      <c r="G34" s="19">
+        <f t="shared" si="1"/>
+        <v>0.183</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" si="1"/>
+        <v>0.223</v>
+      </c>
+      <c r="I34" s="19">
+        <f t="shared" si="1"/>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J34" s="20">
+        <f t="shared" si="1"/>
+        <v>0.67579999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="38">
+        <f t="shared" ref="D35:J35" si="2">AVERAGE(D15,D19,D23,D27,D31)</f>
+        <v>154979.29199999999</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" si="2"/>
+        <v>0.18339999999999995</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" si="2"/>
+        <v>0.1862</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" si="2"/>
+        <v>0.22939999999999999</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" si="2"/>
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="J35" s="20">
+        <f t="shared" si="2"/>
+        <v>0.67580000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="30"/>
+      <c r="C36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="39">
+        <f t="shared" ref="D36:J36" si="3">AVERAGE(D16,D20,D24,D28,D32)</f>
+        <v>157071.03400000001</v>
+      </c>
+      <c r="E36" s="23">
+        <f t="shared" si="3"/>
+        <v>0.18119999999999997</v>
+      </c>
+      <c r="F36" s="23">
+        <f t="shared" si="3"/>
+        <v>4.6400000000000004E-2</v>
+      </c>
+      <c r="G36" s="23">
+        <f t="shared" si="3"/>
+        <v>0.183</v>
+      </c>
+      <c r="H36" s="23">
+        <f t="shared" si="3"/>
+        <v>0.2278</v>
+      </c>
+      <c r="I36" s="23">
+        <f t="shared" si="3"/>
+        <v>0.28859999999999997</v>
+      </c>
+      <c r="J36" s="24">
+        <f t="shared" si="3"/>
+        <v>0.62780000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="33"/>
+    </row>
+    <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="28">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="8">
+        <v>131061.59</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J41" s="11">
+        <v>34.847000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="29"/>
+      <c r="C42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9">
+        <v>124843.95</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.255</v>
+      </c>
+      <c r="J42" s="12">
+        <v>35.390999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="29"/>
+      <c r="C43" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="9">
+        <v>128534.7</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="F43" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.215</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J43" s="12">
+        <v>35.006999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="34"/>
+      <c r="C44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="10">
+        <v>125156.45</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0.215</v>
+      </c>
+      <c r="I44" s="10">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J44" s="13">
+        <v>35.326999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="28">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="8">
+        <v>134952.76999999999</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F45" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I45" s="8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J45" s="11">
+        <v>35.103000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="29"/>
+      <c r="C46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="9">
+        <v>130208.34</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J46" s="12">
+        <v>35.167000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="29"/>
+      <c r="C47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="9">
+        <v>131578.95000000001</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F47" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.215</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J47" s="12">
+        <v>34.783000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="34"/>
+      <c r="C48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="10">
+        <v>130718.95</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="F48" s="10">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G48" s="10">
+        <v>0.191</v>
+      </c>
+      <c r="H48" s="10">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I48" s="10">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J48" s="13">
+        <v>35.551000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="28">
+        <v>3</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="8">
+        <v>129870.13</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F49" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="H49" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J49" s="11">
+        <v>35.103000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="29"/>
+      <c r="C50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="9">
+        <v>120481.93</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="F50" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J50" s="12">
+        <v>35.231000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="29"/>
+      <c r="C51" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9">
+        <v>122249.38</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="F51" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J51" s="12">
+        <v>35.710999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="34"/>
+      <c r="C52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="10">
+        <v>122399.02</v>
+      </c>
+      <c r="E52" s="10">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="G52" s="10">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H52" s="10">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I52" s="10">
+        <v>0.311</v>
+      </c>
+      <c r="J52" s="13">
+        <v>35.423000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="28">
+        <v>4</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8">
+        <v>134228.19</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F53" s="8">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.255</v>
+      </c>
+      <c r="J53" s="11">
+        <v>35.198999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="29"/>
+      <c r="C54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="9">
+        <v>127877.23</v>
+      </c>
+      <c r="E54" s="9">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="F54" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J54" s="12">
+        <v>35.231000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="29"/>
+      <c r="C55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="9">
+        <v>128369.71</v>
+      </c>
+      <c r="E55" s="9">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F55" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.215</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J55" s="12">
+        <v>35.039000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="34"/>
+      <c r="C56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="10">
+        <v>123001.23</v>
+      </c>
+      <c r="E56" s="10">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="F56" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="J56" s="13">
+        <v>63.454999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="28">
+        <v>5</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="8">
+        <v>135685.22</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="F57" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J57" s="11">
+        <v>35.039000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="29"/>
+      <c r="C58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="9">
+        <v>132802.12</v>
+      </c>
+      <c r="E58" s="9">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F58" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="H58" s="9">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="J58" s="12">
+        <v>35.262999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="29"/>
+      <c r="C59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="9">
+        <v>133868.81</v>
+      </c>
+      <c r="E59" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F59" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.191</v>
+      </c>
+      <c r="H59" s="9">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J59" s="12">
+        <v>34.975000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="30"/>
+      <c r="C60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="14">
+        <v>132978.73000000001</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="F60" s="14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.191</v>
+      </c>
+      <c r="H60" s="14">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0.247</v>
+      </c>
+      <c r="J60" s="15">
+        <v>35.231000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="25">
+        <f>AVERAGE(D41,D45,D49,D53,D57)</f>
+        <v>133159.57999999999</v>
+      </c>
+      <c r="E61" s="25">
+        <f t="shared" ref="E61:J61" si="4">AVERAGE(E41,E45,E49,E53,E57)</f>
+        <v>0.19839999999999999</v>
+      </c>
+      <c r="F61" s="25">
+        <f t="shared" si="4"/>
+        <v>5.9199999999999996E-2</v>
+      </c>
+      <c r="G61" s="25">
+        <f t="shared" si="4"/>
+        <v>0.191</v>
+      </c>
+      <c r="H61" s="25">
+        <f t="shared" si="4"/>
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="I61" s="25">
+        <f t="shared" si="4"/>
+        <v>0.2646</v>
+      </c>
+      <c r="J61" s="36">
+        <f t="shared" si="4"/>
+        <v>35.058199999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="29"/>
+      <c r="C62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="19">
+        <f t="shared" ref="D62:J62" si="5">AVERAGE(D42,D46,D50,D54,D58)</f>
+        <v>127242.71399999999</v>
+      </c>
+      <c r="E62" s="19">
+        <f t="shared" si="5"/>
+        <v>0.20420000000000002</v>
+      </c>
+      <c r="F62" s="19">
+        <f t="shared" si="5"/>
+        <v>5.4400000000000004E-2</v>
+      </c>
+      <c r="G62" s="19">
+        <f t="shared" si="5"/>
+        <v>0.19420000000000001</v>
+      </c>
+      <c r="H62" s="19">
+        <f t="shared" si="5"/>
+        <v>0.215</v>
+      </c>
+      <c r="I62" s="19">
+        <f t="shared" si="5"/>
+        <v>0.27579999999999999</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="5"/>
+        <v>35.256599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="29"/>
+      <c r="C63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="19">
+        <f t="shared" ref="D63:J63" si="6">AVERAGE(D43,D47,D51,D55,D59)</f>
+        <v>128920.31000000001</v>
+      </c>
+      <c r="E63" s="19">
+        <f t="shared" si="6"/>
+        <v>0.20539999999999997</v>
+      </c>
+      <c r="F63" s="19">
+        <f t="shared" si="6"/>
+        <v>5.9199999999999996E-2</v>
+      </c>
+      <c r="G63" s="19">
+        <f t="shared" si="6"/>
+        <v>0.19580000000000003</v>
+      </c>
+      <c r="H63" s="19">
+        <f t="shared" si="6"/>
+        <v>0.223</v>
+      </c>
+      <c r="I63" s="19">
+        <f t="shared" si="6"/>
+        <v>0.2838</v>
+      </c>
+      <c r="J63" s="20">
+        <f t="shared" si="6"/>
+        <v>35.102999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="30"/>
+      <c r="C64" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="23">
+        <f t="shared" ref="D64:J64" si="7">AVERAGE(D44,D48,D52,D56,D60)</f>
+        <v>126850.876</v>
+      </c>
+      <c r="E64" s="23">
+        <f t="shared" si="7"/>
+        <v>0.2056</v>
+      </c>
+      <c r="F64" s="23">
+        <f t="shared" si="7"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G64" s="23">
+        <f t="shared" si="7"/>
+        <v>0.19740000000000002</v>
+      </c>
+      <c r="H64" s="23">
+        <f t="shared" si="7"/>
+        <v>0.21339999999999998</v>
+      </c>
+      <c r="I64" s="23">
+        <f t="shared" si="7"/>
+        <v>0.28060000000000002</v>
+      </c>
+      <c r="J64" s="24">
+        <f t="shared" si="7"/>
+        <v>40.997399999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
+    </row>
+    <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="28">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="17">
+        <v>17708.52</v>
+      </c>
+      <c r="E68" s="17">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.216</v>
+      </c>
+      <c r="G68" s="17">
+        <v>2.8069999999999999</v>
+      </c>
+      <c r="H68" s="17">
+        <v>3.5190000000000001</v>
+      </c>
+      <c r="I68" s="17">
+        <v>4.2709999999999999</v>
+      </c>
+      <c r="J68" s="18">
+        <v>129.08699999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="29"/>
+      <c r="C69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="19">
+        <v>17229.5</v>
+      </c>
+      <c r="E69" s="19">
+        <v>2.8559999999999999</v>
+      </c>
+      <c r="F69" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="G69" s="19">
+        <v>2.927</v>
+      </c>
+      <c r="H69" s="19">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="I69" s="19">
+        <v>4.6470000000000002</v>
+      </c>
+      <c r="J69" s="20">
+        <v>127.35899999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="29"/>
+      <c r="C70" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="19">
+        <v>17337.03</v>
+      </c>
+      <c r="E70" s="19">
+        <v>2.8319999999999999</v>
+      </c>
+      <c r="F70" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="G70" s="19">
+        <v>2.823</v>
+      </c>
+      <c r="H70" s="19">
+        <v>3.5830000000000002</v>
+      </c>
+      <c r="I70" s="19">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="J70" s="20">
+        <v>142.71899999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="34"/>
+      <c r="C71" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="21">
+        <v>17421.599999999999</v>
+      </c>
+      <c r="E71" s="21">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="G71" s="21">
+        <v>2.903</v>
+      </c>
+      <c r="H71" s="21">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I71" s="21">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="J71" s="22">
+        <v>134.399</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="28">
+        <v>2</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="17">
+        <v>16815.2</v>
+      </c>
+      <c r="E72" s="17">
+        <v>2.9260000000000002</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0.192</v>
+      </c>
+      <c r="G72" s="17">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="H72" s="17">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I72" s="17">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="J72" s="18">
+        <v>126.33499999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="29"/>
+      <c r="C73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="19">
+        <v>17229.5</v>
+      </c>
+      <c r="E73" s="19">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="F73" s="19">
+        <v>0.192</v>
+      </c>
+      <c r="G73" s="19">
+        <v>2.919</v>
+      </c>
+      <c r="H73" s="19">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="I73" s="19">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="J73" s="20">
+        <v>129.59899999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="29"/>
+      <c r="C74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="19">
+        <v>17587.060000000001</v>
+      </c>
+      <c r="E74" s="19">
+        <v>2.7850000000000001</v>
+      </c>
+      <c r="F74" s="19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G74" s="19">
+        <v>2.823</v>
+      </c>
+      <c r="H74" s="19">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="I74" s="19">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="J74" s="20">
+        <v>141.43899999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="34"/>
+      <c r="C75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="21">
+        <v>17614.939999999999</v>
+      </c>
+      <c r="E75" s="21">
+        <v>2.79</v>
+      </c>
+      <c r="F75" s="21">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G75" s="21">
+        <v>2.919</v>
+      </c>
+      <c r="H75" s="21">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I75" s="21">
+        <v>3.823</v>
+      </c>
+      <c r="J75" s="22">
+        <v>124.28700000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="28">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="17">
+        <v>17238.41</v>
+      </c>
+      <c r="E76" s="17">
+        <v>2.8519999999999999</v>
+      </c>
+      <c r="F76" s="17">
+        <v>0.184</v>
+      </c>
+      <c r="G76" s="17">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="H76" s="17">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="I76" s="17">
+        <v>4.5030000000000001</v>
+      </c>
+      <c r="J76" s="18">
+        <v>123.071</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="29"/>
+      <c r="C77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="19">
+        <v>18365.47</v>
+      </c>
+      <c r="E77" s="19">
+        <v>2.673</v>
+      </c>
+      <c r="F77" s="19">
+        <v>0.184</v>
+      </c>
+      <c r="G77" s="19">
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="H77" s="19">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="I77" s="19">
+        <v>4.319</v>
+      </c>
+      <c r="J77" s="20">
+        <v>127.935</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="29"/>
+      <c r="C78" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="19">
+        <v>17421.599999999999</v>
+      </c>
+      <c r="E78" s="19">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="F78" s="19">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G78" s="19">
+        <v>2.927</v>
+      </c>
+      <c r="H78" s="19">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="I78" s="19">
+        <v>4.5190000000000001</v>
+      </c>
+      <c r="J78" s="20">
+        <v>124.54300000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="34"/>
+      <c r="C79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="21">
+        <v>16758.84</v>
+      </c>
+      <c r="E79" s="21">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G79" s="21">
+        <v>2.903</v>
+      </c>
+      <c r="H79" s="21">
+        <v>3.6150000000000002</v>
+      </c>
+      <c r="I79" s="21">
+        <v>4.8789999999999996</v>
+      </c>
+      <c r="J79" s="22">
+        <v>122.175</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="28">
+        <v>4</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" s="17">
+        <v>17599.439999999999</v>
+      </c>
+      <c r="E80" s="17">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="F80" s="17">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G80" s="17">
+        <v>2.823</v>
+      </c>
+      <c r="H80" s="17">
+        <v>3.5990000000000002</v>
+      </c>
+      <c r="I80" s="17">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="J80" s="18">
+        <v>125.18300000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="29"/>
+      <c r="C81" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="19">
+        <v>17605.63</v>
+      </c>
+      <c r="E81" s="19">
+        <v>2.79</v>
+      </c>
+      <c r="F81" s="19">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G81" s="19">
+        <v>2.823</v>
+      </c>
+      <c r="H81" s="19">
+        <v>3.4870000000000001</v>
+      </c>
+      <c r="I81" s="19">
+        <v>4.5910000000000002</v>
+      </c>
+      <c r="J81" s="20">
+        <v>133.119</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="29"/>
+      <c r="C82" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="19">
+        <v>17624.25</v>
+      </c>
+      <c r="E82" s="19">
+        <v>2.7909999999999999</v>
+      </c>
+      <c r="F82" s="19">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G82" s="19">
+        <v>2.7989999999999999</v>
+      </c>
+      <c r="H82" s="19">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="I82" s="19">
+        <v>4.6310000000000002</v>
+      </c>
+      <c r="J82" s="20">
+        <v>118.911</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="34"/>
+      <c r="C83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="21">
+        <v>18480.87</v>
+      </c>
+      <c r="E83" s="21">
+        <v>2.657</v>
+      </c>
+      <c r="F83" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="G83" s="21">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="H83" s="21">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="I83" s="21">
+        <v>4.415</v>
+      </c>
+      <c r="J83" s="22">
+        <v>123.967</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B84" s="28">
+        <v>5</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" s="17">
+        <v>17455.05</v>
+      </c>
+      <c r="E84" s="17">
+        <v>2.819</v>
+      </c>
+      <c r="F84" s="17">
+        <v>0.32</v>
+      </c>
+      <c r="G84" s="17">
+        <v>2.887</v>
+      </c>
+      <c r="H84" s="17">
+        <v>3.5670000000000002</v>
+      </c>
+      <c r="I84" s="17">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="J84" s="18">
+        <v>118.271</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B85" s="29"/>
+      <c r="C85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="19">
+        <v>17310.02</v>
+      </c>
+      <c r="E85" s="19">
+        <v>2.839</v>
+      </c>
+      <c r="F85" s="19">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G85" s="19">
+        <v>2.903</v>
+      </c>
+      <c r="H85" s="19">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I85" s="19">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="J85" s="20">
+        <v>134.27099999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B86" s="29"/>
+      <c r="C86" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="19">
+        <v>18382.349999999999</v>
+      </c>
+      <c r="E86" s="19">
+        <v>2.669</v>
+      </c>
+      <c r="F86" s="19">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G86" s="19">
+        <v>2.8149999999999999</v>
+      </c>
+      <c r="H86" s="19">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="I86" s="19">
+        <v>3.7509999999999999</v>
+      </c>
+      <c r="J86" s="20">
+        <v>129.983</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="30"/>
+      <c r="C87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="23">
+        <v>18132.37</v>
+      </c>
+      <c r="E87" s="23">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="F87" s="23">
+        <v>0.216</v>
+      </c>
+      <c r="G87" s="23">
+        <v>2.7589999999999999</v>
+      </c>
+      <c r="H87" s="23">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="I87" s="23">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="J87" s="24">
+        <v>127.999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="25">
+        <f>AVERAGE(D68,D72,D76,D80,D84)</f>
+        <v>17363.324000000001</v>
+      </c>
+      <c r="E88" s="25">
+        <f t="shared" ref="E88:J88" si="8">AVERAGE(E68,E72,E76,E80,E84)</f>
+        <v>2.8329999999999997</v>
+      </c>
+      <c r="F88" s="25">
+        <f t="shared" si="8"/>
+        <v>0.22880000000000003</v>
+      </c>
+      <c r="G88" s="25">
+        <f t="shared" si="8"/>
+        <v>2.9126000000000003</v>
+      </c>
+      <c r="H88" s="25">
+        <f t="shared" si="8"/>
+        <v>3.5493999999999999</v>
+      </c>
+      <c r="I88" s="25">
+        <f t="shared" si="8"/>
+        <v>4.4118000000000013</v>
+      </c>
+      <c r="J88" s="36">
+        <f t="shared" si="8"/>
+        <v>124.38939999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="29"/>
+      <c r="C89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="19">
+        <f t="shared" ref="D89:J91" si="9">AVERAGE(D69,D73,D77,D81,D85)</f>
+        <v>17548.024000000001</v>
+      </c>
+      <c r="E89" s="19">
+        <f t="shared" si="9"/>
+        <v>2.802</v>
+      </c>
+      <c r="F89" s="19">
+        <f t="shared" si="9"/>
+        <v>0.20480000000000001</v>
+      </c>
+      <c r="G89" s="19">
+        <f t="shared" si="9"/>
+        <v>2.8694000000000002</v>
+      </c>
+      <c r="H89" s="19">
+        <f t="shared" si="9"/>
+        <v>3.5046000000000008</v>
+      </c>
+      <c r="I89" s="19">
+        <f t="shared" si="9"/>
+        <v>4.4694000000000003</v>
+      </c>
+      <c r="J89" s="20">
+        <f t="shared" si="9"/>
+        <v>130.45659999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="29"/>
+      <c r="C90" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="19">
+        <f t="shared" si="9"/>
+        <v>17670.458000000002</v>
+      </c>
+      <c r="E90" s="19">
+        <f t="shared" si="9"/>
+        <v>2.7796000000000003</v>
+      </c>
+      <c r="F90" s="19">
+        <f t="shared" si="9"/>
+        <v>0.2016</v>
+      </c>
+      <c r="G90" s="19">
+        <f t="shared" si="9"/>
+        <v>2.8373999999999997</v>
+      </c>
+      <c r="H90" s="19">
+        <f t="shared" si="9"/>
+        <v>3.5493999999999999</v>
+      </c>
+      <c r="I90" s="19">
+        <f t="shared" si="9"/>
+        <v>4.2534000000000001</v>
+      </c>
+      <c r="J90" s="20">
+        <f t="shared" si="9"/>
+        <v>131.51900000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="30"/>
+      <c r="C91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="23">
+        <f t="shared" si="9"/>
+        <v>17681.723999999995</v>
+      </c>
+      <c r="E91" s="23">
+        <f t="shared" si="9"/>
+        <v>2.7822000000000005</v>
+      </c>
+      <c r="F91" s="23">
+        <f t="shared" si="9"/>
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="G91" s="23">
+        <f t="shared" si="9"/>
+        <v>2.8437999999999999</v>
+      </c>
+      <c r="H91" s="23">
+        <f t="shared" si="9"/>
+        <v>3.5382000000000007</v>
+      </c>
+      <c r="I91" s="23">
+        <f t="shared" si="9"/>
+        <v>4.1269999999999998</v>
+      </c>
+      <c r="J91" s="24">
+        <f t="shared" si="9"/>
+        <v>126.5654</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D775239-CDFA-C24A-991B-F47D2FA4E2A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D469E4EF-FDB8-354E-A343-CCA741EE85B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <definedName name="tests_6" localSheetId="0">'External Redis-Benchmarks'!$C$40:$J$44</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -189,15 +188,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Normal Redis</t>
-  </si>
-  <si>
-    <t>SGX Redis</t>
-  </si>
-  <si>
-    <t>Unsecure Redis</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -208,6 +198,15 @@
   </si>
   <si>
     <t>Get</t>
+  </si>
+  <si>
+    <t>Vulnerable Redis</t>
+  </si>
+  <si>
+    <t>Built-in Secured Redis</t>
+  </si>
+  <si>
+    <t>SGX Secured Redis</t>
   </si>
 </sst>
 </file>
@@ -620,7 +619,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -638,16 +641,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +748,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Normal Redis</c:v>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -800,6 +807,7 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -814,7 +822,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -901,7 +909,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unprotected Redis</c:v>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -914,21 +930,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000019-A07C-8042-8AD6-CC030ED8774F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -943,7 +945,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -959,11 +961,12 @@
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -984,23 +987,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Ping</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Set</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Get</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>('External Redis-Benchmarks'!$E$61,'External Redis-Benchmarks'!$E$63,'External Redis-Benchmarks'!$E$64)</c:f>
@@ -1021,7 +1007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-A07C-8042-8AD6-CC030ED8774F}"/>
+              <c16:uniqueId val="{00000009-FCDD-F44B-B413-4D6098EBFC3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1029,7 +1015,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SGX Redis</c:v>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1042,6 +1036,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1056,7 +1051,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1180,7 +1175,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1223,7 +1218,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1281,7 +1331,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1380,7 +1430,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Benchmark Throughput (op/s)</a:t>
+              <a:t> Benchmark Throughput</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
@@ -1426,7 +1476,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Normal Redis</c:v>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1439,6 +1497,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1453,7 +1512,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1540,7 +1599,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unprotected Redis</c:v>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1553,6 +1620,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1567,7 +1635,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1654,7 +1722,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SGX Redis</c:v>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1667,6 +1743,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1681,7 +1758,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1799,7 +1876,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1842,7 +1919,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                  <a:t> Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1900,7 +2037,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2073,7 +2210,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Normal Redis</c:v>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2086,6 +2231,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2100,7 +2246,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2187,7 +2333,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unprotected Redis</c:v>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2200,6 +2354,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2214,7 +2369,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2301,7 +2456,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SGX Redis</c:v>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2314,6 +2477,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2328,7 +2492,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2453,7 +2617,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2496,7 +2660,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2554,7 +2773,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2665,7 +2884,7 @@
               <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Redis Benchmark Throughput (op/s)</a:t>
+              <a:t>Redis Benchmark Throughput</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
               <a:effectLst/>
@@ -2727,7 +2946,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Normal Redis</c:v>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2740,6 +2967,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2754,7 +2982,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2841,7 +3069,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Unprotected Redis</c:v>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2854,6 +3090,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2868,7 +3105,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2955,7 +3192,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SGX Redis</c:v>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2968,6 +3213,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2982,7 +3228,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3107,7 +3353,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3150,7 +3396,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#\ ##0.000" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Operations Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3208,7 +3509,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5590,23 +5891,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5908,8 +6209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="E23" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="H26" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5967,17 +6268,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -6009,7 +6310,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="28">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -6038,7 +6339,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -6065,7 +6366,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -6092,7 +6393,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -6119,7 +6420,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="28">
+      <c r="B17" s="38">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -6148,7 +6449,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -6175,7 +6476,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="29"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -6202,7 +6503,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -6229,7 +6530,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="28">
+      <c r="B21" s="38">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -6258,7 +6559,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="29"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -6285,7 +6586,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="29"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -6312,7 +6613,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -6339,7 +6640,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="28">
+      <c r="B25" s="38">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -6368,7 +6669,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -6395,7 +6696,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="29"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -6422,7 +6723,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -6449,7 +6750,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="28">
+      <c r="B29" s="38">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -6478,7 +6779,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="29"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -6505,7 +6806,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="29"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -6532,7 +6833,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -6559,11 +6860,11 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="35" t="s">
-        <v>21</v>
+      <c r="B33" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="25">
         <f>AVERAGE(D13,D17,D21,D25,D29)</f>
@@ -6595,7 +6896,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="29"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -6629,9 +6930,9 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="29"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" s="19">
         <f>AVERAGE(D15,D19,D23,D27,D31)</f>
@@ -6663,9 +6964,9 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D36" s="23">
         <f>AVERAGE(D16,D20,D24,D28,D32)</f>
@@ -6699,17 +7000,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -6741,7 +7042,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="28">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -6770,7 +7071,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="29"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -6797,7 +7098,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="29"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -6824,7 +7125,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -6851,7 +7152,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="28">
+      <c r="B45" s="38">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -6880,7 +7181,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="29"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -6907,7 +7208,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="29"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -6934,7 +7235,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -6961,7 +7262,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="28">
+      <c r="B49" s="38">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -6990,7 +7291,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="29"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -7017,7 +7318,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="29"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -7044,7 +7345,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -7071,7 +7372,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="28">
+      <c r="B53" s="38">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -7100,7 +7401,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="29"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -7127,7 +7428,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="29"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -7154,7 +7455,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -7181,7 +7482,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="28">
+      <c r="B57" s="38">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -7210,7 +7511,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="29"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -7237,7 +7538,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="29"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -7264,7 +7565,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -7291,8 +7592,8 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="35" t="s">
-        <v>21</v>
+      <c r="B61" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>14</v>
@@ -7327,7 +7628,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="29"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -7361,7 +7662,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="29"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -7395,7 +7696,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -7430,17 +7731,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="33"/>
+      <c r="B66" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -7472,7 +7773,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="28">
+      <c r="B68" s="38">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -7501,7 +7802,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="29"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -7528,7 +7829,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="29"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -7555,7 +7856,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -7582,7 +7883,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="28">
+      <c r="B72" s="38">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -7611,7 +7912,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="29"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -7638,7 +7939,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="29"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -7665,7 +7966,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -7692,7 +7993,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="28">
+      <c r="B76" s="38">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -7721,7 +8022,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="29"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -7748,7 +8049,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="29"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -7775,7 +8076,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -7802,7 +8103,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="28">
+      <c r="B80" s="38">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -7831,7 +8132,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="29"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -7858,7 +8159,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="29"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -7885,7 +8186,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="34"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -7912,7 +8213,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="28">
+      <c r="B84" s="38">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -7941,7 +8242,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="29"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -7968,7 +8269,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="29"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -7995,7 +8296,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -8022,8 +8323,8 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="35" t="s">
-        <v>21</v>
+      <c r="B88" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>14</v>
@@ -8058,7 +8359,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="29"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -8092,7 +8393,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="29"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -8126,7 +8427,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="30"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -8162,6 +8463,12 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -8177,12 +8484,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8193,8 +8494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D7AB5-56EB-A14B-8A61-C582BDE41FCF}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="75" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView topLeftCell="J34" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8252,17 +8553,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="B11" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -8294,7 +8595,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="28">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -8323,7 +8624,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -8350,7 +8651,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -8377,7 +8678,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -8404,7 +8705,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="28">
+      <c r="B17" s="38">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -8433,7 +8734,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="29"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -8460,7 +8761,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="29"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -8487,7 +8788,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -8514,7 +8815,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="28">
+      <c r="B21" s="38">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -8543,7 +8844,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="29"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -8570,7 +8871,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="29"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -8597,7 +8898,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -8624,7 +8925,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="28">
+      <c r="B25" s="38">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -8653,7 +8954,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="29"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -8680,7 +8981,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="29"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -8707,7 +9008,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -8734,7 +9035,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="28">
+      <c r="B29" s="38">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -8763,7 +9064,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="29"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -8790,7 +9091,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="29"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -8817,7 +9118,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -8844,13 +9145,13 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
-        <v>21</v>
+      <c r="B33" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="37">
+        <v>19</v>
+      </c>
+      <c r="D33" s="29">
         <f>AVERAGE(D13,D17,D21,D25,D29)</f>
         <v>159477.614</v>
       </c>
@@ -8874,17 +9175,17 @@
         <f t="shared" si="0"/>
         <v>0.3014</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="28">
         <f t="shared" si="0"/>
         <v>0.85179999999999989</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="30">
         <f t="shared" ref="D34:J34" si="1">AVERAGE(D14,D18,D22,D26,D30)</f>
         <v>157095.106</v>
       </c>
@@ -8914,11 +9215,11 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="38">
+        <v>20</v>
+      </c>
+      <c r="D35" s="30">
         <f t="shared" ref="D35:J35" si="2">AVERAGE(D15,D19,D23,D27,D31)</f>
         <v>154979.29199999999</v>
       </c>
@@ -8948,11 +9249,11 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="39">
+        <v>21</v>
+      </c>
+      <c r="D36" s="31">
         <f t="shared" ref="D36:J36" si="3">AVERAGE(D16,D20,D24,D28,D32)</f>
         <v>157071.03400000001</v>
       </c>
@@ -8984,17 +9285,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
+      <c r="B39" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="37"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -9026,7 +9327,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="28">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -9055,7 +9356,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="29"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -9082,7 +9383,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="29"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -9109,7 +9410,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -9136,7 +9437,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="28">
+      <c r="B45" s="38">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -9165,7 +9466,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="29"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -9192,7 +9493,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="29"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -9219,7 +9520,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="34"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -9246,7 +9547,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="28">
+      <c r="B49" s="38">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -9275,7 +9576,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="29"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -9302,7 +9603,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="29"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -9329,7 +9630,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="34"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -9356,7 +9657,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="28">
+      <c r="B53" s="38">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -9385,7 +9686,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="29"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -9412,7 +9713,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="29"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -9439,7 +9740,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="34"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -9466,7 +9767,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="28">
+      <c r="B57" s="38">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -9495,7 +9796,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="29"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -9522,7 +9823,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="29"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -9549,7 +9850,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -9576,8 +9877,8 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="35" t="s">
-        <v>21</v>
+      <c r="B61" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>14</v>
@@ -9606,13 +9907,13 @@
         <f t="shared" si="4"/>
         <v>0.2646</v>
       </c>
-      <c r="J61" s="36">
+      <c r="J61" s="28">
         <f t="shared" si="4"/>
         <v>35.058199999999999</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="29"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -9646,7 +9947,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="29"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -9680,7 +9981,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -9715,17 +10016,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="33"/>
+      <c r="B66" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="37"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -9757,7 +10058,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="28">
+      <c r="B68" s="38">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -9786,7 +10087,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="29"/>
+      <c r="B69" s="33"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -9813,7 +10114,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="29"/>
+      <c r="B70" s="33"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -9840,7 +10141,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="34"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -9867,7 +10168,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="28">
+      <c r="B72" s="38">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -9896,7 +10197,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="29"/>
+      <c r="B73" s="33"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -9923,7 +10224,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="29"/>
+      <c r="B74" s="33"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -9950,7 +10251,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -9977,7 +10278,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="28">
+      <c r="B76" s="38">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -10006,7 +10307,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="29"/>
+      <c r="B77" s="33"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -10033,7 +10334,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="29"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -10060,7 +10361,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="34"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -10087,7 +10388,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="28">
+      <c r="B80" s="38">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -10116,7 +10417,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="29"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -10143,7 +10444,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="29"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -10170,7 +10471,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="34"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -10197,7 +10498,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="28">
+      <c r="B84" s="38">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -10226,7 +10527,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="29"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -10253,7 +10554,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="29"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -10280,7 +10581,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -10307,8 +10608,8 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="35" t="s">
-        <v>21</v>
+      <c r="B88" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>14</v>
@@ -10337,13 +10638,13 @@
         <f t="shared" si="8"/>
         <v>4.4118000000000013</v>
       </c>
-      <c r="J88" s="36">
+      <c r="J88" s="28">
         <f t="shared" si="8"/>
         <v>124.38939999999998</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="29"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -10377,7 +10678,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="29"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -10411,7 +10712,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="30"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -10447,6 +10748,18 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
     <mergeCell ref="B80:B83"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="B88:B91"/>
@@ -10456,18 +10769,6 @@
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="B72:B75"/>
     <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D469E4EF-FDB8-354E-A343-CCA741EE85B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908B5F50-97DB-0540-9113-93CB6EB43372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
@@ -1497,7 +1497,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1512,7 +1512,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1620,7 +1620,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1635,7 +1635,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1743,7 +1743,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1758,7 +1758,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1926,7 +1926,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1939,14 +1939,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Operations</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
                   <a:t> Per Second</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1600"/>
+                <a:endParaRPr lang="en-GB" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1963,7 +1963,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1995,7 +1995,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2098,6 +2098,712 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Redis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Benchmark Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('External Redis-Benchmarks'!$E$33,'External Redis-Benchmarks'!$E$35,'External Redis-Benchmarks'!$E$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.444800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.435199999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.427000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B60A-F945-B358-0D6F141B9E50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('External Redis-Benchmarks'!$E$61,'External Redis-Benchmarks'!$E$63,'External Redis-Benchmarks'!$E$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>39.8262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.905799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.865400000000008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B60A-F945-B358-0D6F141B9E50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'External Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('External Redis-Benchmarks'!$E$88,'External Redis-Benchmarks'!$E$90,'External Redis-Benchmarks'!$E$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.863599999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.827199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B60A-F945-B358-0D6F141B9E50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1947686256"/>
+        <c:axId val="209290559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1947686256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209290559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209290559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947686256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2833,7 +3539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3569,6 +4275,1548 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Redis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Benchmark Latency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$E$33,'Internal Redis-Benchmarks'!$E$35,'Internal Redis-Benchmarks'!$E$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.18099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18119999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9CB-3C42-99EE-C3682364CEB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$E$61,'Internal Redis-Benchmarks'!$E$63,'Internal Redis-Benchmarks'!$E$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20539999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9CB-3C42-99EE-C3682364CEB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$E$88,'Internal Redis-Benchmarks'!$E$90,'Internal Redis-Benchmarks'!$E$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8329999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7796000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7822000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9CB-3C42-99EE-C3682364CEB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1947686256"/>
+        <c:axId val="209290559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1947686256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209290559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209290559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947686256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Redis</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Benchmark Throughput</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$11:$J$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vulnerable Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$D$33,'Internal Redis-Benchmarks'!$D$35,'Internal Redis-Benchmarks'!$D$36)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>159477.614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>154979.29199999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157071.03400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76AB-D742-9205-2EC3B4F80AA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$39:$J$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Built-in Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3972982358422094E-2"/>
+                  <c:y val="7.8282253135836047E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-76AB-D742-9205-2EC3B4F80AA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7466227948027595E-2"/>
+                  <c:y val="3.9141126567918023E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-76AB-D742-9205-2EC3B4F80AA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.9212850742830294E-2"/>
+                  <c:y val="3.9141126567918379E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-76AB-D742-9205-2EC3B4F80AA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$D$61,'Internal Redis-Benchmarks'!$D$63,'Internal Redis-Benchmarks'!$D$64)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133159.57999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128920.31000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126850.876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-76AB-D742-9205-2EC3B4F80AA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Internal Redis-Benchmarks'!$B$66:$J$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGX Secured Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2226359563619392E-2"/>
+                  <c:y val="3.9141126567916584E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-76AB-D742-9205-2EC3B4F80AA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5719605153224955E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-76AB-D742-9205-2EC3B4F80AA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3972982358422125E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-76AB-D742-9205-2EC3B4F80AA1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Internal Redis-Benchmarks'!$C$33,'Internal Redis-Benchmarks'!$C$35,'Internal Redis-Benchmarks'!$C$36)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Ping</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Set</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Get</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Internal Redis-Benchmarks'!$D$88,'Internal Redis-Benchmarks'!$D$90,'Internal Redis-Benchmarks'!$D$91)</c:f>
+              <c:numCache>
+                <c:formatCode>#\ ##0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17363.324000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17670.458000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17681.723999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-76AB-D742-9205-2EC3B4F80AA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1947686256"/>
+        <c:axId val="209290559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1947686256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209290559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="209290559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> Per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#\ ##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1947686256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3729,6 +5977,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4727,7 +7095,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4750,17 +7118,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -4931,22 +7288,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5051,8 +7409,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5184,19 +7542,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5700,6 +8059,1497 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5773,15 +9623,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>594753</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:rowOff>28231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>265165</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>83736</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>560888</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5801,6 +9651,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>589561</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>555696</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>1096</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FC9B916-BB90-0F46-BC0F-B8D1AFB99AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5878,6 +9766,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>667175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C81C5CE-1DA2-344D-B085-DAADBDDEE102}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>667175</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>133169</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CE4C78-55BF-FD4B-A6F4-B2306B77D93C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6209,8 +10173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H26" zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R68" sqref="R68"/>
+    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8494,8 +12458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D7AB5-56EB-A14B-8A61-C582BDE41FCF}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="J34" zoomScale="114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" topLeftCell="R26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908B5F50-97DB-0540-9113-93CB6EB43372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A5037-7E01-1A4C-BB98-8AFAC46AE352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
     <sheet name="Internal Redis-Benchmarks" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'External Redis-Benchmarks'!$B$11:$J$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'External Redis-Benchmarks'!$B$39:$J$39</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'External Redis-Benchmarks'!$B$66:$J$66</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">('External Redis-Benchmarks'!$E$33,'External Redis-Benchmarks'!$E$35,'External Redis-Benchmarks'!$E$36)</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">('External Redis-Benchmarks'!$E$61,'External Redis-Benchmarks'!$E$63,'External Redis-Benchmarks'!$E$64)</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">('External Redis-Benchmarks'!$E$88,'External Redis-Benchmarks'!$E$90,'External Redis-Benchmarks'!$E$91)</definedName>
     <definedName name="tests_1" localSheetId="0">'External Redis-Benchmarks'!$C$12:$J$16</definedName>
     <definedName name="tests_2" localSheetId="0">'External Redis-Benchmarks'!$C$17:$J$20</definedName>
     <definedName name="tests_3" localSheetId="0">'External Redis-Benchmarks'!$C$21:$J$24</definedName>
@@ -623,7 +630,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -641,10 +648,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3165,7 +3172,7 @@
             <c:strRef>
               <c:f>'Internal Redis-Benchmarks'!$B$66:$J$66</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>SGX Secured Redis</c:v>
                 </c:pt>
@@ -9661,13 +9668,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>589561</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>101607</xdr:rowOff>
+      <xdr:rowOff>101606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>555696</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>1096</xdr:rowOff>
+      <xdr:rowOff>15246</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9855,23 +9862,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10173,8 +10180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U56" sqref="U56"/>
+    <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10274,7 +10281,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="38">
+      <c r="B13" s="32">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -10357,7 +10364,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -10384,7 +10391,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
+      <c r="B17" s="32">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -10467,7 +10474,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -10494,7 +10501,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="38">
+      <c r="B21" s="32">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -10577,7 +10584,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -10604,7 +10611,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="38">
+      <c r="B25" s="32">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -10687,7 +10694,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -10714,7 +10721,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="38">
+      <c r="B29" s="32">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -10824,7 +10831,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -11006,7 +11013,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="38">
+      <c r="B41" s="32">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -11089,7 +11096,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -11116,7 +11123,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="38">
+      <c r="B45" s="32">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -11199,7 +11206,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -11226,7 +11233,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="38">
+      <c r="B49" s="32">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -11309,7 +11316,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -11336,7 +11343,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="38">
+      <c r="B53" s="32">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -11419,7 +11426,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -11446,7 +11453,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="38">
+      <c r="B57" s="32">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -11556,7 +11563,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -11737,7 +11744,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="38">
+      <c r="B68" s="32">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -11820,7 +11827,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -11847,7 +11854,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="38">
+      <c r="B72" s="32">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -11930,7 +11937,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -11957,7 +11964,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="38">
+      <c r="B76" s="32">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -12040,7 +12047,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -12067,7 +12074,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="38">
+      <c r="B80" s="32">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -12150,7 +12157,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -12177,7 +12184,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="38">
+      <c r="B84" s="32">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -12287,7 +12294,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -12427,12 +12434,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -12448,6 +12449,12 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12458,7 +12465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D7AB5-56EB-A14B-8A61-C582BDE41FCF}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
@@ -12559,7 +12566,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="38">
+      <c r="B13" s="32">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -12642,7 +12649,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -12669,7 +12676,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
+      <c r="B17" s="32">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -12752,7 +12759,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -12779,7 +12786,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="38">
+      <c r="B21" s="32">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -12862,7 +12869,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -12889,7 +12896,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="38">
+      <c r="B25" s="32">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -12972,7 +12979,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -12999,7 +13006,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="38">
+      <c r="B29" s="32">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13109,7 +13116,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -13291,7 +13298,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="38">
+      <c r="B41" s="32">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -13374,7 +13381,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -13401,7 +13408,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="38">
+      <c r="B45" s="32">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -13484,7 +13491,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -13511,7 +13518,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="38">
+      <c r="B49" s="32">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -13594,7 +13601,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+      <c r="B52" s="38"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -13621,7 +13628,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="38">
+      <c r="B53" s="32">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -13704,7 +13711,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -13731,7 +13738,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="38">
+      <c r="B57" s="32">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -13841,7 +13848,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -14022,7 +14029,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="38">
+      <c r="B68" s="32">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -14105,7 +14112,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -14132,7 +14139,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="38">
+      <c r="B72" s="32">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -14215,7 +14222,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -14242,7 +14249,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="38">
+      <c r="B76" s="32">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -14325,7 +14332,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -14352,7 +14359,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="38">
+      <c r="B80" s="32">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -14435,7 +14442,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -14462,7 +14469,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="38">
+      <c r="B84" s="32">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -14572,7 +14579,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="39" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -14712,6 +14719,15 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -14724,15 +14740,6 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2A5037-7E01-1A4C-BB98-8AFAC46AE352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFC7FF-4DF8-3147-A396-AE0619343C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
     <sheet name="Internal Redis-Benchmarks" sheetId="3" r:id="rId2"/>
+    <sheet name="Throughput Graphs" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'External Redis-Benchmarks'!$B$11:$J$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'External Redis-Benchmarks'!$B$39:$J$39</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'External Redis-Benchmarks'!$B$66:$J$66</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">('External Redis-Benchmarks'!$C$33,'External Redis-Benchmarks'!$C$35,'External Redis-Benchmarks'!$C$36)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">('External Redis-Benchmarks'!$E$33,'External Redis-Benchmarks'!$E$35,'External Redis-Benchmarks'!$E$36)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">('External Redis-Benchmarks'!$E$61,'External Redis-Benchmarks'!$E$63,'External Redis-Benchmarks'!$E$64)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">('External Redis-Benchmarks'!$E$88,'External Redis-Benchmarks'!$E$90,'External Redis-Benchmarks'!$E$91)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Throughput Graphs'!$C$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Throughput Graphs'!$C$6:$C$12</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Throughput Graphs'!$D$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Throughput Graphs'!$D$6:$D$12</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Throughput Graphs'!$C$5</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Throughput Graphs'!$C$6:$C$12</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Throughput Graphs'!$D$5</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Throughput Graphs'!$D$6:$D$12</definedName>
     <definedName name="tests_1" localSheetId="0">'External Redis-Benchmarks'!$C$12:$J$16</definedName>
     <definedName name="tests_2" localSheetId="0">'External Redis-Benchmarks'!$C$17:$J$20</definedName>
     <definedName name="tests_3" localSheetId="0">'External Redis-Benchmarks'!$C$21:$J$24</definedName>
@@ -139,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="30">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -215,6 +217,21 @@
   <si>
     <t>SGX Secured Redis</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Requests</t>
+  </si>
+  <si>
+    <t>GET Throughput</t>
+  </si>
+  <si>
+    <t>Proxy  - Redis</t>
+  </si>
+  <si>
+    <t>Proxy SGX - Redis SGX</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,6 +254,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,7 +271,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -593,11 +618,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -630,7 +745,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,10 +763,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5824,6 +5951,561 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>GET Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput Graphs'!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy  - Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Throughput Graphs'!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Throughput Graphs'!$D$6:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B779-5547-B112-F52CB8C2A4EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Throughput Graphs'!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX - Redis SGX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Throughput Graphs'!$C$17:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Throughput Graphs'!$D$17:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B779-5547-B112-F52CB8C2A4EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1553195167"/>
+        <c:axId val="1553196815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1553195167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553196815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1553196815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553195167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6104,6 +6786,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -9570,6 +10292,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9857,28 +11095,69 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D20599-F8BD-BA43-8CFB-E5411DA46714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_4" connectionId="3" xr16:uid="{C5EE8FE5-0397-574F-96C7-029D8D92F13D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10180,7 +11459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I33" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="I33" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
@@ -10281,7 +11560,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="32">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -10364,7 +11643,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -10391,7 +11670,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="32">
+      <c r="B17" s="38">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -10474,7 +11753,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -10501,7 +11780,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="32">
+      <c r="B21" s="38">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -10584,7 +11863,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -10611,7 +11890,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="32">
+      <c r="B25" s="38">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -10694,7 +11973,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -10721,7 +12000,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="32">
+      <c r="B29" s="38">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -10831,7 +12110,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -11013,7 +12292,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="32">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -11096,7 +12375,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -11123,7 +12402,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="32">
+      <c r="B45" s="38">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -11206,7 +12485,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -11233,7 +12512,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="32">
+      <c r="B49" s="38">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -11316,7 +12595,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="38"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -11343,7 +12622,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="32">
+      <c r="B53" s="38">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -11426,7 +12705,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -11453,7 +12732,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="32">
+      <c r="B57" s="38">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -11563,7 +12842,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -11744,7 +13023,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="32">
+      <c r="B68" s="38">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -11827,7 +13106,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -11854,7 +13133,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="32">
+      <c r="B72" s="38">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -11937,7 +13216,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="38"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -11964,7 +13243,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="32">
+      <c r="B76" s="38">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -12047,7 +13326,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="38"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -12074,7 +13353,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="32">
+      <c r="B80" s="38">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -12157,7 +13436,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="38"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -12184,7 +13463,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="32">
+      <c r="B84" s="38">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -12294,7 +13573,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -12434,6 +13713,12 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -12449,12 +13734,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12566,7 +13845,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="32">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -12649,7 +13928,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -12676,7 +13955,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="32">
+      <c r="B17" s="38">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -12759,7 +14038,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -12786,7 +14065,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="32">
+      <c r="B21" s="38">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -12869,7 +14148,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -12896,7 +14175,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="32">
+      <c r="B25" s="38">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -12979,7 +14258,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -13006,7 +14285,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="32">
+      <c r="B29" s="38">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13116,7 +14395,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -13298,7 +14577,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="32">
+      <c r="B41" s="38">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -13381,7 +14660,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -13408,7 +14687,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="32">
+      <c r="B45" s="38">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -13491,7 +14770,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -13518,7 +14797,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="32">
+      <c r="B49" s="38">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -13601,7 +14880,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="38"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -13628,7 +14907,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="32">
+      <c r="B53" s="38">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -13711,7 +14990,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -13738,7 +15017,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="32">
+      <c r="B57" s="38">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -13848,7 +15127,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -14029,7 +15308,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="32">
+      <c r="B68" s="38">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -14112,7 +15391,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -14139,7 +15418,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="32">
+      <c r="B72" s="38">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -14222,7 +15501,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="38"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -14249,7 +15528,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="32">
+      <c r="B76" s="38">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -14332,7 +15611,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="38"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -14359,7 +15638,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="32">
+      <c r="B80" s="38">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -14442,7 +15721,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="38"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -14469,7 +15748,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="32">
+      <c r="B84" s="38">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -14579,7 +15858,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -14719,15 +15998,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -14740,6 +16010,186 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074A9C4C-98EA-374F-B3FE-F455AC9FA99B}">
+  <dimension ref="C2:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="43">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="44">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="43">
+        <v>2</v>
+      </c>
+      <c r="D8" s="44">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="43">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="43">
+        <v>4</v>
+      </c>
+      <c r="D10" s="44">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="43">
+        <v>5</v>
+      </c>
+      <c r="D11" s="44">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="45">
+        <v>6</v>
+      </c>
+      <c r="D12" s="46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="43">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="43">
+        <v>1</v>
+      </c>
+      <c r="D18" s="44">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="43">
+        <v>2</v>
+      </c>
+      <c r="D19" s="44">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="43">
+        <v>3</v>
+      </c>
+      <c r="D20" s="44">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="43">
+        <v>4</v>
+      </c>
+      <c r="D21" s="44">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="43">
+        <v>5</v>
+      </c>
+      <c r="D22" s="44">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="45">
+        <v>6</v>
+      </c>
+      <c r="D23" s="46">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDFC7FF-4DF8-3147-A396-AE0619343C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2522A-3905-B54D-8A65-C3A04579BA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="-4560" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
     <sheet name="Internal Redis-Benchmarks" sheetId="3" r:id="rId2"/>
-    <sheet name="Throughput Graphs" sheetId="4" r:id="rId3"/>
+    <sheet name="Attestation Results" sheetId="4" r:id="rId3"/>
+    <sheet name="Standalone Redis" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.4" hidden="1">'Throughput Graphs'!$C$5</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Throughput Graphs'!$C$6:$C$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Throughput Graphs'!$D$5</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Throughput Graphs'!$D$6:$D$12</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">'Throughput Graphs'!$C$5</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Throughput Graphs'!$C$6:$C$12</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Throughput Graphs'!$D$5</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Throughput Graphs'!$D$6:$D$12</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Standalone Redis'!$AB$11:$AB$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Standalone Redis'!$AB$9:$AC$9</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Standalone Redis'!$AB$9:$AC$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Standalone Redis'!$AC$11:$AC$31</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Standalone Redis'!$AE$11:$AE$31</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Standalone Redis'!$AE$9:$AF$9</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Standalone Redis'!$AF$11:$AF$31</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Standalone Redis'!$AK$11:$AK$31</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Standalone Redis'!$AK$9:$AL$9</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Standalone Redis'!$AL$11:$AL$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Standalone Redis'!$AC$11:$AC$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Standalone Redis'!$AE$11:$AE$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Standalone Redis'!$AE$9:$AF$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Standalone Redis'!$AF$11:$AF$31</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Standalone Redis'!$AK$11:$AK$31</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Standalone Redis'!$AK$9:$AL$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Standalone Redis'!$AL$11:$AL$31</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Standalone Redis'!$AB$11:$AB$31</definedName>
     <definedName name="tests_1" localSheetId="0">'External Redis-Benchmarks'!$C$12:$J$16</definedName>
     <definedName name="tests_2" localSheetId="0">'External Redis-Benchmarks'!$C$17:$J$20</definedName>
     <definedName name="tests_3" localSheetId="0">'External Redis-Benchmarks'!$C$21:$J$24</definedName>
@@ -141,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -227,20 +238,153 @@
     <t>GET Throughput</t>
   </si>
   <si>
-    <t>Proxy  - Redis</t>
+    <t>Redis Container</t>
   </si>
   <si>
-    <t>Proxy SGX - Redis SGX</t>
+    <t>Without SGX</t>
+  </si>
+  <si>
+    <t>With SGX</t>
+  </si>
+  <si>
+    <t>Redis Proxy</t>
+  </si>
+  <si>
+    <t>2nd Run</t>
+  </si>
+  <si>
+    <t>4th Run</t>
+  </si>
+  <si>
+    <t>5th Run</t>
+  </si>
+  <si>
+    <t>3rd Run</t>
+  </si>
+  <si>
+    <t>1st Run</t>
+  </si>
+  <si>
+    <t>Losses</t>
+  </si>
+  <si>
+    <t>Attestation - Service Startup Times (s)</t>
+  </si>
+  <si>
+    <t>Test Time (seconds)</t>
+  </si>
+  <si>
+    <t># Requests</t>
+  </si>
+  <si>
+    <t>Mean Latency</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Operations per Second</t>
+  </si>
+  <si>
+    <t>Attestation Results</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>GET - 1st Run</t>
+  </si>
+  <si>
+    <t>SET - 1st Run</t>
+  </si>
+  <si>
+    <t>GET - 2nd Run</t>
+  </si>
+  <si>
+    <t>SET - 2nd Run</t>
+  </si>
+  <si>
+    <t>GET - 3rd Run</t>
+  </si>
+  <si>
+    <t>SET - 3rd Run</t>
+  </si>
+  <si>
+    <t>GET - Average</t>
+  </si>
+  <si>
+    <t>SET - Average</t>
+  </si>
+  <si>
+    <t>Database Size (MB)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Proxy SGX  and Redis SGX Results</t>
+  </si>
+  <si>
+    <t>Proxy and Redis Encrypted Results</t>
+  </si>
+  <si>
+    <t>Proxy SGX and Redis Encrypted Results</t>
+  </si>
+  <si>
+    <t>Redis Standalone Results</t>
+  </si>
+  <si>
+    <t>Proxy and Redis Results</t>
+  </si>
+  <si>
+    <t>GET - Proxy and Redis Results</t>
+  </si>
+  <si>
+    <t>SET - Proxy and Redis Results</t>
+  </si>
+  <si>
+    <t>GET - Proxy SGX  and Redis SGX</t>
+  </si>
+  <si>
+    <t>SET - Proxy SGX  and Redis SGX</t>
+  </si>
+  <si>
+    <t>GET - Proxy and Redis Encrypted</t>
+  </si>
+  <si>
+    <t>SET - Proxy and Redis Encrypted</t>
+  </si>
+  <si>
+    <t>GET - Proxy SGX and Redis Encrypted</t>
+  </si>
+  <si>
+    <t>SET - Proxy SGX and Redis Encrypted</t>
+  </si>
+  <si>
+    <t>Proxy &amp; Redis</t>
+  </si>
+  <si>
+    <t>Proxy SGX &amp; Redis SGX</t>
+  </si>
+  <si>
+    <t>Proxy &amp; Redis Encrypted</t>
+  </si>
+  <si>
+    <t>Proxy SGX &amp; Redis Encrypted</t>
+  </si>
+  <si>
+    <t>SET Throughput</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-PT,1]hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -262,6 +406,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -708,11 +860,243 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -745,7 +1129,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -763,24 +1151,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5986,7 +6507,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>GET Throughput</a:t>
+              <a:t>Get Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6023,19 +6544,19 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Throughput Graphs'!$C$4</c:f>
+              <c:f>'Standalone Redis'!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proxy  - Redis</c:v>
+                  <c:v>Proxy &amp; Redis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6050,84 +6571,163 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Throughput Graphs'!$C$6:$C$12</c:f>
+              <c:f>'Standalone Redis'!$O$11:$O$31</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$P$11:$P$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Throughput Graphs'!$D$6:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>532</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B779-5547-B112-F52CB8C2A4EC}"/>
+              <c16:uniqueId val="{00000000-F93A-0147-A264-C39D0CE3B172}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6136,11 +6736,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Throughput Graphs'!$C$15</c:f>
+              <c:f>'Standalone Redis'!$R$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Proxy SGX - Redis SGX</c:v>
+                  <c:v>Proxy SGX &amp; Redis SGX</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6155,84 +6755,347 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>'Throughput Graphs'!$C$17:$C$23</c:f>
+              <c:f>'Standalone Redis'!$R$11:$R$31</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$S$11:$S$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Throughput Graphs'!$D$17:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>456</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>435</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>234</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B779-5547-B112-F52CB8C2A4EC}"/>
+              <c16:uniqueId val="{00000001-F93A-0147-A264-C39D0CE3B172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Standalone Redis'!$X$9:$Y$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Redis Encrypted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$X$11:$X$31</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$Y$11:$Y$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F93A-0147-A264-C39D0CE3B172}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6244,10 +7107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="1553195167"/>
         <c:axId val="1553196815"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="1553195167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -6268,7 +7132,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6307,12 +7171,16 @@
         </c:txPr>
         <c:crossAx val="1553196815"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1553196815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6428,7 +7296,854 @@
         </c:txPr>
         <c:crossAx val="1553195167"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Set</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Throughput</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Standalone Redis'!$AB$9:$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy &amp; Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$AB$11:$AB$31</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$AC$11:$AC$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EFB-9A4B-81E5-19D578E0B6F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Standalone Redis'!$AE$9:$AF$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Redis SGX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$AE$11:$AE$31</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$AF$11:$AF$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EFB-9A4B-81E5-19D578E0B6F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Standalone Redis'!$AK$9:$AL$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Redis Encrypted</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$AK$11:$AK$31</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Standalone Redis'!$AL$11:$AL$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5EFB-9A4B-81E5-19D578E0B6F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="280032640"/>
+        <c:axId val="280034288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="280032640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280034288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="280034288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280032640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6826,6 +8541,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10312,6 +12067,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11099,27 +13370,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>108538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>764824</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>212327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D20599-F8BD-BA43-8CFB-E5411DA46714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87487D08-DFA7-684B-A49B-F763FE86D2DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11133,6 +13406,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>789112</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>119579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>395269</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>151543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0D55E1-9626-7841-9F02-C8498648D788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11141,23 +13450,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11518,17 +13827,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -11560,7 +13869,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="38">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -11589,7 +13898,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="33"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -11616,7 +13925,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -11643,7 +13952,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -11670,7 +13979,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
+      <c r="B17" s="36">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11699,7 +14008,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="33"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -11726,7 +14035,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -11753,7 +14062,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -11780,7 +14089,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="38">
+      <c r="B21" s="36">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -11809,7 +14118,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="33"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -11836,7 +14145,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="33"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -11863,7 +14172,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -11890,7 +14199,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="38">
+      <c r="B25" s="36">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -11919,7 +14228,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="33"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -11946,7 +14255,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="33"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -11973,7 +14282,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -12000,7 +14309,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="38">
+      <c r="B29" s="36">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -12029,7 +14338,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -12056,7 +14365,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -12083,7 +14392,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -12110,7 +14419,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -12146,7 +14455,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="33"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -12180,7 +14489,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -12214,7 +14523,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -12250,17 +14559,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -12292,7 +14601,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="38">
+      <c r="B41" s="36">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -12321,7 +14630,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="33"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -12348,7 +14657,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="33"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -12375,7 +14684,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -12402,7 +14711,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="38">
+      <c r="B45" s="36">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -12431,7 +14740,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="33"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -12458,7 +14767,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="33"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -12485,7 +14794,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -12512,7 +14821,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="38">
+      <c r="B49" s="36">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -12541,7 +14850,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="33"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -12568,7 +14877,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="33"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -12595,7 +14904,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -12622,7 +14931,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="38">
+      <c r="B53" s="36">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -12651,7 +14960,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="33"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -12678,7 +14987,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="33"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -12705,7 +15014,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -12732,7 +15041,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="38">
+      <c r="B57" s="36">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -12761,7 +15070,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="33"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -12788,7 +15097,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="33"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -12815,7 +15124,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -12842,7 +15151,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -12878,7 +15187,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -12912,7 +15221,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="33"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -12946,7 +15255,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -12981,17 +15290,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -13023,7 +15332,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="38">
+      <c r="B68" s="36">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -13052,7 +15361,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="33"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -13079,7 +15388,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="33"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -13106,7 +15415,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -13133,7 +15442,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="38">
+      <c r="B72" s="36">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -13162,7 +15471,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="33"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -13189,7 +15498,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="33"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -13216,7 +15525,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -13243,7 +15552,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="38">
+      <c r="B76" s="36">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -13272,7 +15581,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="33"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -13299,7 +15608,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="33"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -13326,7 +15635,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -13353,7 +15662,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="38">
+      <c r="B80" s="36">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -13382,7 +15691,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="33"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -13409,7 +15718,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="33"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -13436,7 +15745,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -13463,7 +15772,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="38">
+      <c r="B84" s="36">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -13492,7 +15801,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="33"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -13519,7 +15828,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="33"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -13546,7 +15855,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="34"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -13573,7 +15882,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -13609,7 +15918,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="33"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -13643,7 +15952,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="33"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -13677,7 +15986,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="34"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -13713,12 +16022,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -13734,6 +16037,12 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13803,17 +16112,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -13845,7 +16154,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="38">
+      <c r="B13" s="36">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -13874,7 +16183,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="33"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -13901,7 +16210,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="33"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -13928,7 +16237,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -13955,7 +16264,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
+      <c r="B17" s="36">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -13984,7 +16293,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="33"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -14011,7 +16320,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -14038,7 +16347,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -14065,7 +16374,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="38">
+      <c r="B21" s="36">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -14094,7 +16403,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="33"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -14121,7 +16430,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="33"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -14148,7 +16457,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -14175,7 +16484,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="38">
+      <c r="B25" s="36">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -14204,7 +16513,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="33"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -14231,7 +16540,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="33"/>
+      <c r="B27" s="37"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -14258,7 +16567,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -14285,7 +16594,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="38">
+      <c r="B29" s="36">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -14314,7 +16623,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="33"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -14341,7 +16650,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -14368,7 +16677,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -14395,7 +16704,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -14431,7 +16740,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -14465,7 +16774,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -14499,7 +16808,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="34"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -14535,17 +16844,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -14577,7 +16886,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="38">
+      <c r="B41" s="36">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -14606,7 +16915,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="33"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -14633,7 +16942,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="33"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -14660,7 +16969,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -14687,7 +16996,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="38">
+      <c r="B45" s="36">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -14716,7 +17025,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="33"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -14743,7 +17052,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="33"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -14770,7 +17079,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -14797,7 +17106,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="38">
+      <c r="B49" s="36">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -14826,7 +17135,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="33"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -14853,7 +17162,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="33"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -14880,7 +17189,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -14907,7 +17216,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="38">
+      <c r="B53" s="36">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -14936,7 +17245,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="33"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -14963,7 +17272,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="33"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -14990,7 +17299,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -15017,7 +17326,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="38">
+      <c r="B57" s="36">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -15046,7 +17355,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="33"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -15073,7 +17382,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="33"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -15100,7 +17409,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="34"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -15127,7 +17436,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -15163,7 +17472,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="33"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -15197,7 +17506,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="33"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -15231,7 +17540,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="34"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -15266,17 +17575,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="37"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -15308,7 +17617,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="38">
+      <c r="B68" s="36">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -15337,7 +17646,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="33"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -15364,7 +17673,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="33"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -15391,7 +17700,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
+      <c r="B71" s="42"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -15418,7 +17727,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="38">
+      <c r="B72" s="36">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -15447,7 +17756,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="33"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -15474,7 +17783,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="33"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -15501,7 +17810,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -15528,7 +17837,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="38">
+      <c r="B76" s="36">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -15557,7 +17866,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="33"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -15584,7 +17893,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="33"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -15611,7 +17920,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -15638,7 +17947,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="38">
+      <c r="B80" s="36">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -15667,7 +17976,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="33"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -15694,7 +18003,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="33"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -15721,7 +18030,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
+      <c r="B83" s="42"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -15748,7 +18057,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="38">
+      <c r="B84" s="36">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -15777,7 +18086,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="33"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -15804,7 +18113,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="33"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -15831,7 +18140,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="34"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -15858,7 +18167,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -15894,7 +18203,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="33"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -15928,7 +18237,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="33"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -15962,7 +18271,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="34"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -15998,6 +18307,15 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -16010,15 +18328,6 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16027,169 +18336,2784 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074A9C4C-98EA-374F-B3FE-F455AC9FA99B}">
-  <dimension ref="C2:D24"/>
+  <dimension ref="F1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="47" t="s">
+    <row r="1" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="73"/>
+      <c r="G2" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="65"/>
+    </row>
+    <row r="3" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="75"/>
+      <c r="G3" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="78">
+        <v>0.99</v>
+      </c>
+      <c r="L3" s="79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="59">
+        <v>10</v>
+      </c>
+      <c r="H4" s="60">
+        <v>1491</v>
+      </c>
+      <c r="I4" s="60">
+        <v>402</v>
+      </c>
+      <c r="J4" s="60">
+        <v>188</v>
+      </c>
+      <c r="K4" s="81">
+        <v>549</v>
+      </c>
+      <c r="L4" s="71">
+        <v>2.4809999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="61">
+        <v>10</v>
+      </c>
+      <c r="H5" s="62">
+        <v>1492</v>
+      </c>
+      <c r="I5" s="62">
+        <v>401</v>
+      </c>
+      <c r="J5" s="62">
+        <v>179</v>
+      </c>
+      <c r="K5" s="83">
+        <v>550</v>
+      </c>
+      <c r="L5" s="72">
+        <v>2.4830000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="63">
+        <v>10</v>
+      </c>
+      <c r="H6" s="64">
+        <v>1494</v>
+      </c>
+      <c r="I6" s="64">
+        <v>401</v>
+      </c>
+      <c r="J6" s="64">
+        <v>164</v>
+      </c>
+      <c r="K6" s="85">
+        <v>546</v>
+      </c>
+      <c r="L6" s="86">
+        <v>2.4860000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="87">
+        <f>AVERAGE(G4:G6)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="88">
+        <f t="shared" ref="H7:L7" si="0">AVERAGE(H4:H6)</f>
+        <v>1492.3333333333333</v>
+      </c>
+      <c r="I7" s="88">
+        <f t="shared" si="0"/>
+        <v>401.33333333333331</v>
+      </c>
+      <c r="J7" s="88">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="K7" s="88">
+        <f t="shared" si="0"/>
+        <v>548.33333333333337</v>
+      </c>
+      <c r="L7" s="89">
+        <f t="shared" si="0"/>
+        <v>2.4833333333333338</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="46"/>
+      <c r="G15" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="65"/>
+    </row>
+    <row r="16" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="46"/>
+      <c r="G16" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="55"/>
+      <c r="L16" s="65"/>
+    </row>
+    <row r="17" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="46"/>
+      <c r="G17" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="59">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="H18" s="60">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="I18" s="60">
+        <f>H18-G18</f>
+        <v>1.7743</v>
+      </c>
+      <c r="J18" s="60">
+        <v>3.0228000000000002</v>
+      </c>
+      <c r="K18" s="60">
+        <v>68.592399999999998</v>
+      </c>
+      <c r="L18" s="60">
+        <f>K18-J18</f>
+        <v>65.569599999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="61">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H19" s="62">
+        <v>1.5032000000000001</v>
+      </c>
+      <c r="I19" s="60">
+        <f t="shared" ref="I19:I23" si="1">H19-G19</f>
+        <v>1.4939</v>
+      </c>
+      <c r="J19" s="62">
+        <v>3.2038000000000002</v>
+      </c>
+      <c r="K19" s="62">
+        <v>71.489400000000003</v>
+      </c>
+      <c r="L19" s="60">
+        <f t="shared" ref="L19:L23" si="2">K19-J19</f>
+        <v>68.285600000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="61">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H20" s="62">
+        <v>1.5134000000000001</v>
+      </c>
+      <c r="I20" s="60">
+        <f t="shared" si="1"/>
+        <v>1.5039</v>
+      </c>
+      <c r="J20" s="62">
+        <v>3.1208</v>
+      </c>
+      <c r="K20" s="62">
+        <v>68.456400000000002</v>
+      </c>
+      <c r="L20" s="60">
+        <f t="shared" si="2"/>
+        <v>65.335599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="61">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="H21" s="62">
+        <v>1.7422</v>
+      </c>
+      <c r="I21" s="60">
+        <f t="shared" si="1"/>
+        <v>1.7327999999999999</v>
+      </c>
+      <c r="J21" s="62">
+        <v>3.1332</v>
+      </c>
+      <c r="K21" s="62">
+        <v>67.299000000000007</v>
+      </c>
+      <c r="L21" s="60">
+        <f t="shared" si="2"/>
+        <v>64.165800000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="63">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="H22" s="64">
+        <v>1.4784999999999999</v>
+      </c>
+      <c r="I22" s="60">
+        <f t="shared" si="1"/>
+        <v>1.4691999999999998</v>
+      </c>
+      <c r="J22" s="64">
+        <v>3.0632999999999999</v>
+      </c>
+      <c r="K22" s="64">
+        <v>69.897099999999995</v>
+      </c>
+      <c r="L22" s="60">
+        <f t="shared" si="2"/>
+        <v>66.833799999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="69">
+        <f>AVERAGE(G18:G22)</f>
+        <v>9.6399999999999993E-3</v>
+      </c>
+      <c r="H23" s="69">
+        <f>AVERAGE(H18:H22)</f>
+        <v>1.60446</v>
+      </c>
+      <c r="I23" s="69">
+        <f t="shared" si="1"/>
+        <v>1.5948199999999999</v>
+      </c>
+      <c r="J23" s="69">
+        <f>AVERAGE(J18:J22)</f>
+        <v>3.1087800000000003</v>
+      </c>
+      <c r="K23" s="69">
+        <f>AVERAGE(K18:K22)</f>
+        <v>69.14685999999999</v>
+      </c>
+      <c r="L23" s="70">
+        <f t="shared" si="2"/>
+        <v>66.038079999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K7" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C94FA-5716-C64B-A50C-F7393C7D3918}">
+  <dimension ref="E5:AL62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Y53" sqref="Y53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+    </row>
+    <row r="7" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="K7" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="40"/>
-    </row>
-    <row r="3" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="41" t="s">
+      <c r="P7" s="45"/>
+      <c r="AB7" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" s="45"/>
+    </row>
+    <row r="8" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="59">
+        <v>10</v>
+      </c>
+      <c r="G8" s="60">
+        <v>14107</v>
+      </c>
+      <c r="H8" s="60">
+        <v>42</v>
+      </c>
+      <c r="I8" s="60">
+        <v>13</v>
+      </c>
+      <c r="J8" s="81">
+        <v>42</v>
+      </c>
+      <c r="K8" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="59">
+        <v>10</v>
+      </c>
+      <c r="G9" s="60">
+        <v>14046</v>
+      </c>
+      <c r="H9" s="60">
+        <v>42</v>
+      </c>
+      <c r="I9" s="60">
+        <v>15</v>
+      </c>
+      <c r="J9" s="81">
+        <v>42</v>
+      </c>
+      <c r="K9" s="71">
+        <v>2.0348259999999998</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="41"/>
+      <c r="R9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="41"/>
+      <c r="U9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" s="41"/>
+      <c r="X9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="41"/>
+      <c r="AB9" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="41"/>
+      <c r="AE9" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" s="41"/>
+      <c r="AH9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI9" s="41"/>
+      <c r="AK9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL9" s="41"/>
+    </row>
+    <row r="10" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="61">
+        <v>10</v>
+      </c>
+      <c r="G10" s="62">
+        <v>14138</v>
+      </c>
+      <c r="H10" s="62">
+        <v>42</v>
+      </c>
+      <c r="I10" s="62">
+        <v>13</v>
+      </c>
+      <c r="J10" s="83">
+        <v>42</v>
+      </c>
+      <c r="K10" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="P10" s="33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="43">
+      <c r="R10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="33">
+        <v>22</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI10" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL10" s="33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="61">
+        <v>10</v>
+      </c>
+      <c r="G11" s="62">
+        <v>14034</v>
+      </c>
+      <c r="H11" s="62">
+        <v>42</v>
+      </c>
+      <c r="I11" s="62">
+        <v>15</v>
+      </c>
+      <c r="J11" s="83">
+        <v>42</v>
+      </c>
+      <c r="K11" s="72">
+        <v>2.0330979999999998</v>
+      </c>
+      <c r="O11" s="93">
         <v>0</v>
       </c>
-      <c r="D6" s="44">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="43">
-        <v>1</v>
-      </c>
-      <c r="D7" s="44">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="43">
-        <v>2</v>
-      </c>
-      <c r="D8" s="44">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="43">
-        <v>3</v>
-      </c>
-      <c r="D9" s="44">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="43">
-        <v>4</v>
-      </c>
-      <c r="D10" s="44">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43">
-        <v>5</v>
-      </c>
-      <c r="D11" s="44">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="45">
-        <v>6</v>
-      </c>
-      <c r="D12" s="46">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="3:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="41" t="s">
+      <c r="P11" s="34">
+        <v>23</v>
+      </c>
+      <c r="R11" s="93">
+        <v>0</v>
+      </c>
+      <c r="S11" s="34">
+        <v>19</v>
+      </c>
+      <c r="U11" s="93">
+        <v>0</v>
+      </c>
+      <c r="V11" s="34">
+        <v>21</v>
+      </c>
+      <c r="X11" s="93">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>14</v>
+      </c>
+      <c r="AH11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="34">
+        <v>19</v>
+      </c>
+      <c r="AK11" s="93">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="63">
+        <v>10</v>
+      </c>
+      <c r="G12" s="64">
+        <v>14174</v>
+      </c>
+      <c r="H12" s="64">
+        <v>42</v>
+      </c>
+      <c r="I12" s="64">
+        <v>13</v>
+      </c>
+      <c r="J12" s="85">
+        <v>42</v>
+      </c>
+      <c r="K12" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="P12" s="34">
+        <v>24</v>
+      </c>
+      <c r="R12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="S12" s="34">
+        <v>22</v>
+      </c>
+      <c r="U12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="V12" s="34">
+        <v>22</v>
+      </c>
+      <c r="X12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="Y12" s="34">
+        <v>20</v>
+      </c>
+      <c r="AB12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="AC12" s="34">
+        <v>23</v>
+      </c>
+      <c r="AE12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="AF12" s="34">
+        <v>17</v>
+      </c>
+      <c r="AH12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="AI12" s="34">
+        <v>22</v>
+      </c>
+      <c r="AK12" s="93">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="AL12" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="63">
+        <v>10</v>
+      </c>
+      <c r="G13" s="64">
+        <v>14034</v>
+      </c>
+      <c r="H13" s="64">
+        <v>42</v>
+      </c>
+      <c r="I13" s="64">
+        <v>15</v>
+      </c>
+      <c r="J13" s="85">
+        <v>42</v>
+      </c>
+      <c r="K13" s="86">
+        <v>2.0330979999999998</v>
+      </c>
+      <c r="O13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="P13" s="34">
         <v>25</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="43">
-        <v>0</v>
-      </c>
-      <c r="D17" s="44">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="43">
-        <v>1</v>
-      </c>
-      <c r="D18" s="44">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="43">
-        <v>2</v>
-      </c>
-      <c r="D19" s="44">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="43">
-        <v>3</v>
-      </c>
-      <c r="D20" s="44">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="43">
-        <v>4</v>
-      </c>
-      <c r="D21" s="44">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="43">
-        <v>5</v>
-      </c>
-      <c r="D22" s="44">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="45">
-        <v>6</v>
-      </c>
-      <c r="D23" s="46">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="R13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="S13" s="34">
+        <v>19</v>
+      </c>
+      <c r="U13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="V13" s="34">
+        <v>22</v>
+      </c>
+      <c r="X13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="Y13" s="34">
+        <v>23</v>
+      </c>
+      <c r="AB13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AC13" s="34">
+        <v>21</v>
+      </c>
+      <c r="AE13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AF13" s="34">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AI13" s="34">
+        <v>22</v>
+      </c>
+      <c r="AK13" s="93">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="AL13" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="87">
+        <f>AVERAGE(F8,F10,F12)</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="87">
+        <f t="shared" ref="G14:K14" si="0">AVERAGE(G8,G10,G12)</f>
+        <v>14139.666666666666</v>
+      </c>
+      <c r="H14" s="87">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I14" s="87">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="87">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K14" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="P14" s="34">
+        <v>24</v>
+      </c>
+      <c r="R14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="S14" s="34">
+        <v>22</v>
+      </c>
+      <c r="U14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="V14" s="34">
+        <v>24</v>
+      </c>
+      <c r="X14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="Y14" s="34">
+        <v>21</v>
+      </c>
+      <c r="AB14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="AC14" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="AF14" s="34">
+        <v>20</v>
+      </c>
+      <c r="AH14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="AI14" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK14" s="93">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="AL14" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="87">
+        <f>AVERAGE(F9,F11,F13)</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="87">
+        <f t="shared" ref="G15:K15" si="1">AVERAGE(G9,G11,G13)</f>
+        <v>14038</v>
+      </c>
+      <c r="H15" s="87">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I15" s="87">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J15" s="87">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K15" s="87">
+        <f>AVERAGE(K9,K11,K13)</f>
+        <v>2.033674</v>
+      </c>
+      <c r="O15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="P15" s="34">
+        <v>24</v>
+      </c>
+      <c r="R15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="S15" s="34">
+        <v>21</v>
+      </c>
+      <c r="U15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="V15" s="34">
+        <v>25</v>
+      </c>
+      <c r="X15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="Y15" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="AC15" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="AF15" s="34">
+        <v>19</v>
+      </c>
+      <c r="AH15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="AI15" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK15" s="93">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="AL15" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="P16" s="34">
+        <v>23</v>
+      </c>
+      <c r="R16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="S16" s="34">
+        <v>22</v>
+      </c>
+      <c r="U16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="V16" s="34">
+        <v>22</v>
+      </c>
+      <c r="X16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="Y16" s="34">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="AC16" s="34">
+        <v>24</v>
+      </c>
+      <c r="AE16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="AF16" s="34">
+        <v>20</v>
+      </c>
+      <c r="AH16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="AI16" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK16" s="93">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="AL16" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="O17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P17" s="35">
+        <v>24</v>
+      </c>
+      <c r="R17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="S17" s="35">
+        <v>18</v>
+      </c>
+      <c r="U17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="V17" s="35">
+        <v>24</v>
+      </c>
+      <c r="X17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Y17" s="35">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="AC17" s="35">
+        <v>23</v>
+      </c>
+      <c r="AE17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="AF17" s="35">
+        <v>22</v>
+      </c>
+      <c r="AH17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="AI17" s="35">
+        <v>24</v>
+      </c>
+      <c r="AK17" s="94">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="AL17" s="35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="K18" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="O18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="P18" s="34">
+        <v>22</v>
+      </c>
+      <c r="R18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="S18" s="34">
+        <v>19</v>
+      </c>
+      <c r="U18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="V18" s="34">
+        <v>24</v>
+      </c>
+      <c r="X18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="Y18" s="34">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="AC18" s="34">
+        <v>23</v>
+      </c>
+      <c r="AE18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="AF18" s="34">
+        <v>22</v>
+      </c>
+      <c r="AH18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="AI18" s="34">
+        <v>24</v>
+      </c>
+      <c r="AK18" s="93">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="AL18" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="59">
+        <v>10</v>
+      </c>
+      <c r="G19" s="60">
+        <v>12443</v>
+      </c>
+      <c r="H19" s="60">
+        <v>48</v>
+      </c>
+      <c r="I19" s="60">
+        <v>16</v>
+      </c>
+      <c r="J19" s="81">
+        <v>51</v>
+      </c>
+      <c r="K19" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="P19" s="34">
+        <v>25</v>
+      </c>
+      <c r="R19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="S19" s="34">
+        <v>19</v>
+      </c>
+      <c r="U19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="V19" s="34">
+        <v>24</v>
+      </c>
+      <c r="X19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="Y19" s="34">
+        <v>21</v>
+      </c>
+      <c r="AB19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="AC19" s="34">
+        <v>23</v>
+      </c>
+      <c r="AE19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="AF19" s="34">
+        <v>19</v>
+      </c>
+      <c r="AH19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="AI19" s="34">
+        <v>24</v>
+      </c>
+      <c r="AK19" s="93">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="AL19" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="59">
+        <v>10</v>
+      </c>
+      <c r="G20" s="60">
+        <v>12012</v>
+      </c>
+      <c r="H20" s="60">
+        <v>50</v>
+      </c>
+      <c r="I20" s="60">
+        <v>60</v>
+      </c>
+      <c r="J20" s="81">
+        <v>58</v>
+      </c>
+      <c r="K20" s="71">
+        <v>1.960164</v>
+      </c>
+      <c r="O20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P20" s="34">
+        <v>22</v>
+      </c>
+      <c r="R20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="S20" s="34">
+        <v>19</v>
+      </c>
+      <c r="U20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="V20" s="34">
+        <v>24</v>
+      </c>
+      <c r="X20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="Y20" s="34">
+        <v>20</v>
+      </c>
+      <c r="AB20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="AC20" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="AF20" s="34">
+        <v>18</v>
+      </c>
+      <c r="AH20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="AI20" s="34">
+        <v>22</v>
+      </c>
+      <c r="AK20" s="93">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="AL20" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="61">
+        <v>10</v>
+      </c>
+      <c r="G21" s="62">
+        <v>12424</v>
+      </c>
+      <c r="H21" s="62">
+        <v>48</v>
+      </c>
+      <c r="I21" s="62">
+        <v>17</v>
+      </c>
+      <c r="J21" s="83">
+        <v>51</v>
+      </c>
+      <c r="K21" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="P21" s="34">
+        <v>24</v>
+      </c>
+      <c r="R21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="S21" s="34">
+        <v>21</v>
+      </c>
+      <c r="U21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="V21" s="34">
+        <v>25</v>
+      </c>
+      <c r="X21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="Y21" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="AC21" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="AF21" s="34">
+        <v>17</v>
+      </c>
+      <c r="AH21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="AI21" s="34">
+        <v>21</v>
+      </c>
+      <c r="AK21" s="93">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="AL21" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="61">
+        <v>10</v>
+      </c>
+      <c r="G22" s="62">
+        <v>11995</v>
+      </c>
+      <c r="H22" s="62">
+        <v>50</v>
+      </c>
+      <c r="I22" s="62">
+        <v>69</v>
+      </c>
+      <c r="J22" s="83">
+        <v>58</v>
+      </c>
+      <c r="K22" s="72">
+        <v>1.957376</v>
+      </c>
+      <c r="O22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="P22" s="34">
+        <v>24</v>
+      </c>
+      <c r="R22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="S22" s="34">
+        <v>22</v>
+      </c>
+      <c r="U22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="V22" s="34">
+        <v>25</v>
+      </c>
+      <c r="X22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="Y22" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="AC22" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="AF22" s="34">
+        <v>21</v>
+      </c>
+      <c r="AH22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="AI22" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK22" s="93">
+        <v>3.81944444444444E-3</v>
+      </c>
+      <c r="AL22" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="63">
+        <v>10</v>
+      </c>
+      <c r="G23" s="64">
+        <v>12452</v>
+      </c>
+      <c r="H23" s="64">
+        <v>48</v>
+      </c>
+      <c r="I23" s="64">
+        <v>16</v>
+      </c>
+      <c r="J23" s="85">
+        <v>51</v>
+      </c>
+      <c r="K23" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="P23" s="34">
+        <v>24</v>
+      </c>
+      <c r="R23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="S23" s="34">
+        <v>20</v>
+      </c>
+      <c r="U23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="V23" s="34">
+        <v>23</v>
+      </c>
+      <c r="X23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="Y23" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="AC23" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="AF23" s="34">
+        <v>19</v>
+      </c>
+      <c r="AH23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="AI23" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK23" s="93">
+        <v>4.1666666666666701E-3</v>
+      </c>
+      <c r="AL23" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="63">
+        <v>10</v>
+      </c>
+      <c r="G24" s="64">
+        <v>12033</v>
+      </c>
+      <c r="H24" s="64">
+        <v>49</v>
+      </c>
+      <c r="I24" s="64">
+        <v>59</v>
+      </c>
+      <c r="J24" s="85">
+        <v>58</v>
+      </c>
+      <c r="K24" s="86">
+        <v>1.9625760000000001</v>
+      </c>
+      <c r="O24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="P24" s="34">
+        <v>24</v>
+      </c>
+      <c r="R24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="S24" s="34">
+        <v>22</v>
+      </c>
+      <c r="U24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="V24" s="34">
+        <v>22</v>
+      </c>
+      <c r="X24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="Y24" s="34">
+        <v>21</v>
+      </c>
+      <c r="AB24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="AC24" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="AF24" s="34">
+        <v>20</v>
+      </c>
+      <c r="AH24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="AI24" s="34">
+        <v>24</v>
+      </c>
+      <c r="AK24" s="94">
+        <v>4.5138888888888902E-3</v>
+      </c>
+      <c r="AL24" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="87">
+        <f>AVERAGE(F19,F21,F23)</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="87">
+        <f t="shared" ref="G25:K25" si="2">AVERAGE(G19,G21,G23)</f>
+        <v>12439.666666666666</v>
+      </c>
+      <c r="H25" s="87">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I25" s="87">
+        <f t="shared" si="2"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="J25" s="87">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="K25" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="P25" s="35">
+        <v>24</v>
+      </c>
+      <c r="R25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="S25" s="34">
+        <v>21</v>
+      </c>
+      <c r="U25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="V25" s="34">
+        <v>22</v>
+      </c>
+      <c r="X25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="Y25" s="34">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="AC25" s="35">
+        <v>25</v>
+      </c>
+      <c r="AE25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="AF25" s="34">
+        <v>19</v>
+      </c>
+      <c r="AH25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="AI25" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK25" s="93">
+        <v>4.8611111111111103E-3</v>
+      </c>
+      <c r="AL25" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="87">
+        <f>AVERAGE(F20,F22,F24)</f>
+        <v>10</v>
+      </c>
+      <c r="G26" s="87">
+        <f t="shared" ref="G26:K26" si="3">AVERAGE(G20,G22,G24)</f>
+        <v>12013.333333333334</v>
+      </c>
+      <c r="H26" s="87">
+        <f t="shared" si="3"/>
+        <v>49.666666666666664</v>
+      </c>
+      <c r="I26" s="87">
+        <f t="shared" si="3"/>
+        <v>62.666666666666664</v>
+      </c>
+      <c r="J26" s="87">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="K26" s="87">
+        <f>AVERAGE(K20,K22,K24)</f>
+        <v>1.9600386666666667</v>
+      </c>
+      <c r="O26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="P26" s="34">
+        <v>24</v>
+      </c>
+      <c r="R26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="S26" s="34">
+        <v>20</v>
+      </c>
+      <c r="U26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="V26" s="34">
+        <v>22</v>
+      </c>
+      <c r="X26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="Y26" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="AC26" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="AF26" s="34">
+        <v>18</v>
+      </c>
+      <c r="AH26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="AI26" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK26" s="93">
+        <v>5.2083333333333296E-3</v>
+      </c>
+      <c r="AL26" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="P27" s="34">
+        <v>23</v>
+      </c>
+      <c r="R27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="S27" s="34">
+        <v>22</v>
+      </c>
+      <c r="U27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="V27" s="34">
+        <v>22</v>
+      </c>
+      <c r="X27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="Y27" s="34">
+        <v>21</v>
+      </c>
+      <c r="AB27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="AC27" s="34">
+        <v>25</v>
+      </c>
+      <c r="AE27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="AF27" s="34">
+        <v>21</v>
+      </c>
+      <c r="AH27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="AI27" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK27" s="93">
+        <v>5.5555555555555601E-3</v>
+      </c>
+      <c r="AL27" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="O28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="P28" s="34">
+        <v>24</v>
+      </c>
+      <c r="R28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="S28" s="34">
+        <v>22</v>
+      </c>
+      <c r="U28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="V28" s="34">
+        <v>22</v>
+      </c>
+      <c r="X28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>20</v>
+      </c>
+      <c r="AB28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="AC28" s="34">
+        <v>24</v>
+      </c>
+      <c r="AE28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="AF28" s="34">
+        <v>22</v>
+      </c>
+      <c r="AH28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="AI28" s="34">
+        <v>23</v>
+      </c>
+      <c r="AK28" s="93">
+        <v>5.9027777777777802E-3</v>
+      </c>
+      <c r="AL28" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="K29" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="P29" s="34">
+        <v>23</v>
+      </c>
+      <c r="R29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="S29" s="34">
+        <v>20</v>
+      </c>
+      <c r="U29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="V29" s="34">
+        <v>22</v>
+      </c>
+      <c r="X29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="Y29" s="34">
+        <v>21</v>
+      </c>
+      <c r="AB29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="AC29" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="AF29" s="34">
+        <v>20</v>
+      </c>
+      <c r="AH29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="AI29" s="34">
+        <v>22</v>
+      </c>
+      <c r="AK29" s="93">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="AL29" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="59">
+        <v>10</v>
+      </c>
+      <c r="G30" s="60">
+        <v>14189</v>
+      </c>
+      <c r="H30" s="60">
+        <v>42</v>
+      </c>
+      <c r="I30" s="60">
+        <v>13</v>
+      </c>
+      <c r="J30" s="81">
+        <v>42</v>
+      </c>
+      <c r="K30" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="P30" s="34">
+        <v>23</v>
+      </c>
+      <c r="R30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="S30" s="35">
+        <v>22</v>
+      </c>
+      <c r="U30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="V30" s="35">
+        <v>24</v>
+      </c>
+      <c r="X30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="Y30" s="35">
+        <v>19</v>
+      </c>
+      <c r="AB30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="AC30" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="AF30" s="35">
+        <v>19</v>
+      </c>
+      <c r="AH30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="AI30" s="35">
+        <v>24</v>
+      </c>
+      <c r="AK30" s="93">
+        <v>6.5972222222222196E-3</v>
+      </c>
+      <c r="AL30" s="35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="59">
+        <v>10</v>
+      </c>
+      <c r="G31" s="60">
+        <v>13788</v>
+      </c>
+      <c r="H31" s="60">
+        <v>43</v>
+      </c>
+      <c r="I31" s="60">
+        <v>15</v>
+      </c>
+      <c r="J31" s="81">
+        <v>43</v>
+      </c>
+      <c r="K31" s="71">
+        <v>7.292338</v>
+      </c>
+      <c r="O31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="P31" s="34">
+        <v>24</v>
+      </c>
+      <c r="R31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="S31" s="34">
+        <v>20</v>
+      </c>
+      <c r="U31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="V31" s="34">
+        <v>22</v>
+      </c>
+      <c r="X31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="Y31" s="34">
+        <v>22</v>
+      </c>
+      <c r="AB31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="AC31" s="34">
+        <v>22</v>
+      </c>
+      <c r="AE31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="AF31" s="34">
+        <v>21</v>
+      </c>
+      <c r="AH31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="AI31" s="34">
+        <v>22</v>
+      </c>
+      <c r="AK31" s="94">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="AL31" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="61">
+        <v>10</v>
+      </c>
+      <c r="G32" s="62">
+        <v>14120</v>
+      </c>
+      <c r="H32" s="62">
+        <v>42</v>
+      </c>
+      <c r="I32" s="62">
+        <v>13</v>
+      </c>
+      <c r="J32" s="83">
+        <v>42</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="61">
+        <v>10</v>
+      </c>
+      <c r="G33" s="62">
+        <v>13719</v>
+      </c>
+      <c r="H33" s="62">
+        <v>43</v>
+      </c>
+      <c r="I33" s="62">
+        <v>15</v>
+      </c>
+      <c r="J33" s="83">
+        <v>43</v>
+      </c>
+      <c r="K33" s="72">
+        <v>7.2599359999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="63">
+        <v>10</v>
+      </c>
+      <c r="G34" s="64">
+        <v>14140</v>
+      </c>
+      <c r="H34" s="64">
+        <v>42</v>
+      </c>
+      <c r="I34" s="64">
+        <v>13</v>
+      </c>
+      <c r="J34" s="85">
+        <v>42</v>
+      </c>
+      <c r="K34" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="63">
+        <v>10</v>
+      </c>
+      <c r="G35" s="64">
+        <v>13701</v>
+      </c>
+      <c r="H35" s="64">
+        <v>43</v>
+      </c>
+      <c r="I35" s="64">
+        <v>15</v>
+      </c>
+      <c r="J35" s="85">
+        <v>43</v>
+      </c>
+      <c r="K35" s="86">
+        <v>7.250432</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="87">
+        <f>AVERAGE(F30,F32,F34)</f>
+        <v>10</v>
+      </c>
+      <c r="G36" s="87">
+        <f t="shared" ref="G36:K36" si="4">AVERAGE(G30,G32,G34)</f>
+        <v>14149.666666666666</v>
+      </c>
+      <c r="H36" s="87">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="I36" s="87">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="J36" s="87">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K36" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="87">
+        <f>AVERAGE(F31,F33,F35)</f>
+        <v>10</v>
+      </c>
+      <c r="G37" s="87">
+        <f t="shared" ref="G37:K37" si="5">AVERAGE(G31,G33,G35)</f>
+        <v>13736</v>
+      </c>
+      <c r="H37" s="87">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="I37" s="87">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J37" s="87">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="K37" s="87">
+        <f>AVERAGE(K31,K33,K35)</f>
+        <v>7.2675686666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="K40" s="91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="80" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="59">
+        <v>10</v>
+      </c>
+      <c r="G41" s="60">
+        <v>13083</v>
+      </c>
+      <c r="H41" s="60">
+        <v>46</v>
+      </c>
+      <c r="I41" s="60">
+        <v>18</v>
+      </c>
+      <c r="J41" s="81">
+        <v>46</v>
+      </c>
+      <c r="K41" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="59">
+        <v>10</v>
+      </c>
+      <c r="G42" s="60">
+        <v>12265</v>
+      </c>
+      <c r="H42" s="60">
+        <v>49</v>
+      </c>
+      <c r="I42" s="60">
+        <v>57</v>
+      </c>
+      <c r="J42" s="81">
+        <v>55</v>
+      </c>
+      <c r="K42" s="71">
+        <v>6.4922240000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="61">
+        <v>10</v>
+      </c>
+      <c r="G43" s="62">
+        <v>13096</v>
+      </c>
+      <c r="H43" s="62">
+        <v>46</v>
+      </c>
+      <c r="I43" s="62">
+        <v>17</v>
+      </c>
+      <c r="J43" s="83">
+        <v>46</v>
+      </c>
+      <c r="K43" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="61">
+        <v>10</v>
+      </c>
+      <c r="G44" s="62">
+        <v>12304</v>
+      </c>
+      <c r="H44" s="62">
+        <v>48</v>
+      </c>
+      <c r="I44" s="62">
+        <v>54</v>
+      </c>
+      <c r="J44" s="83">
+        <v>55</v>
+      </c>
+      <c r="K44" s="72">
+        <v>6.5087859999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="63">
+        <v>10</v>
+      </c>
+      <c r="G45" s="64">
+        <v>13089</v>
+      </c>
+      <c r="H45" s="64">
+        <v>46</v>
+      </c>
+      <c r="I45" s="64">
+        <v>18</v>
+      </c>
+      <c r="J45" s="85">
+        <v>46</v>
+      </c>
+      <c r="K45" s="71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E46" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="63">
+        <v>10</v>
+      </c>
+      <c r="G46" s="64">
+        <v>12251</v>
+      </c>
+      <c r="H46" s="64">
+        <v>49</v>
+      </c>
+      <c r="I46" s="64">
+        <v>73</v>
+      </c>
+      <c r="J46" s="85">
+        <v>55</v>
+      </c>
+      <c r="K46" s="86">
+        <v>6.4888459999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="87">
+        <f>AVERAGE(F41,F43,F45)</f>
+        <v>10</v>
+      </c>
+      <c r="G47" s="87">
+        <f t="shared" ref="G47:K47" si="6">AVERAGE(G41,G43,G45)</f>
+        <v>13089.333333333334</v>
+      </c>
+      <c r="H47" s="87">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="I47" s="87">
+        <f t="shared" si="6"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J47" s="87">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="K47" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="87">
+        <f>AVERAGE(F42,F44,F46)</f>
+        <v>10</v>
+      </c>
+      <c r="G48" s="87">
+        <f t="shared" ref="G48:K48" si="7">AVERAGE(G42,G44,G46)</f>
+        <v>12273.333333333334</v>
+      </c>
+      <c r="H48" s="87">
+        <f t="shared" si="7"/>
+        <v>48.666666666666664</v>
+      </c>
+      <c r="I48" s="87">
+        <f t="shared" si="7"/>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="J48" s="87">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="K48" s="87">
+        <f>AVERAGE(K42,K44,K46)</f>
+        <v>6.4966186666666665</v>
+      </c>
+    </row>
+    <row r="49" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E50" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="48"/>
+    </row>
+    <row r="51" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E51" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="78">
+        <v>0.95</v>
+      </c>
+      <c r="K51" s="91" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E52" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="87">
+        <f>AVERAGE(F46,F48,F50)</f>
+        <v>10</v>
+      </c>
+      <c r="G52" s="87">
+        <f t="shared" ref="G52:K59" si="8">AVERAGE(G46,G48,G50)</f>
+        <v>12262.166666666668</v>
+      </c>
+      <c r="H52" s="87">
+        <f t="shared" si="8"/>
+        <v>48.833333333333329</v>
+      </c>
+      <c r="I52" s="87">
+        <f t="shared" si="8"/>
+        <v>67.166666666666671</v>
+      </c>
+      <c r="J52" s="87">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="K52" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E53" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="87">
+        <f>AVERAGE(F47,F49,F51)</f>
+        <v>10</v>
+      </c>
+      <c r="G53" s="87">
+        <f t="shared" si="8"/>
+        <v>13089.333333333334</v>
+      </c>
+      <c r="H53" s="87">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I53" s="87">
+        <f t="shared" si="8"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J53" s="87">
+        <f t="shared" si="8"/>
+        <v>23.475000000000001</v>
+      </c>
+      <c r="K53" s="87">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E54" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="87">
+        <f>AVERAGE(F48,F50,F52)</f>
+        <v>10</v>
+      </c>
+      <c r="G54" s="87">
+        <f t="shared" si="8"/>
+        <v>12267.75</v>
+      </c>
+      <c r="H54" s="87">
+        <f t="shared" si="8"/>
+        <v>48.75</v>
+      </c>
+      <c r="I54" s="87">
+        <f t="shared" si="8"/>
+        <v>64.25</v>
+      </c>
+      <c r="J54" s="87">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="K54" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="87">
+        <f>AVERAGE(F49,F51,F53)</f>
+        <v>10</v>
+      </c>
+      <c r="G55" s="87">
+        <f t="shared" si="8"/>
+        <v>13089.333333333334</v>
+      </c>
+      <c r="H55" s="87">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I55" s="87">
+        <f t="shared" si="8"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J55" s="87">
+        <f t="shared" si="8"/>
+        <v>12.2125</v>
+      </c>
+      <c r="K55" s="87">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="56" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="87">
+        <f>AVERAGE(F50,F52,F54)</f>
+        <v>10</v>
+      </c>
+      <c r="G56" s="87">
+        <f t="shared" si="8"/>
+        <v>12264.958333333334</v>
+      </c>
+      <c r="H56" s="87">
+        <f t="shared" si="8"/>
+        <v>48.791666666666664</v>
+      </c>
+      <c r="I56" s="87">
+        <f t="shared" si="8"/>
+        <v>65.708333333333343</v>
+      </c>
+      <c r="J56" s="87">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="K56" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E57" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="87">
+        <f>AVERAGE(F51,F53,F55)</f>
+        <v>10</v>
+      </c>
+      <c r="G57" s="87">
+        <f t="shared" si="8"/>
+        <v>13089.333333333334</v>
+      </c>
+      <c r="H57" s="87">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I57" s="87">
+        <f t="shared" si="8"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J57" s="87">
+        <f t="shared" si="8"/>
+        <v>12.2125</v>
+      </c>
+      <c r="K57" s="87">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="58" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E58" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="87">
+        <f>AVERAGE(F52,F54,F56)</f>
+        <v>10</v>
+      </c>
+      <c r="G58" s="87">
+        <f t="shared" si="8"/>
+        <v>12264.958333333334</v>
+      </c>
+      <c r="H58" s="87">
+        <f t="shared" si="8"/>
+        <v>48.791666666666664</v>
+      </c>
+      <c r="I58" s="87">
+        <f t="shared" si="8"/>
+        <v>65.708333333333343</v>
+      </c>
+      <c r="J58" s="87">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="K58" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="P58" s="34"/>
+    </row>
+    <row r="59" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="87">
+        <f>AVERAGE(F53,F55,F57)</f>
+        <v>10</v>
+      </c>
+      <c r="G59" s="87">
+        <f t="shared" si="8"/>
+        <v>13089.333333333334</v>
+      </c>
+      <c r="H59" s="87">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+      <c r="I59" s="87">
+        <f t="shared" si="8"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J59" s="87">
+        <f t="shared" si="8"/>
+        <v>15.966666666666667</v>
+      </c>
+      <c r="K59" s="87">
+        <v>6.49</v>
+      </c>
+      <c r="P59" s="34"/>
+    </row>
+    <row r="60" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="87">
+        <f>AVERAGE(F52,F54,F56,F58)</f>
+        <v>10</v>
+      </c>
+      <c r="G60" s="87">
+        <f t="shared" ref="G60:K60" si="9">AVERAGE(G52,G54,G56,G58)</f>
+        <v>12264.958333333334</v>
+      </c>
+      <c r="H60" s="87">
+        <f t="shared" si="9"/>
+        <v>48.791666666666664</v>
+      </c>
+      <c r="I60" s="87">
+        <f t="shared" si="9"/>
+        <v>65.708333333333343</v>
+      </c>
+      <c r="J60" s="87">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="K60" s="87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E61" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="87">
+        <f>AVERAGE(F53,F55,F57,F59)</f>
+        <v>10</v>
+      </c>
+      <c r="G61" s="87">
+        <f t="shared" ref="G61:K61" si="10">AVERAGE(G53,G55,G57,G59)</f>
+        <v>13089.333333333334</v>
+      </c>
+      <c r="H61" s="87">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="I61" s="87">
+        <f t="shared" si="10"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J61" s="87">
+        <f t="shared" si="10"/>
+        <v>15.966666666666667</v>
+      </c>
+      <c r="K61" s="87">
+        <f>AVERAGE(K53,K55,K57,K59)</f>
+        <v>4.4350000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="5:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="15">
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,35 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C2522A-3905-B54D-8A65-C3A04579BA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751A5E1-FE34-E148-85FB-B54DE0DA27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
     <sheet name="Internal Redis-Benchmarks" sheetId="3" r:id="rId2"/>
     <sheet name="Attestation Results" sheetId="4" r:id="rId3"/>
     <sheet name="Standalone Redis" sheetId="5" r:id="rId4"/>
+    <sheet name="Homomorphic Encryption" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Standalone Redis'!$AB$11:$AB$31</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Standalone Redis'!$AB$9:$AC$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Standalone Redis'!$AB$9:$AC$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Standalone Redis'!$AC$11:$AC$31</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Standalone Redis'!$AE$11:$AE$31</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Standalone Redis'!$AE$9:$AF$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Standalone Redis'!$AF$11:$AF$31</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Standalone Redis'!$AK$11:$AK$31</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Standalone Redis'!$AK$9:$AL$9</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Standalone Redis'!$AL$11:$AL$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Standalone Redis'!$AC$11:$AC$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Standalone Redis'!$AE$11:$AE$31</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Standalone Redis'!$AE$9:$AF$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Standalone Redis'!$AF$11:$AF$31</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Standalone Redis'!$AK$11:$AK$31</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Standalone Redis'!$AK$9:$AL$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Standalone Redis'!$AL$11:$AL$31</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Standalone Redis'!$AB$11:$AB$31</definedName>
     <definedName name="tests_1" localSheetId="0">'External Redis-Benchmarks'!$C$12:$J$16</definedName>
     <definedName name="tests_2" localSheetId="0">'External Redis-Benchmarks'!$C$17:$J$20</definedName>
     <definedName name="tests_3" localSheetId="0">'External Redis-Benchmarks'!$C$21:$J$24</definedName>
@@ -152,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="78">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -337,30 +320,6 @@
     <t>Proxy and Redis Results</t>
   </si>
   <si>
-    <t>GET - Proxy and Redis Results</t>
-  </si>
-  <si>
-    <t>SET - Proxy and Redis Results</t>
-  </si>
-  <si>
-    <t>GET - Proxy SGX  and Redis SGX</t>
-  </si>
-  <si>
-    <t>SET - Proxy SGX  and Redis SGX</t>
-  </si>
-  <si>
-    <t>GET - Proxy and Redis Encrypted</t>
-  </si>
-  <si>
-    <t>SET - Proxy and Redis Encrypted</t>
-  </si>
-  <si>
-    <t>GET - Proxy SGX and Redis Encrypted</t>
-  </si>
-  <si>
-    <t>SET - Proxy SGX and Redis Encrypted</t>
-  </si>
-  <si>
     <t>Proxy &amp; Redis</t>
   </si>
   <si>
@@ -375,6 +334,42 @@
   <si>
     <t>SET Throughput</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Proxy and Redis Results</t>
+  </si>
+  <si>
+    <t>Proxy SGX  and Redis SGX</t>
+  </si>
+  <si>
+    <t>Proxy SGX  and Redis Encrypted</t>
+  </si>
+  <si>
+    <t>Proxy SGX &amp; Plain Redis</t>
+  </si>
+  <si>
+    <t>Test Time (minutes)</t>
+  </si>
+  <si>
+    <t>1.13MB</t>
+  </si>
+  <si>
+    <t>Proxy SGX &amp; Homo Encrypted Redis</t>
+  </si>
+  <si>
+    <t>10.578MB</t>
+  </si>
+  <si>
+    <t>Proxy SGX &amp; Encrypted Redis</t>
+  </si>
+  <si>
+    <t>3.85MB</t>
+  </si>
+  <si>
+    <t>Sum Homomorphic Encryption</t>
+  </si>
+  <si>
+    <t>Search Homomorphic Encryption</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +377,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-PT,1]hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="[$]hh:mm:ss;@" x16r2:formatCode16="[$-en-PT,1]hh:mm:ss;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -423,7 +418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1025,6 +1020,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -1096,7 +1100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1133,6 +1137,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,30 +1312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1189,119 +1327,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2011,6 +2053,1468 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sum Operation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Throughput</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Homomorphic Encryption'!$K$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Plain Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$K$6:$K$16</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$L$6:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2242-234A-9510-DBFACA3FBED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Homomorphic Encryption'!$N$4:$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Homo Encrypted Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$K$6:$K$16</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$O$6:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2242-234A-9510-DBFACA3FBED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Homomorphic Encryption'!$Q$4:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Encrypted Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$K$6:$K$16</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$R$6:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2242-234A-9510-DBFACA3FBED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1553195167"/>
+        <c:axId val="1553196815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553195167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553196815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1553196815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553195167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Search</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Operation</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Throughput</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Homomorphic Encryption'!$L$40:$M$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Plain Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$L$42:$L$52</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$M$42:$M$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A7C-944C-BD99-AE376018037A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Homomorphic Encryption'!$O$40:$P$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Homo Encrypted Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$L$42:$L$52</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$P$42:$P$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5A7C-944C-BD99-AE376018037A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Homomorphic Encryption'!$R$40:$S$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proxy SGX &amp; Encrypted Redis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$L$42:$L$52</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.736111111111111E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.472222222222222E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Homomorphic Encryption'!$S$42:$S$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5A7C-944C-BD99-AE376018037A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1553195167"/>
+        <c:axId val="1553196815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553195167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553196815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1553196815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553195167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -6507,7 +8011,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Get Throughput</a:t>
+              <a:t>Standalone Get Throughput</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7154,7 +8658,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7205,7 +8709,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7218,11 +8722,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="1200"/>
                   <a:t>Operations</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
                   <a:t> per Second</a:t>
                 </a:r>
               </a:p>
@@ -7241,7 +8745,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7279,7 +8783,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7409,13 +8913,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Set</a:t>
+              <a:t>Standalone Set Throughput</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> Throughput</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7482,7 +8981,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Standalone Redis'!$AB$11:$AB$31</c:f>
+              <c:f>'Standalone Redis'!$O$11:$O$31</c:f>
               <c:numCache>
                 <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
                   <mc:Choice Requires="c16r2">
@@ -7634,7 +9133,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5EFB-9A4B-81E5-19D578E0B6F9}"/>
+              <c16:uniqueId val="{00000000-42F8-834A-9D83-C4852B7802CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7666,7 +9165,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Standalone Redis'!$AE$11:$AE$31</c:f>
+              <c:f>'Standalone Redis'!$R$11:$R$31</c:f>
               <c:numCache>
                 <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
                   <mc:Choice Requires="c16r2">
@@ -7818,7 +9317,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5EFB-9A4B-81E5-19D578E0B6F9}"/>
+              <c16:uniqueId val="{00000001-42F8-834A-9D83-C4852B7802CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7850,7 +9349,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Standalone Redis'!$AK$11:$AK$31</c:f>
+              <c:f>'Standalone Redis'!$X$11:$X$31</c:f>
               <c:numCache>
                 <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
                   <mc:Choice Requires="c16r2">
@@ -8002,7 +9501,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5EFB-9A4B-81E5-19D578E0B6F9}"/>
+              <c16:uniqueId val="{00000002-42F8-834A-9D83-C4852B7802CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8015,11 +9514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="280032640"/>
-        <c:axId val="280034288"/>
+        <c:axId val="1553195167"/>
+        <c:axId val="1553196815"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280032640"/>
+        <c:axId val="1553195167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8061,7 +9560,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8076,7 +9575,7 @@
             <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280034288"/>
+        <c:crossAx val="1553196815"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8084,9 +9583,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280034288"/>
+        <c:axId val="1553196815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8104,6 +9604,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:t>Operations</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8126,7 +9685,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8141,7 +9700,7 @@
             <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280032640"/>
+        <c:crossAx val="1553195167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8222,6 +9781,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9084,6 +10723,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -13409,26 +16080,109 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>789112</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>119579</xdr:rowOff>
+      <xdr:colOff>557018</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77983</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>395269</xdr:colOff>
+      <xdr:colOff>164032</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>151543</xdr:rowOff>
+      <xdr:rowOff>181772</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0D55E1-9626-7841-9F02-C8498648D788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF24B85-DD13-FC44-B4C1-7FB65B8A6686}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>777328</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1BEA6E-4DB1-BF48-8A99-2D31B8D234C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>777328</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59945415-DF90-E84E-B055-A459C3B52030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -13450,23 +16204,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13827,17 +16581,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -13869,7 +16623,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="36">
+      <c r="B13" s="91">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -13898,7 +16652,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -13925,7 +16679,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -13952,7 +16706,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -13979,7 +16733,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="36">
+      <c r="B17" s="91">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -14008,7 +16762,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -14035,7 +16789,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -14062,7 +16816,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -14089,7 +16843,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="36">
+      <c r="B21" s="91">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -14118,7 +16872,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -14145,7 +16899,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -14172,7 +16926,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -14199,7 +16953,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="36">
+      <c r="B25" s="91">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -14228,7 +16982,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="37"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -14255,7 +17009,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="37"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -14282,7 +17036,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -14309,7 +17063,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="36">
+      <c r="B29" s="91">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -14338,7 +17092,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -14365,7 +17119,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="37"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -14392,7 +17146,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -14419,7 +17173,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -14455,7 +17209,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="37"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -14489,7 +17243,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="37"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -14523,7 +17277,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -14559,17 +17313,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="96"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -14601,7 +17355,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="36">
+      <c r="B41" s="91">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -14630,7 +17384,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="37"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -14657,7 +17411,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="37"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -14684,7 +17438,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -14711,7 +17465,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="36">
+      <c r="B45" s="91">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -14740,7 +17494,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="37"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -14767,7 +17521,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="37"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -14794,7 +17548,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -14821,7 +17575,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="36">
+      <c r="B49" s="91">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -14850,7 +17604,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="37"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -14877,7 +17631,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="37"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -14904,7 +17658,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -14931,7 +17685,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="36">
+      <c r="B53" s="91">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -14960,7 +17714,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="37"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -14987,7 +17741,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="37"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -15014,7 +17768,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -15041,7 +17795,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="36">
+      <c r="B57" s="91">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -15070,7 +17824,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="37"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -15097,7 +17851,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="37"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -15124,7 +17878,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="38"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -15151,7 +17905,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -15187,7 +17941,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="37"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -15221,7 +17975,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="37"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -15255,7 +18009,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="38"/>
+      <c r="B64" s="93"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -15290,17 +18044,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="41"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -15332,7 +18086,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="36">
+      <c r="B68" s="91">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -15361,7 +18115,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="37"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -15388,7 +18142,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="37"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -15415,7 +18169,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="42"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -15442,7 +18196,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="36">
+      <c r="B72" s="91">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -15471,7 +18225,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="37"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -15498,7 +18252,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="37"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -15525,7 +18279,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -15552,7 +18306,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="36">
+      <c r="B76" s="91">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -15581,7 +18335,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="37"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -15608,7 +18362,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="37"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -15635,7 +18389,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -15662,7 +18416,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="36">
+      <c r="B80" s="91">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -15691,7 +18445,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="37"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -15718,7 +18472,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="37"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -15745,7 +18499,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="42"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -15772,7 +18526,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="36">
+      <c r="B84" s="91">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -15801,7 +18555,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="37"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -15828,7 +18582,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="37"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -15855,7 +18609,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="38"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -15882,7 +18636,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -15918,7 +18672,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="37"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -15952,7 +18706,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="37"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -15986,7 +18740,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="38"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -16053,7 +18807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D7AB5-56EB-A14B-8A61-C582BDE41FCF}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
@@ -16112,17 +18866,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -16154,7 +18908,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="36">
+      <c r="B13" s="91">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -16183,7 +18937,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="37"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -16210,7 +18964,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="37"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -16237,7 +18991,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -16264,7 +19018,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="36">
+      <c r="B17" s="91">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -16293,7 +19047,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="37"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -16320,7 +19074,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="37"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -16347,7 +19101,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -16374,7 +19128,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="36">
+      <c r="B21" s="91">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -16403,7 +19157,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="37"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -16430,7 +19184,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -16457,7 +19211,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -16484,7 +19238,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="36">
+      <c r="B25" s="91">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -16513,7 +19267,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="37"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -16540,7 +19294,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="37"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -16567,7 +19321,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -16594,7 +19348,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="36">
+      <c r="B29" s="91">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -16623,7 +19377,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="37"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -16650,7 +19404,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="37"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -16677,7 +19431,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
+      <c r="B32" s="93"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -16704,7 +19458,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -16740,7 +19494,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -16774,7 +19528,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -16808,7 +19562,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -16844,17 +19598,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="96"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -16886,7 +19640,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="36">
+      <c r="B41" s="91">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -16915,7 +19669,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="37"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -16942,7 +19696,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="37"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -16969,7 +19723,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -16996,7 +19750,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="36">
+      <c r="B45" s="91">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -17025,7 +19779,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="37"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -17052,7 +19806,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="37"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -17079,7 +19833,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -17106,7 +19860,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="36">
+      <c r="B49" s="91">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -17135,7 +19889,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="37"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -17162,7 +19916,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="37"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -17189,7 +19943,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -17216,7 +19970,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="36">
+      <c r="B53" s="91">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -17245,7 +19999,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="37"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -17272,7 +20026,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="37"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -17299,7 +20053,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -17326,7 +20080,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="36">
+      <c r="B57" s="91">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -17355,7 +20109,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="37"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -17382,7 +20136,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="37"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -17409,7 +20163,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="38"/>
+      <c r="B60" s="93"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -17436,7 +20190,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -17472,7 +20226,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="37"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -17506,7 +20260,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="37"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -17540,7 +20294,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="38"/>
+      <c r="B64" s="93"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -17575,17 +20329,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="41"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="96"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -17617,7 +20371,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="36">
+      <c r="B68" s="91">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -17646,7 +20400,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="37"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -17673,7 +20427,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="37"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -17700,7 +20454,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="42"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -17727,7 +20481,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="36">
+      <c r="B72" s="91">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -17756,7 +20510,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="37"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -17783,7 +20537,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="37"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -17810,7 +20564,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -17837,7 +20591,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="36">
+      <c r="B76" s="91">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -17866,7 +20620,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="37"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -17893,7 +20647,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="37"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -17920,7 +20674,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -17947,7 +20701,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="36">
+      <c r="B80" s="91">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -17976,7 +20730,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="37"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -18003,7 +20757,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="37"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -18030,7 +20784,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="42"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -18057,7 +20811,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="36">
+      <c r="B84" s="91">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -18086,7 +20840,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="37"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -18113,7 +20867,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="37"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -18140,7 +20894,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="38"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -18167,7 +20921,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -18203,7 +20957,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="37"/>
+      <c r="B89" s="92"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -18237,7 +20991,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="37"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -18271,7 +21025,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="38"/>
+      <c r="B91" s="93"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -18338,8 +21092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074A9C4C-98EA-374F-B3FE-F455AC9FA99B}">
   <dimension ref="F1:L24"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18359,367 +21113,367 @@
   <sheetData>
     <row r="1" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="73"/>
-      <c r="G2" s="54" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="65"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="75"/>
-      <c r="G3" s="76" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="77" t="s">
+      <c r="J3" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="59">
         <v>0.99</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="60" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="59">
+      <c r="G4" s="43">
         <v>10</v>
       </c>
-      <c r="H4" s="60">
+      <c r="H4" s="44">
         <v>1491</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="44">
         <v>402</v>
       </c>
-      <c r="J4" s="60">
+      <c r="J4" s="44">
         <v>188</v>
       </c>
-      <c r="K4" s="81">
+      <c r="K4" s="62">
         <v>549</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="53">
         <v>2.4809999999999999</v>
       </c>
     </row>
     <row r="5" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="45">
         <v>10</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="46">
         <v>1492</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="46">
         <v>401</v>
       </c>
-      <c r="J5" s="62">
+      <c r="J5" s="46">
         <v>179</v>
       </c>
-      <c r="K5" s="83">
+      <c r="K5" s="64">
         <v>550</v>
       </c>
-      <c r="L5" s="72">
+      <c r="L5" s="54">
         <v>2.4830000000000001</v>
       </c>
     </row>
     <row r="6" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="47">
         <v>10</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="48">
         <v>1494</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="48">
         <v>401</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="48">
         <v>164</v>
       </c>
-      <c r="K6" s="85">
+      <c r="K6" s="66">
         <v>546</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="67">
         <v>2.4860000000000002</v>
       </c>
     </row>
     <row r="7" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="68">
         <f>AVERAGE(G4:G6)</f>
         <v>10</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="69">
         <f t="shared" ref="H7:L7" si="0">AVERAGE(H4:H6)</f>
         <v>1492.3333333333333</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="69">
         <f t="shared" si="0"/>
         <v>401.33333333333331</v>
       </c>
-      <c r="J7" s="88">
+      <c r="J7" s="69">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="69">
         <f t="shared" si="0"/>
         <v>548.33333333333337</v>
       </c>
-      <c r="L7" s="89">
+      <c r="L7" s="70">
         <f t="shared" si="0"/>
         <v>2.4833333333333338</v>
       </c>
     </row>
     <row r="8" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="6:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="46"/>
-      <c r="G15" s="54" t="s">
+      <c r="F15" s="36"/>
+      <c r="G15" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="65"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
     </row>
     <row r="16" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="46"/>
-      <c r="G16" s="56" t="s">
+      <c r="F16" s="36"/>
+      <c r="G16" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="54" t="s">
+      <c r="H16" s="100"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="65"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
     </row>
     <row r="17" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="46"/>
-      <c r="G17" s="58" t="s">
+      <c r="F17" s="36"/>
+      <c r="G17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="58" t="s">
+      <c r="K17" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="L17" s="49" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="51" t="s">
+      <c r="F18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="43">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="44">
         <v>1.7849999999999999</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="44">
         <f>H18-G18</f>
         <v>1.7743</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="44">
         <v>3.0228000000000002</v>
       </c>
-      <c r="K18" s="60">
+      <c r="K18" s="44">
         <v>68.592399999999998</v>
       </c>
-      <c r="L18" s="60">
+      <c r="L18" s="44">
         <f>K18-J18</f>
         <v>65.569599999999994</v>
       </c>
     </row>
     <row r="19" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19" s="45">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="46">
         <v>1.5032000000000001</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="44">
         <f t="shared" ref="I19:I23" si="1">H19-G19</f>
         <v>1.4939</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="46">
         <v>3.2038000000000002</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="46">
         <v>71.489400000000003</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19" s="44">
         <f t="shared" ref="L19:L23" si="2">K19-J19</f>
         <v>68.285600000000002</v>
       </c>
     </row>
     <row r="20" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="45">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="46">
         <v>1.5134000000000001</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="44">
         <f t="shared" si="1"/>
         <v>1.5039</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="46">
         <v>3.1208</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="46">
         <v>68.456400000000002</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="44">
         <f t="shared" si="2"/>
         <v>65.335599999999999</v>
       </c>
     </row>
     <row r="21" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="45">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="46">
         <v>1.7422</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="44">
         <f t="shared" si="1"/>
         <v>1.7327999999999999</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="46">
         <v>3.1332</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="46">
         <v>67.299000000000007</v>
       </c>
-      <c r="L21" s="60">
+      <c r="L21" s="44">
         <f t="shared" si="2"/>
         <v>64.165800000000004</v>
       </c>
     </row>
     <row r="22" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="47">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="48">
         <v>1.4784999999999999</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="44">
         <f t="shared" si="1"/>
         <v>1.4691999999999998</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="48">
         <v>3.0632999999999999</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="48">
         <v>69.897099999999995</v>
       </c>
-      <c r="L22" s="60">
+      <c r="L22" s="44">
         <f t="shared" si="2"/>
         <v>66.833799999999997</v>
       </c>
     </row>
     <row r="23" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="69">
+      <c r="G23" s="51">
         <f>AVERAGE(G18:G22)</f>
         <v>9.6399999999999993E-3</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="51">
         <f>AVERAGE(H18:H22)</f>
         <v>1.60446</v>
       </c>
-      <c r="I23" s="69">
+      <c r="I23" s="51">
         <f t="shared" si="1"/>
         <v>1.5948199999999999</v>
       </c>
-      <c r="J23" s="69">
+      <c r="J23" s="51">
         <f>AVERAGE(J18:J22)</f>
         <v>3.1087800000000003</v>
       </c>
-      <c r="K23" s="69">
+      <c r="K23" s="51">
         <f>AVERAGE(K18:K22)</f>
         <v>69.14685999999999</v>
       </c>
-      <c r="L23" s="70">
+      <c r="L23" s="52">
         <f t="shared" si="2"/>
         <v>66.038079999999994</v>
       </c>
@@ -18741,10 +21495,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C94FA-5716-C64B-A50C-F7393C7D3918}">
-  <dimension ref="E5:AL62"/>
+  <dimension ref="E5:AL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="Y53" sqref="Y53"/>
+    <sheetView topLeftCell="I25" zoomScale="84" zoomScaleNormal="171" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18762,145 +21516,145 @@
   <sheetData>
     <row r="5" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="48"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
     </row>
     <row r="7" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="76" t="s">
+      <c r="F7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="59">
         <v>0.95</v>
       </c>
-      <c r="K7" s="91" t="s">
+      <c r="K7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="AB7" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC7" s="45"/>
+      <c r="P7" s="109"/>
+      <c r="AB7" s="108" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC7" s="109"/>
     </row>
     <row r="8" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="43">
         <v>10</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="44">
         <v>14107</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="44">
         <v>42</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="44">
         <v>13</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="62">
         <v>42</v>
       </c>
-      <c r="K8" s="71" t="s">
+      <c r="K8" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="59">
+      <c r="F9" s="43">
         <v>10</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="44">
         <v>14046</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="44">
         <v>42</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="44">
         <v>15</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="62">
         <v>42</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="53">
         <v>2.0348259999999998</v>
       </c>
-      <c r="O9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="41"/>
-      <c r="R9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="41"/>
-      <c r="U9" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="V9" s="41"/>
-      <c r="X9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y9" s="41"/>
-      <c r="AB9" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC9" s="41"/>
-      <c r="AE9" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF9" s="41"/>
-      <c r="AH9" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI9" s="41"/>
-      <c r="AK9" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL9" s="41"/>
+      <c r="O9" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="96"/>
+      <c r="R9" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="96"/>
+      <c r="U9" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="96"/>
+      <c r="X9" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y9" s="96"/>
+      <c r="AB9" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC9" s="96"/>
+      <c r="AE9" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" s="96"/>
+      <c r="AH9" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI9" s="96"/>
+      <c r="AK9" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL9" s="96"/>
     </row>
     <row r="10" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="45">
         <v>10</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="46">
         <v>14138</v>
       </c>
-      <c r="H10" s="62">
+      <c r="H10" s="46">
         <v>42</v>
       </c>
-      <c r="I10" s="62">
+      <c r="I10" s="46">
         <v>13</v>
       </c>
-      <c r="J10" s="83">
+      <c r="J10" s="64">
         <v>42</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="54" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="32" t="s">
@@ -18953,70 +21707,70 @@
       </c>
     </row>
     <row r="11" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="45">
         <v>10</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="46">
         <v>14034</v>
       </c>
-      <c r="H11" s="62">
+      <c r="H11" s="46">
         <v>42</v>
       </c>
-      <c r="I11" s="62">
+      <c r="I11" s="46">
         <v>15</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="64">
         <v>42</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="54">
         <v>2.0330979999999998</v>
       </c>
-      <c r="O11" s="93">
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="34">
         <v>23</v>
       </c>
-      <c r="R11" s="93">
+      <c r="R11" s="74">
         <v>0</v>
       </c>
       <c r="S11" s="34">
         <v>19</v>
       </c>
-      <c r="U11" s="93">
+      <c r="U11" s="74">
         <v>0</v>
       </c>
       <c r="V11" s="34">
         <v>21</v>
       </c>
-      <c r="X11" s="93">
+      <c r="X11" s="74">
         <v>0</v>
       </c>
       <c r="Y11" s="34">
         <v>22</v>
       </c>
-      <c r="AB11" s="93">
+      <c r="AB11" s="74">
         <v>0</v>
       </c>
       <c r="AC11" s="34">
         <v>22</v>
       </c>
-      <c r="AE11" s="93">
+      <c r="AE11" s="74">
         <v>0</v>
       </c>
       <c r="AF11" s="34">
         <v>14</v>
       </c>
-      <c r="AH11" s="93">
+      <c r="AH11" s="74">
         <v>0</v>
       </c>
       <c r="AI11" s="34">
         <v>19</v>
       </c>
-      <c r="AK11" s="93">
+      <c r="AK11" s="74">
         <v>0</v>
       </c>
       <c r="AL11" s="34">
@@ -19024,70 +21778,70 @@
       </c>
     </row>
     <row r="12" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="47">
         <v>10</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="48">
         <v>14174</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="48">
         <v>42</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="48">
         <v>13</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="66">
         <v>42</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="O12" s="93">
+      <c r="O12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="P12" s="34">
         <v>24</v>
       </c>
-      <c r="R12" s="93">
+      <c r="R12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="S12" s="34">
         <v>22</v>
       </c>
-      <c r="U12" s="93">
+      <c r="U12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="V12" s="34">
         <v>22</v>
       </c>
-      <c r="X12" s="93">
+      <c r="X12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="Y12" s="34">
         <v>20</v>
       </c>
-      <c r="AB12" s="93">
+      <c r="AB12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="AC12" s="34">
         <v>23</v>
       </c>
-      <c r="AE12" s="93">
+      <c r="AE12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="AF12" s="34">
         <v>17</v>
       </c>
-      <c r="AH12" s="93">
+      <c r="AH12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="AI12" s="34">
         <v>22</v>
       </c>
-      <c r="AK12" s="93">
+      <c r="AK12" s="74">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="AL12" s="34">
@@ -19095,70 +21849,70 @@
       </c>
     </row>
     <row r="13" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="47">
         <v>10</v>
       </c>
-      <c r="G13" s="64">
+      <c r="G13" s="48">
         <v>14034</v>
       </c>
-      <c r="H13" s="64">
+      <c r="H13" s="48">
         <v>42</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="48">
         <v>15</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="66">
         <v>42</v>
       </c>
-      <c r="K13" s="86">
+      <c r="K13" s="67">
         <v>2.0330979999999998</v>
       </c>
-      <c r="O13" s="93">
+      <c r="O13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="P13" s="34">
         <v>25</v>
       </c>
-      <c r="R13" s="93">
+      <c r="R13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="S13" s="34">
         <v>19</v>
       </c>
-      <c r="U13" s="93">
+      <c r="U13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="V13" s="34">
         <v>22</v>
       </c>
-      <c r="X13" s="93">
+      <c r="X13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="Y13" s="34">
         <v>23</v>
       </c>
-      <c r="AB13" s="93">
+      <c r="AB13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="AC13" s="34">
         <v>21</v>
       </c>
-      <c r="AE13" s="93">
+      <c r="AE13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="AF13" s="34">
         <v>20</v>
       </c>
-      <c r="AH13" s="93">
+      <c r="AH13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="AI13" s="34">
         <v>22</v>
       </c>
-      <c r="AK13" s="93">
+      <c r="AK13" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="AL13" s="34">
@@ -19166,75 +21920,75 @@
       </c>
     </row>
     <row r="14" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="68">
         <f>AVERAGE(F8,F10,F12)</f>
         <v>10</v>
       </c>
-      <c r="G14" s="87">
-        <f t="shared" ref="G14:K14" si="0">AVERAGE(G8,G10,G12)</f>
+      <c r="G14" s="68">
+        <f t="shared" ref="G14:J14" si="0">AVERAGE(G8,G10,G12)</f>
         <v>14139.666666666666</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="68">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I14" s="87">
+      <c r="I14" s="68">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="68">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K14" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="O14" s="93">
+      <c r="O14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="P14" s="34">
         <v>24</v>
       </c>
-      <c r="R14" s="93">
+      <c r="R14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="S14" s="34">
         <v>22</v>
       </c>
-      <c r="U14" s="93">
+      <c r="U14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="V14" s="34">
         <v>24</v>
       </c>
-      <c r="X14" s="93">
+      <c r="X14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="Y14" s="34">
         <v>21</v>
       </c>
-      <c r="AB14" s="93">
+      <c r="AB14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="AC14" s="34">
         <v>22</v>
       </c>
-      <c r="AE14" s="93">
+      <c r="AE14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="AF14" s="34">
         <v>20</v>
       </c>
-      <c r="AH14" s="93">
+      <c r="AH14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="AI14" s="34">
         <v>23</v>
       </c>
-      <c r="AK14" s="93">
+      <c r="AK14" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="AL14" s="34">
@@ -19242,76 +21996,76 @@
       </c>
     </row>
     <row r="15" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="68">
         <f>AVERAGE(F9,F11,F13)</f>
         <v>10</v>
       </c>
-      <c r="G15" s="87">
-        <f t="shared" ref="G15:K15" si="1">AVERAGE(G9,G11,G13)</f>
+      <c r="G15" s="68">
+        <f t="shared" ref="G15:J15" si="1">AVERAGE(G9,G11,G13)</f>
         <v>14038</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="68">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I15" s="87">
+      <c r="I15" s="68">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J15" s="87">
+      <c r="J15" s="68">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K15" s="87">
+      <c r="K15" s="68">
         <f>AVERAGE(K9,K11,K13)</f>
         <v>2.033674</v>
       </c>
-      <c r="O15" s="93">
+      <c r="O15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="P15" s="34">
         <v>24</v>
       </c>
-      <c r="R15" s="93">
+      <c r="R15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="S15" s="34">
         <v>21</v>
       </c>
-      <c r="U15" s="93">
+      <c r="U15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="V15" s="34">
         <v>25</v>
       </c>
-      <c r="X15" s="93">
+      <c r="X15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="Y15" s="34">
         <v>22</v>
       </c>
-      <c r="AB15" s="93">
+      <c r="AB15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AC15" s="34">
         <v>22</v>
       </c>
-      <c r="AE15" s="93">
+      <c r="AE15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AF15" s="34">
         <v>19</v>
       </c>
-      <c r="AH15" s="93">
+      <c r="AH15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AI15" s="34">
         <v>23</v>
       </c>
-      <c r="AK15" s="93">
+      <c r="AK15" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="AL15" s="34">
@@ -19319,49 +22073,49 @@
       </c>
     </row>
     <row r="16" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O16" s="93">
+      <c r="O16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="P16" s="34">
         <v>23</v>
       </c>
-      <c r="R16" s="93">
+      <c r="R16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="S16" s="34">
         <v>22</v>
       </c>
-      <c r="U16" s="93">
+      <c r="U16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="V16" s="34">
         <v>22</v>
       </c>
-      <c r="X16" s="93">
+      <c r="X16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="Y16" s="34">
         <v>20</v>
       </c>
-      <c r="AB16" s="93">
+      <c r="AB16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="AC16" s="34">
         <v>24</v>
       </c>
-      <c r="AE16" s="93">
+      <c r="AE16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="AF16" s="34">
         <v>20</v>
       </c>
-      <c r="AH16" s="93">
+      <c r="AH16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="AI16" s="34">
         <v>23</v>
       </c>
-      <c r="AK16" s="93">
+      <c r="AK16" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="AL16" s="34">
@@ -19369,58 +22123,58 @@
       </c>
     </row>
     <row r="17" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="O17" s="94">
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="107"/>
+      <c r="O17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="P17" s="35">
         <v>24</v>
       </c>
-      <c r="R17" s="94">
+      <c r="R17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="S17" s="35">
         <v>18</v>
       </c>
-      <c r="U17" s="94">
+      <c r="U17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="V17" s="35">
         <v>24</v>
       </c>
-      <c r="X17" s="94">
+      <c r="X17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="Y17" s="35">
         <v>22</v>
       </c>
-      <c r="AB17" s="94">
+      <c r="AB17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="AC17" s="35">
         <v>23</v>
       </c>
-      <c r="AE17" s="94">
+      <c r="AE17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="AF17" s="35">
         <v>22</v>
       </c>
-      <c r="AH17" s="94">
+      <c r="AH17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="AI17" s="35">
         <v>24</v>
       </c>
-      <c r="AK17" s="94">
+      <c r="AK17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="AL17" s="35">
@@ -19428,70 +22182,70 @@
       </c>
     </row>
     <row r="18" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="76" t="s">
+      <c r="F18" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="77" t="s">
+      <c r="G18" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="78">
+      <c r="J18" s="59">
         <v>0.95</v>
       </c>
-      <c r="K18" s="91" t="s">
+      <c r="K18" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="93">
+      <c r="O18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="P18" s="34">
         <v>22</v>
       </c>
-      <c r="R18" s="93">
+      <c r="R18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="S18" s="34">
         <v>19</v>
       </c>
-      <c r="U18" s="93">
+      <c r="U18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="V18" s="34">
         <v>24</v>
       </c>
-      <c r="X18" s="93">
+      <c r="X18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="Y18" s="34">
         <v>19</v>
       </c>
-      <c r="AB18" s="93">
+      <c r="AB18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="AC18" s="34">
         <v>23</v>
       </c>
-      <c r="AE18" s="93">
+      <c r="AE18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="AF18" s="34">
         <v>22</v>
       </c>
-      <c r="AH18" s="93">
+      <c r="AH18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="AI18" s="34">
         <v>24</v>
       </c>
-      <c r="AK18" s="93">
+      <c r="AK18" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="AL18" s="34">
@@ -19499,70 +22253,70 @@
       </c>
     </row>
     <row r="19" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="43">
         <v>10</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="44">
         <v>12443</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="44">
         <v>48</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="44">
         <v>16</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="62">
         <v>51</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="93">
+      <c r="O19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="P19" s="34">
         <v>25</v>
       </c>
-      <c r="R19" s="93">
+      <c r="R19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="S19" s="34">
         <v>19</v>
       </c>
-      <c r="U19" s="93">
+      <c r="U19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="V19" s="34">
         <v>24</v>
       </c>
-      <c r="X19" s="93">
+      <c r="X19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="Y19" s="34">
         <v>21</v>
       </c>
-      <c r="AB19" s="93">
+      <c r="AB19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="AC19" s="34">
         <v>23</v>
       </c>
-      <c r="AE19" s="93">
+      <c r="AE19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="AF19" s="34">
         <v>19</v>
       </c>
-      <c r="AH19" s="93">
+      <c r="AH19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="AI19" s="34">
         <v>24</v>
       </c>
-      <c r="AK19" s="93">
+      <c r="AK19" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="AL19" s="34">
@@ -19570,70 +22324,70 @@
       </c>
     </row>
     <row r="20" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="43">
         <v>10</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="44">
         <v>12012</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="44">
         <v>50</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="44">
         <v>60</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="62">
         <v>58</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="53">
         <v>1.960164</v>
       </c>
-      <c r="O20" s="93">
+      <c r="O20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="P20" s="34">
         <v>22</v>
       </c>
-      <c r="R20" s="93">
+      <c r="R20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S20" s="34">
         <v>19</v>
       </c>
-      <c r="U20" s="93">
+      <c r="U20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="V20" s="34">
         <v>24</v>
       </c>
-      <c r="X20" s="93">
+      <c r="X20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="Y20" s="34">
         <v>20</v>
       </c>
-      <c r="AB20" s="93">
+      <c r="AB20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="AC20" s="34">
         <v>25</v>
       </c>
-      <c r="AE20" s="93">
+      <c r="AE20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="AF20" s="34">
         <v>18</v>
       </c>
-      <c r="AH20" s="93">
+      <c r="AH20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="AI20" s="34">
         <v>22</v>
       </c>
-      <c r="AK20" s="93">
+      <c r="AK20" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="AL20" s="34">
@@ -19641,70 +22395,70 @@
       </c>
     </row>
     <row r="21" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="82" t="s">
+      <c r="E21" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="45">
         <v>10</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="46">
         <v>12424</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="46">
         <v>48</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="46">
         <v>17</v>
       </c>
-      <c r="J21" s="83">
+      <c r="J21" s="64">
         <v>51</v>
       </c>
-      <c r="K21" s="71" t="s">
+      <c r="K21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O21" s="93">
+      <c r="O21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="P21" s="34">
         <v>24</v>
       </c>
-      <c r="R21" s="93">
+      <c r="R21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="S21" s="34">
         <v>21</v>
       </c>
-      <c r="U21" s="93">
+      <c r="U21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="V21" s="34">
         <v>25</v>
       </c>
-      <c r="X21" s="93">
+      <c r="X21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="Y21" s="34">
         <v>22</v>
       </c>
-      <c r="AB21" s="93">
+      <c r="AB21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="AC21" s="34">
         <v>25</v>
       </c>
-      <c r="AE21" s="93">
+      <c r="AE21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="AF21" s="34">
         <v>17</v>
       </c>
-      <c r="AH21" s="93">
+      <c r="AH21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="AI21" s="34">
         <v>21</v>
       </c>
-      <c r="AK21" s="93">
+      <c r="AK21" s="74">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="AL21" s="34">
@@ -19712,70 +22466,70 @@
       </c>
     </row>
     <row r="22" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="45">
         <v>10</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="46">
         <v>11995</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="46">
         <v>50</v>
       </c>
-      <c r="I22" s="62">
+      <c r="I22" s="46">
         <v>69</v>
       </c>
-      <c r="J22" s="83">
+      <c r="J22" s="64">
         <v>58</v>
       </c>
-      <c r="K22" s="72">
+      <c r="K22" s="54">
         <v>1.957376</v>
       </c>
-      <c r="O22" s="93">
+      <c r="O22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="P22" s="34">
         <v>24</v>
       </c>
-      <c r="R22" s="93">
+      <c r="R22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="S22" s="34">
         <v>22</v>
       </c>
-      <c r="U22" s="93">
+      <c r="U22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="V22" s="34">
         <v>25</v>
       </c>
-      <c r="X22" s="93">
+      <c r="X22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="Y22" s="34">
         <v>22</v>
       </c>
-      <c r="AB22" s="93">
+      <c r="AB22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="AC22" s="34">
         <v>25</v>
       </c>
-      <c r="AE22" s="93">
+      <c r="AE22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="AF22" s="34">
         <v>21</v>
       </c>
-      <c r="AH22" s="93">
+      <c r="AH22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="AI22" s="34">
         <v>23</v>
       </c>
-      <c r="AK22" s="93">
+      <c r="AK22" s="74">
         <v>3.81944444444444E-3</v>
       </c>
       <c r="AL22" s="34">
@@ -19783,70 +22537,70 @@
       </c>
     </row>
     <row r="23" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="82" t="s">
+      <c r="E23" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="47">
         <v>10</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="48">
         <v>12452</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="48">
         <v>48</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="48">
         <v>16</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="66">
         <v>51</v>
       </c>
-      <c r="K23" s="71" t="s">
+      <c r="K23" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O23" s="93">
+      <c r="O23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="P23" s="34">
         <v>24</v>
       </c>
-      <c r="R23" s="93">
+      <c r="R23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="S23" s="34">
         <v>20</v>
       </c>
-      <c r="U23" s="93">
+      <c r="U23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="V23" s="34">
         <v>23</v>
       </c>
-      <c r="X23" s="93">
+      <c r="X23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="Y23" s="34">
         <v>22</v>
       </c>
-      <c r="AB23" s="93">
+      <c r="AB23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="AC23" s="34">
         <v>25</v>
       </c>
-      <c r="AE23" s="93">
+      <c r="AE23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="AF23" s="34">
         <v>19</v>
       </c>
-      <c r="AH23" s="93">
+      <c r="AH23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="AI23" s="34">
         <v>23</v>
       </c>
-      <c r="AK23" s="93">
+      <c r="AK23" s="74">
         <v>4.1666666666666701E-3</v>
       </c>
       <c r="AL23" s="34">
@@ -19854,70 +22608,70 @@
       </c>
     </row>
     <row r="24" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="82" t="s">
+      <c r="E24" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="47">
         <v>10</v>
       </c>
-      <c r="G24" s="64">
+      <c r="G24" s="48">
         <v>12033</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="48">
         <v>49</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="48">
         <v>59</v>
       </c>
-      <c r="J24" s="85">
+      <c r="J24" s="66">
         <v>58</v>
       </c>
-      <c r="K24" s="86">
+      <c r="K24" s="67">
         <v>1.9625760000000001</v>
       </c>
-      <c r="O24" s="94">
+      <c r="O24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="P24" s="34">
         <v>24</v>
       </c>
-      <c r="R24" s="94">
+      <c r="R24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="S24" s="34">
         <v>22</v>
       </c>
-      <c r="U24" s="94">
+      <c r="U24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="V24" s="34">
         <v>22</v>
       </c>
-      <c r="X24" s="94">
+      <c r="X24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="Y24" s="34">
         <v>21</v>
       </c>
-      <c r="AB24" s="94">
+      <c r="AB24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="AC24" s="34">
         <v>22</v>
       </c>
-      <c r="AE24" s="94">
+      <c r="AE24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="AF24" s="34">
         <v>20</v>
       </c>
-      <c r="AH24" s="94">
+      <c r="AH24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="AI24" s="34">
         <v>24</v>
       </c>
-      <c r="AK24" s="94">
+      <c r="AK24" s="75">
         <v>4.5138888888888902E-3</v>
       </c>
       <c r="AL24" s="34">
@@ -19925,75 +22679,75 @@
       </c>
     </row>
     <row r="25" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="84" t="s">
+      <c r="E25" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="68">
         <f>AVERAGE(F19,F21,F23)</f>
         <v>10</v>
       </c>
-      <c r="G25" s="87">
-        <f t="shared" ref="G25:K25" si="2">AVERAGE(G19,G21,G23)</f>
+      <c r="G25" s="68">
+        <f t="shared" ref="G25:J25" si="2">AVERAGE(G19,G21,G23)</f>
         <v>12439.666666666666</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="68">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="I25" s="87">
+      <c r="I25" s="68">
         <f t="shared" si="2"/>
         <v>16.333333333333332</v>
       </c>
-      <c r="J25" s="87">
+      <c r="J25" s="68">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="K25" s="87" t="s">
+      <c r="K25" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="O25" s="93">
+      <c r="O25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="P25" s="35">
         <v>24</v>
       </c>
-      <c r="R25" s="93">
+      <c r="R25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="S25" s="34">
         <v>21</v>
       </c>
-      <c r="U25" s="93">
+      <c r="U25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="V25" s="34">
         <v>22</v>
       </c>
-      <c r="X25" s="93">
+      <c r="X25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="Y25" s="34">
         <v>20</v>
       </c>
-      <c r="AB25" s="93">
+      <c r="AB25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="AC25" s="35">
         <v>25</v>
       </c>
-      <c r="AE25" s="93">
+      <c r="AE25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="AF25" s="34">
         <v>19</v>
       </c>
-      <c r="AH25" s="93">
+      <c r="AH25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="AI25" s="34">
         <v>23</v>
       </c>
-      <c r="AK25" s="93">
+      <c r="AK25" s="74">
         <v>4.8611111111111103E-3</v>
       </c>
       <c r="AL25" s="34">
@@ -20001,76 +22755,76 @@
       </c>
     </row>
     <row r="26" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="68">
         <f>AVERAGE(F20,F22,F24)</f>
         <v>10</v>
       </c>
-      <c r="G26" s="87">
-        <f t="shared" ref="G26:K26" si="3">AVERAGE(G20,G22,G24)</f>
+      <c r="G26" s="68">
+        <f t="shared" ref="G26:J26" si="3">AVERAGE(G20,G22,G24)</f>
         <v>12013.333333333334</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H26" s="68">
         <f t="shared" si="3"/>
         <v>49.666666666666664</v>
       </c>
-      <c r="I26" s="87">
+      <c r="I26" s="68">
         <f t="shared" si="3"/>
         <v>62.666666666666664</v>
       </c>
-      <c r="J26" s="87">
+      <c r="J26" s="68">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="K26" s="87">
+      <c r="K26" s="68">
         <f>AVERAGE(K20,K22,K24)</f>
         <v>1.9600386666666667</v>
       </c>
-      <c r="O26" s="93">
+      <c r="O26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="P26" s="34">
         <v>24</v>
       </c>
-      <c r="R26" s="93">
+      <c r="R26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="S26" s="34">
         <v>20</v>
       </c>
-      <c r="U26" s="93">
+      <c r="U26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="V26" s="34">
         <v>22</v>
       </c>
-      <c r="X26" s="93">
+      <c r="X26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="Y26" s="34">
         <v>22</v>
       </c>
-      <c r="AB26" s="93">
+      <c r="AB26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="AC26" s="34">
         <v>25</v>
       </c>
-      <c r="AE26" s="93">
+      <c r="AE26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="AF26" s="34">
         <v>18</v>
       </c>
-      <c r="AH26" s="93">
+      <c r="AH26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="AI26" s="34">
         <v>23</v>
       </c>
-      <c r="AK26" s="93">
+      <c r="AK26" s="74">
         <v>5.2083333333333296E-3</v>
       </c>
       <c r="AL26" s="34">
@@ -20078,49 +22832,49 @@
       </c>
     </row>
     <row r="27" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O27" s="93">
+      <c r="O27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="P27" s="34">
         <v>23</v>
       </c>
-      <c r="R27" s="93">
+      <c r="R27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="S27" s="34">
         <v>22</v>
       </c>
-      <c r="U27" s="93">
+      <c r="U27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="V27" s="34">
         <v>22</v>
       </c>
-      <c r="X27" s="93">
+      <c r="X27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="Y27" s="34">
         <v>21</v>
       </c>
-      <c r="AB27" s="93">
+      <c r="AB27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="AC27" s="34">
         <v>25</v>
       </c>
-      <c r="AE27" s="93">
+      <c r="AE27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="AF27" s="34">
         <v>21</v>
       </c>
-      <c r="AH27" s="93">
+      <c r="AH27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="AI27" s="34">
         <v>23</v>
       </c>
-      <c r="AK27" s="93">
+      <c r="AK27" s="74">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="AL27" s="34">
@@ -20128,58 +22882,58 @@
       </c>
     </row>
     <row r="28" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="O28" s="93">
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="107"/>
+      <c r="O28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="P28" s="34">
         <v>24</v>
       </c>
-      <c r="R28" s="93">
+      <c r="R28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="S28" s="34">
         <v>22</v>
       </c>
-      <c r="U28" s="93">
+      <c r="U28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="V28" s="34">
         <v>22</v>
       </c>
-      <c r="X28" s="93">
+      <c r="X28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="Y28" s="34">
         <v>20</v>
       </c>
-      <c r="AB28" s="93">
+      <c r="AB28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="AC28" s="34">
         <v>24</v>
       </c>
-      <c r="AE28" s="93">
+      <c r="AE28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="AF28" s="34">
         <v>22</v>
       </c>
-      <c r="AH28" s="93">
+      <c r="AH28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="AI28" s="34">
         <v>23</v>
       </c>
-      <c r="AK28" s="93">
+      <c r="AK28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
       <c r="AL28" s="34">
@@ -20187,70 +22941,70 @@
       </c>
     </row>
     <row r="29" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="90" t="s">
+      <c r="E29" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="77" t="s">
+      <c r="G29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="77" t="s">
+      <c r="H29" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="77" t="s">
+      <c r="I29" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="78">
+      <c r="J29" s="59">
         <v>0.95</v>
       </c>
-      <c r="K29" s="91" t="s">
+      <c r="K29" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="93">
+      <c r="O29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="P29" s="34">
         <v>23</v>
       </c>
-      <c r="R29" s="93">
+      <c r="R29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="S29" s="34">
         <v>20</v>
       </c>
-      <c r="U29" s="93">
+      <c r="U29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="V29" s="34">
         <v>22</v>
       </c>
-      <c r="X29" s="93">
+      <c r="X29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="Y29" s="34">
         <v>21</v>
       </c>
-      <c r="AB29" s="93">
+      <c r="AB29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="AC29" s="34">
         <v>22</v>
       </c>
-      <c r="AE29" s="93">
+      <c r="AE29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="AF29" s="34">
         <v>20</v>
       </c>
-      <c r="AH29" s="93">
+      <c r="AH29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="AI29" s="34">
         <v>22</v>
       </c>
-      <c r="AK29" s="93">
+      <c r="AK29" s="74">
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="AL29" s="34">
@@ -20258,70 +23012,70 @@
       </c>
     </row>
     <row r="30" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E30" s="80" t="s">
+      <c r="E30" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="43">
         <v>10</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="44">
         <v>14189</v>
       </c>
-      <c r="H30" s="60">
+      <c r="H30" s="44">
         <v>42</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="44">
         <v>13</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="62">
         <v>42</v>
       </c>
-      <c r="K30" s="71" t="s">
+      <c r="K30" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="O30" s="93">
+      <c r="O30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="P30" s="34">
         <v>23</v>
       </c>
-      <c r="R30" s="93">
+      <c r="R30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="S30" s="35">
         <v>22</v>
       </c>
-      <c r="U30" s="93">
+      <c r="U30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="V30" s="35">
         <v>24</v>
       </c>
-      <c r="X30" s="93">
+      <c r="X30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="Y30" s="35">
         <v>19</v>
       </c>
-      <c r="AB30" s="93">
+      <c r="AB30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="AC30" s="34">
         <v>22</v>
       </c>
-      <c r="AE30" s="93">
+      <c r="AE30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="AF30" s="35">
         <v>19</v>
       </c>
-      <c r="AH30" s="93">
+      <c r="AH30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="AI30" s="35">
         <v>24</v>
       </c>
-      <c r="AK30" s="93">
+      <c r="AK30" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
       <c r="AL30" s="35">
@@ -20329,70 +23083,70 @@
       </c>
     </row>
     <row r="31" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E31" s="80" t="s">
+      <c r="E31" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="43">
         <v>10</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="44">
         <v>13788</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="44">
         <v>43</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="44">
         <v>15</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="62">
         <v>43</v>
       </c>
-      <c r="K31" s="71">
+      <c r="K31" s="53">
         <v>7.292338</v>
       </c>
-      <c r="O31" s="94">
+      <c r="O31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="P31" s="34">
         <v>24</v>
       </c>
-      <c r="R31" s="94">
+      <c r="R31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="S31" s="34">
         <v>20</v>
       </c>
-      <c r="U31" s="94">
+      <c r="U31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="V31" s="34">
         <v>22</v>
       </c>
-      <c r="X31" s="94">
+      <c r="X31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="Y31" s="34">
         <v>22</v>
       </c>
-      <c r="AB31" s="94">
+      <c r="AB31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="AC31" s="34">
         <v>22</v>
       </c>
-      <c r="AE31" s="94">
+      <c r="AE31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="AF31" s="34">
         <v>21</v>
       </c>
-      <c r="AH31" s="94">
+      <c r="AH31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="AI31" s="34">
         <v>22</v>
       </c>
-      <c r="AK31" s="94">
+      <c r="AK31" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="AL31" s="34">
@@ -20400,703 +23154,556 @@
       </c>
     </row>
     <row r="32" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="61">
+      <c r="F32" s="45">
         <v>10</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="46">
         <v>14120</v>
       </c>
-      <c r="H32" s="62">
+      <c r="H32" s="46">
         <v>42</v>
       </c>
-      <c r="I32" s="62">
+      <c r="I32" s="46">
         <v>13</v>
       </c>
-      <c r="J32" s="83">
+      <c r="J32" s="64">
         <v>42</v>
       </c>
-      <c r="K32" s="71" t="s">
+      <c r="K32" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="82" t="s">
+      <c r="E33" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="61">
+      <c r="F33" s="45">
         <v>10</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="46">
         <v>13719</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="46">
         <v>43</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="46">
         <v>15</v>
       </c>
-      <c r="J33" s="83">
+      <c r="J33" s="64">
         <v>43</v>
       </c>
-      <c r="K33" s="72">
+      <c r="K33" s="54">
         <v>7.2599359999999997</v>
       </c>
     </row>
     <row r="34" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="63">
+      <c r="F34" s="47">
         <v>10</v>
       </c>
-      <c r="G34" s="64">
+      <c r="G34" s="48">
         <v>14140</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="48">
         <v>42</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="48">
         <v>13</v>
       </c>
-      <c r="J34" s="85">
+      <c r="J34" s="66">
         <v>42</v>
       </c>
-      <c r="K34" s="71" t="s">
+      <c r="K34" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="82" t="s">
+      <c r="E35" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="63">
+      <c r="F35" s="47">
         <v>10</v>
       </c>
-      <c r="G35" s="64">
+      <c r="G35" s="48">
         <v>13701</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="48">
         <v>43</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="48">
         <v>15</v>
       </c>
-      <c r="J35" s="85">
+      <c r="J35" s="66">
         <v>43</v>
       </c>
-      <c r="K35" s="86">
+      <c r="K35" s="67">
         <v>7.250432</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="84" t="s">
+      <c r="E36" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="87">
+      <c r="F36" s="68">
         <f>AVERAGE(F30,F32,F34)</f>
         <v>10</v>
       </c>
-      <c r="G36" s="87">
-        <f t="shared" ref="G36:K36" si="4">AVERAGE(G30,G32,G34)</f>
+      <c r="G36" s="68">
+        <f t="shared" ref="G36:J36" si="4">AVERAGE(G30,G32,G34)</f>
         <v>14149.666666666666</v>
       </c>
-      <c r="H36" s="87">
+      <c r="H36" s="68">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="I36" s="87">
+      <c r="I36" s="68">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="J36" s="87">
+      <c r="J36" s="68">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="K36" s="87" t="s">
+      <c r="K36" s="68" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="84" t="s">
+      <c r="E37" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="87">
+      <c r="F37" s="68">
         <f>AVERAGE(F31,F33,F35)</f>
         <v>10</v>
       </c>
-      <c r="G37" s="87">
-        <f t="shared" ref="G37:K37" si="5">AVERAGE(G31,G33,G35)</f>
+      <c r="G37" s="68">
+        <f t="shared" ref="G37:J37" si="5">AVERAGE(G31,G33,G35)</f>
         <v>13736</v>
       </c>
-      <c r="H37" s="87">
+      <c r="H37" s="68">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="I37" s="87">
+      <c r="I37" s="68">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="J37" s="87">
+      <c r="J37" s="68">
         <f t="shared" si="5"/>
         <v>43</v>
       </c>
-      <c r="K37" s="87">
+      <c r="K37" s="68">
         <f>AVERAGE(K31,K33,K35)</f>
         <v>7.2675686666666666</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="90" t="s">
+      <c r="E40" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="76" t="s">
+      <c r="F40" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="77" t="s">
+      <c r="G40" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="77" t="s">
+      <c r="H40" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="77" t="s">
+      <c r="I40" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="78">
+      <c r="J40" s="59">
         <v>0.95</v>
       </c>
-      <c r="K40" s="91" t="s">
+      <c r="K40" s="72" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="59">
+      <c r="F41" s="43">
         <v>10</v>
       </c>
-      <c r="G41" s="60">
+      <c r="G41" s="44">
         <v>13083</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="44">
         <v>46</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="44">
         <v>18</v>
       </c>
-      <c r="J41" s="81">
+      <c r="J41" s="62">
         <v>46</v>
       </c>
-      <c r="K41" s="71" t="s">
+      <c r="K41" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="80" t="s">
+      <c r="E42" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="59">
+      <c r="F42" s="43">
         <v>10</v>
       </c>
-      <c r="G42" s="60">
+      <c r="G42" s="44">
         <v>12265</v>
       </c>
-      <c r="H42" s="60">
+      <c r="H42" s="44">
         <v>49</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="44">
         <v>57</v>
       </c>
-      <c r="J42" s="81">
+      <c r="J42" s="62">
         <v>55</v>
       </c>
-      <c r="K42" s="71">
+      <c r="K42" s="53">
         <v>6.4922240000000002</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="61">
+      <c r="F43" s="45">
         <v>10</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="46">
         <v>13096</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="46">
         <v>46</v>
       </c>
-      <c r="I43" s="62">
+      <c r="I43" s="46">
         <v>17</v>
       </c>
-      <c r="J43" s="83">
+      <c r="J43" s="64">
         <v>46</v>
       </c>
-      <c r="K43" s="71" t="s">
+      <c r="K43" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="82" t="s">
+      <c r="E44" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="61">
+      <c r="F44" s="45">
         <v>10</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="46">
         <v>12304</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="46">
         <v>48</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="46">
         <v>54</v>
       </c>
-      <c r="J44" s="83">
+      <c r="J44" s="64">
         <v>55</v>
       </c>
-      <c r="K44" s="72">
+      <c r="K44" s="54">
         <v>6.5087859999999997</v>
       </c>
     </row>
     <row r="45" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="47">
         <v>10</v>
       </c>
-      <c r="G45" s="64">
+      <c r="G45" s="48">
         <v>13089</v>
       </c>
-      <c r="H45" s="64">
+      <c r="H45" s="48">
         <v>46</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="48">
         <v>18</v>
       </c>
-      <c r="J45" s="85">
+      <c r="J45" s="66">
         <v>46</v>
       </c>
-      <c r="K45" s="71" t="s">
+      <c r="K45" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E46" s="82" t="s">
+      <c r="E46" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F46" s="63">
+      <c r="F46" s="47">
         <v>10</v>
       </c>
-      <c r="G46" s="64">
+      <c r="G46" s="48">
         <v>12251</v>
       </c>
-      <c r="H46" s="64">
+      <c r="H46" s="48">
         <v>49</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="48">
         <v>73</v>
       </c>
-      <c r="J46" s="85">
+      <c r="J46" s="66">
         <v>55</v>
       </c>
-      <c r="K46" s="86">
+      <c r="K46" s="67">
         <v>6.4888459999999997</v>
       </c>
     </row>
     <row r="47" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F47" s="87">
+      <c r="F47" s="68">
         <f>AVERAGE(F41,F43,F45)</f>
         <v>10</v>
       </c>
-      <c r="G47" s="87">
-        <f t="shared" ref="G47:K47" si="6">AVERAGE(G41,G43,G45)</f>
+      <c r="G47" s="68">
+        <f t="shared" ref="G47:J47" si="6">AVERAGE(G41,G43,G45)</f>
         <v>13089.333333333334</v>
       </c>
-      <c r="H47" s="87">
+      <c r="H47" s="68">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="I47" s="87">
+      <c r="I47" s="68">
         <f t="shared" si="6"/>
         <v>17.666666666666668</v>
       </c>
-      <c r="J47" s="87">
+      <c r="J47" s="68">
         <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="K47" s="87" t="s">
+      <c r="K47" s="68" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="87">
+      <c r="F48" s="68">
         <f>AVERAGE(F42,F44,F46)</f>
         <v>10</v>
       </c>
-      <c r="G48" s="87">
-        <f t="shared" ref="G48:K48" si="7">AVERAGE(G42,G44,G46)</f>
+      <c r="G48" s="68">
+        <f t="shared" ref="G48:J48" si="7">AVERAGE(G42,G44,G46)</f>
         <v>12273.333333333334</v>
       </c>
-      <c r="H48" s="87">
+      <c r="H48" s="68">
         <f t="shared" si="7"/>
         <v>48.666666666666664</v>
       </c>
-      <c r="I48" s="87">
+      <c r="I48" s="68">
         <f t="shared" si="7"/>
         <v>61.333333333333336</v>
       </c>
-      <c r="J48" s="87">
+      <c r="J48" s="68">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
-      <c r="K48" s="87">
+      <c r="K48" s="68">
         <f>AVERAGE(K42,K44,K46)</f>
         <v>6.4966186666666665</v>
       </c>
     </row>
     <row r="49" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="48"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="107"/>
     </row>
     <row r="51" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="90" t="s">
+      <c r="E51" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="F51" s="76" t="s">
+      <c r="F51" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="77" t="s">
+      <c r="G51" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="77" t="s">
+      <c r="H51" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="77" t="s">
+      <c r="I51" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="J51" s="78">
+      <c r="J51" s="59">
         <v>0.95</v>
       </c>
-      <c r="K51" s="91" t="s">
+      <c r="K51" s="72" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="52" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E52" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="87">
+      <c r="E52" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="68">
         <f>AVERAGE(F46,F48,F50)</f>
         <v>10</v>
       </c>
-      <c r="G52" s="87">
-        <f t="shared" ref="G52:K59" si="8">AVERAGE(G46,G48,G50)</f>
-        <v>12262.166666666668</v>
-      </c>
-      <c r="H52" s="87">
-        <f t="shared" si="8"/>
-        <v>48.833333333333329</v>
-      </c>
-      <c r="I52" s="87">
-        <f t="shared" si="8"/>
-        <v>67.166666666666671</v>
-      </c>
-      <c r="J52" s="87">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="K52" s="87" t="s">
-        <v>55</v>
+      <c r="G52" s="68">
+        <v>14038</v>
+      </c>
+      <c r="H52" s="68">
+        <v>42</v>
+      </c>
+      <c r="I52" s="68">
+        <v>15</v>
+      </c>
+      <c r="J52" s="68">
+        <v>42</v>
+      </c>
+      <c r="K52" s="68">
+        <v>2.0299999999999998</v>
       </c>
     </row>
     <row r="53" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="87">
+      <c r="E53" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="68">
         <f>AVERAGE(F47,F49,F51)</f>
         <v>10</v>
       </c>
-      <c r="G53" s="87">
-        <f t="shared" si="8"/>
-        <v>13089.333333333334</v>
-      </c>
-      <c r="H53" s="87">
-        <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="I53" s="87">
-        <f t="shared" si="8"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="J53" s="87">
-        <f t="shared" si="8"/>
-        <v>23.475000000000001</v>
-      </c>
-      <c r="K53" s="87">
-        <v>2.0299999999999998</v>
+      <c r="G53" s="68">
+        <v>12013</v>
+      </c>
+      <c r="H53" s="68">
+        <v>49.67</v>
+      </c>
+      <c r="I53" s="68">
+        <v>19.66</v>
+      </c>
+      <c r="J53" s="68">
+        <v>58</v>
+      </c>
+      <c r="K53" s="68">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="82" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="87">
+      <c r="E54" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="79">
         <f>AVERAGE(F48,F50,F52)</f>
         <v>10</v>
       </c>
-      <c r="G54" s="87">
-        <f t="shared" si="8"/>
-        <v>12267.75</v>
-      </c>
-      <c r="H54" s="87">
-        <f t="shared" si="8"/>
-        <v>48.75</v>
-      </c>
-      <c r="I54" s="87">
-        <f t="shared" si="8"/>
-        <v>64.25</v>
-      </c>
-      <c r="J54" s="87">
-        <f t="shared" si="8"/>
+      <c r="G54" s="79">
+        <v>12273</v>
+      </c>
+      <c r="H54" s="79">
+        <v>48.67</v>
+      </c>
+      <c r="I54" s="79">
+        <v>20.12</v>
+      </c>
+      <c r="J54" s="79">
         <v>55</v>
       </c>
-      <c r="K54" s="87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="F55" s="87">
-        <f>AVERAGE(F49,F51,F53)</f>
-        <v>10</v>
-      </c>
-      <c r="G55" s="87">
-        <f t="shared" si="8"/>
-        <v>13089.333333333334</v>
-      </c>
-      <c r="H55" s="87">
-        <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="I55" s="87">
-        <f t="shared" si="8"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="J55" s="87">
-        <f t="shared" si="8"/>
-        <v>12.2125</v>
-      </c>
-      <c r="K55" s="87">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="56" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E56" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="87">
-        <f>AVERAGE(F50,F52,F54)</f>
-        <v>10</v>
-      </c>
-      <c r="G56" s="87">
-        <f t="shared" si="8"/>
-        <v>12264.958333333334</v>
-      </c>
-      <c r="H56" s="87">
-        <f t="shared" si="8"/>
-        <v>48.791666666666664</v>
-      </c>
-      <c r="I56" s="87">
-        <f t="shared" si="8"/>
-        <v>65.708333333333343</v>
-      </c>
-      <c r="J56" s="87">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="K56" s="87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="87">
-        <f>AVERAGE(F51,F53,F55)</f>
-        <v>10</v>
-      </c>
-      <c r="G57" s="87">
-        <f t="shared" si="8"/>
-        <v>13089.333333333334</v>
-      </c>
-      <c r="H57" s="87">
-        <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="I57" s="87">
-        <f t="shared" si="8"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="J57" s="87">
-        <f t="shared" si="8"/>
-        <v>12.2125</v>
-      </c>
-      <c r="K57" s="87">
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="58" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E58" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="87">
-        <f>AVERAGE(F52,F54,F56)</f>
-        <v>10</v>
-      </c>
-      <c r="G58" s="87">
-        <f t="shared" si="8"/>
-        <v>12264.958333333334</v>
-      </c>
-      <c r="H58" s="87">
-        <f t="shared" si="8"/>
-        <v>48.791666666666664</v>
-      </c>
-      <c r="I58" s="87">
-        <f t="shared" si="8"/>
-        <v>65.708333333333343</v>
-      </c>
-      <c r="J58" s="87">
-        <f t="shared" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="K58" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="P58" s="34"/>
-    </row>
-    <row r="59" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="87">
-        <f>AVERAGE(F53,F55,F57)</f>
-        <v>10</v>
-      </c>
-      <c r="G59" s="87">
-        <f t="shared" si="8"/>
-        <v>13089.333333333334</v>
-      </c>
-      <c r="H59" s="87">
-        <f t="shared" si="8"/>
-        <v>46</v>
-      </c>
-      <c r="I59" s="87">
-        <f t="shared" si="8"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="J59" s="87">
-        <f t="shared" si="8"/>
-        <v>15.966666666666667</v>
-      </c>
-      <c r="K59" s="87">
+      <c r="K54" s="79">
         <v>6.49</v>
       </c>
-      <c r="P59" s="34"/>
-    </row>
-    <row r="60" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="87">
-        <f>AVERAGE(F52,F54,F56,F58)</f>
-        <v>10</v>
-      </c>
-      <c r="G60" s="87">
-        <f t="shared" ref="G60:K60" si="9">AVERAGE(G52,G54,G56,G58)</f>
-        <v>12264.958333333334</v>
-      </c>
-      <c r="H60" s="87">
-        <f t="shared" si="9"/>
-        <v>48.791666666666664</v>
-      </c>
-      <c r="I60" s="87">
-        <f t="shared" si="9"/>
-        <v>65.708333333333343</v>
-      </c>
-      <c r="J60" s="87">
-        <f t="shared" si="9"/>
-        <v>55</v>
-      </c>
-      <c r="K60" s="87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E61" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="87">
-        <f>AVERAGE(F53,F55,F57,F59)</f>
-        <v>10</v>
-      </c>
-      <c r="G61" s="87">
-        <f t="shared" ref="G61:K61" si="10">AVERAGE(G53,G55,G57,G59)</f>
-        <v>13089.333333333334</v>
-      </c>
-      <c r="H61" s="87">
-        <f t="shared" si="10"/>
-        <v>46</v>
-      </c>
-      <c r="I61" s="87">
-        <f t="shared" si="10"/>
-        <v>17.666666666666668</v>
-      </c>
-      <c r="J61" s="87">
-        <f t="shared" si="10"/>
-        <v>15.966666666666667</v>
-      </c>
-      <c r="K61" s="87">
-        <f>AVERAGE(K53,K55,K57,K59)</f>
-        <v>4.4350000000000005</v>
-      </c>
-    </row>
-    <row r="62" spans="5:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="55" spans="5:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+    </row>
+    <row r="56" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+    </row>
+    <row r="57" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+    </row>
+    <row r="58" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="P58" s="81"/>
+    </row>
+    <row r="59" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="P59" s="81"/>
+    </row>
+    <row r="60" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+    </row>
+    <row r="61" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="AE9:AF9"/>
@@ -21104,9 +23711,6 @@
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="E39:K39"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="AB9:AC9"/>
     <mergeCell ref="O9:P9"/>
@@ -21114,6 +23718,859 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="X9:Y9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED086EA8-21A2-AA4E-8784-EC5D248DD200}">
+  <dimension ref="C3:S53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="107"/>
+      <c r="K4" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="96"/>
+      <c r="N4" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="96"/>
+      <c r="Q4" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" s="96"/>
+    </row>
+    <row r="5" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="43">
+        <v>5</v>
+      </c>
+      <c r="E6" s="44">
+        <v>6512</v>
+      </c>
+      <c r="F6" s="44">
+        <v>46</v>
+      </c>
+      <c r="G6" s="44">
+        <v>17</v>
+      </c>
+      <c r="H6" s="62">
+        <v>48</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="74">
+        <v>0</v>
+      </c>
+      <c r="L6" s="34">
+        <v>22</v>
+      </c>
+      <c r="N6" s="74">
+        <v>0</v>
+      </c>
+      <c r="O6" s="34">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="74">
+        <v>0</v>
+      </c>
+      <c r="R6" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="43">
+        <v>5</v>
+      </c>
+      <c r="E7" s="44">
+        <v>4853</v>
+      </c>
+      <c r="F7" s="44">
+        <v>62</v>
+      </c>
+      <c r="G7" s="44">
+        <v>23</v>
+      </c>
+      <c r="H7" s="62">
+        <v>69</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="74">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="L7" s="34">
+        <v>23</v>
+      </c>
+      <c r="N7" s="74">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="O7" s="34">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="74">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="R7" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="47">
+        <v>5</v>
+      </c>
+      <c r="E8" s="48">
+        <v>6001</v>
+      </c>
+      <c r="F8" s="48">
+        <v>52</v>
+      </c>
+      <c r="G8" s="48">
+        <v>19</v>
+      </c>
+      <c r="H8" s="66">
+        <v>54</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="74">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="L8" s="34">
+        <v>23</v>
+      </c>
+      <c r="N8" s="74">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="O8" s="34">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="74">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="R8" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="76"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="K9" s="74">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="L9" s="34">
+        <v>22</v>
+      </c>
+      <c r="N9" s="74">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="O9" s="34">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="74">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="R9" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="77"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="K10" s="74">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="L10" s="34">
+        <v>23</v>
+      </c>
+      <c r="N10" s="74">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="O10" s="34">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="74">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="R10" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="77"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="K11" s="74">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="L11" s="34">
+        <v>22</v>
+      </c>
+      <c r="N11" s="74">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="O11" s="34">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="74">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="R11" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="K12" s="75">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="L12" s="35">
+        <v>20</v>
+      </c>
+      <c r="N12" s="75">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="O12" s="35">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="75">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="R12" s="35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="K13" s="74">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="L13" s="34">
+        <v>22</v>
+      </c>
+      <c r="N13" s="74">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="O13" s="34">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="74">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="R13" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="K14" s="74">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="L14" s="34">
+        <v>23</v>
+      </c>
+      <c r="N14" s="74">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="O14" s="34">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="74">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="R14" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="L15" s="34">
+        <v>21</v>
+      </c>
+      <c r="N15" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="O15" s="34">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="R15" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="75">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="L16" s="35">
+        <v>23</v>
+      </c>
+      <c r="N16" s="85">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="O16" s="11">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="85">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="R16" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="88"/>
+      <c r="L17" s="81"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="87"/>
+      <c r="Q17" s="86"/>
+      <c r="R17" s="87"/>
+    </row>
+    <row r="18" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K18" s="88"/>
+      <c r="L18" s="81"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="81"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="81"/>
+    </row>
+    <row r="19" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K19" s="88"/>
+      <c r="L19" s="81"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="81"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="81"/>
+    </row>
+    <row r="20" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K20" s="88"/>
+      <c r="L20" s="81"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="81"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="81"/>
+    </row>
+    <row r="21" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K21" s="88"/>
+      <c r="L21" s="81"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="81"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="81"/>
+    </row>
+    <row r="22" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K22" s="88"/>
+      <c r="L22" s="81"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="81"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="81"/>
+    </row>
+    <row r="23" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K23" s="88"/>
+      <c r="L23" s="81"/>
+      <c r="N23" s="88"/>
+      <c r="O23" s="81"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="81"/>
+    </row>
+    <row r="24" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K24" s="88"/>
+      <c r="L24" s="81"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="81"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="81"/>
+    </row>
+    <row r="25" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K25" s="88"/>
+      <c r="L25" s="81"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="81"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="81"/>
+    </row>
+    <row r="26" spans="11:18" x14ac:dyDescent="0.2">
+      <c r="K26" s="88"/>
+      <c r="L26" s="81"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="81"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="81"/>
+    </row>
+    <row r="39" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="M40" s="96"/>
+      <c r="O40" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="96"/>
+      <c r="R40" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="S40" s="96"/>
+    </row>
+    <row r="41" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="74">
+        <v>0</v>
+      </c>
+      <c r="M42" s="34">
+        <v>13</v>
+      </c>
+      <c r="O42" s="74">
+        <v>0</v>
+      </c>
+      <c r="P42" s="34">
+        <v>11</v>
+      </c>
+      <c r="R42" s="74">
+        <v>0</v>
+      </c>
+      <c r="S42" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="74">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="M43" s="34">
+        <v>15</v>
+      </c>
+      <c r="O43" s="74">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="P43" s="34">
+        <v>12</v>
+      </c>
+      <c r="R43" s="74">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="S43" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="74">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="M44" s="34">
+        <v>16</v>
+      </c>
+      <c r="O44" s="74">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="P44" s="34">
+        <v>12</v>
+      </c>
+      <c r="R44" s="74">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="S44" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="74">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="M45" s="34">
+        <v>16</v>
+      </c>
+      <c r="O45" s="74">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="P45" s="34">
+        <v>13</v>
+      </c>
+      <c r="R45" s="74">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="S45" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="74">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="M46" s="34">
+        <v>14</v>
+      </c>
+      <c r="O46" s="74">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="P46" s="34">
+        <v>13</v>
+      </c>
+      <c r="R46" s="74">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="S46" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="102" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="107"/>
+      <c r="L47" s="74">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="M47" s="34">
+        <v>16</v>
+      </c>
+      <c r="O47" s="74">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="P47" s="34">
+        <v>13</v>
+      </c>
+      <c r="R47" s="74">
+        <v>1.736111111111111E-3</v>
+      </c>
+      <c r="S47" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="59">
+        <v>0.95</v>
+      </c>
+      <c r="I48" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="75">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="M48" s="35">
+        <v>14</v>
+      </c>
+      <c r="O48" s="75">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P48" s="35">
+        <v>12</v>
+      </c>
+      <c r="R48" s="75">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="S48" s="35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="43">
+        <v>5</v>
+      </c>
+      <c r="E49" s="44">
+        <v>4484</v>
+      </c>
+      <c r="F49" s="44">
+        <v>67</v>
+      </c>
+      <c r="G49" s="110">
+        <v>24</v>
+      </c>
+      <c r="H49" s="62">
+        <v>81</v>
+      </c>
+      <c r="I49" s="53"/>
+      <c r="L49" s="74">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="M49" s="34">
+        <v>15</v>
+      </c>
+      <c r="O49" s="74">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="P49" s="34">
+        <v>12</v>
+      </c>
+      <c r="R49" s="74">
+        <v>2.4305555555555599E-3</v>
+      </c>
+      <c r="S49" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="43">
+        <v>5</v>
+      </c>
+      <c r="E50" s="44">
+        <v>3571</v>
+      </c>
+      <c r="F50" s="44">
+        <v>84</v>
+      </c>
+      <c r="G50" s="44">
+        <v>27</v>
+      </c>
+      <c r="H50" s="62">
+        <v>130</v>
+      </c>
+      <c r="I50" s="53"/>
+      <c r="L50" s="74">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="M50" s="34">
+        <v>16</v>
+      </c>
+      <c r="O50" s="74">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="P50" s="34">
+        <v>12</v>
+      </c>
+      <c r="R50" s="74">
+        <v>2.7777777777777801E-3</v>
+      </c>
+      <c r="S50" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="47">
+        <v>5</v>
+      </c>
+      <c r="E51" s="48">
+        <v>2655</v>
+      </c>
+      <c r="F51" s="48">
+        <v>113</v>
+      </c>
+      <c r="G51" s="48">
+        <v>33</v>
+      </c>
+      <c r="H51" s="66">
+        <v>163</v>
+      </c>
+      <c r="I51" s="67"/>
+      <c r="L51" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="M51" s="34">
+        <v>16</v>
+      </c>
+      <c r="O51" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="P51" s="34">
+        <v>13</v>
+      </c>
+      <c r="R51" s="74">
+        <v>3.1250000000000002E-3</v>
+      </c>
+      <c r="S51" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="75">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="M52" s="35">
+        <v>15</v>
+      </c>
+      <c r="O52" s="85">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="P52" s="11">
+        <v>13</v>
+      </c>
+      <c r="R52" s="85">
+        <v>3.4722222222222199E-3</v>
+      </c>
+      <c r="S52" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="C47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751A5E1-FE34-E148-85FB-B54DE0DA27DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B498C-1B30-BD43-B99B-B09BFAB6415C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="81">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -370,6 +370,15 @@
   <si>
     <t>Search Homomorphic Encryption</t>
   </si>
+  <si>
+    <t>0.2MB</t>
+  </si>
+  <si>
+    <t>0.49MB</t>
+  </si>
+  <si>
+    <t>0.27MB</t>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1096,11 +1105,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1265,9 +1300,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1288,7 +1320,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1306,10 +1344,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1341,7 +1379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2985,37 +3032,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,31 +3162,31 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,13 +3280,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
@@ -3248,19 +3295,19 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>9</c:v>
@@ -16204,23 +16251,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16581,17 +16628,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -16623,7 +16670,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="91">
+      <c r="B13" s="98">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -16652,7 +16699,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="92"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -16679,7 +16726,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -16706,7 +16753,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -16733,7 +16780,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="91">
+      <c r="B17" s="98">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -16762,7 +16809,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="92"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -16789,7 +16836,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="92"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -16816,7 +16863,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -16843,7 +16890,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="91">
+      <c r="B21" s="98">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -16872,7 +16919,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="92"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -16899,7 +16946,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="92"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -16926,7 +16973,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -16953,7 +17000,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="91">
+      <c r="B25" s="98">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -16982,7 +17029,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="92"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -17009,7 +17056,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="92"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -17036,7 +17083,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -17063,7 +17110,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="91">
+      <c r="B29" s="98">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -17092,7 +17139,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="92"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -17119,7 +17166,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="92"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -17146,7 +17193,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -17173,7 +17220,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -17209,7 +17256,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="92"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -17243,7 +17290,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="92"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -17277,7 +17324,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="93"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -17313,17 +17360,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -17355,7 +17402,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="91">
+      <c r="B41" s="98">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -17384,7 +17431,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="92"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -17411,7 +17458,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="92"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -17438,7 +17485,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -17465,7 +17512,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="91">
+      <c r="B45" s="98">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -17494,7 +17541,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="92"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -17521,7 +17568,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="92"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -17548,7 +17595,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="97"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -17575,7 +17622,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="91">
+      <c r="B49" s="98">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -17604,7 +17651,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="92"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -17631,7 +17678,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="92"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -17658,7 +17705,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="97"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -17685,7 +17732,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="91">
+      <c r="B53" s="98">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -17714,7 +17761,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="92"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -17741,7 +17788,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="92"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -17768,7 +17815,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="97"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -17795,7 +17842,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="91">
+      <c r="B57" s="98">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -17824,7 +17871,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="92"/>
+      <c r="B58" s="93"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -17851,7 +17898,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="92"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -17878,7 +17925,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="93"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -17905,7 +17952,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -17941,7 +17988,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="92"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -17975,7 +18022,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="92"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -18009,7 +18056,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="93"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -18044,17 +18091,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="97"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -18086,7 +18133,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="91">
+      <c r="B68" s="98">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -18115,7 +18162,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="92"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -18142,7 +18189,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="92"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -18169,7 +18216,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="97"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -18196,7 +18243,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="91">
+      <c r="B72" s="98">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -18225,7 +18272,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="92"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -18252,7 +18299,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="92"/>
+      <c r="B74" s="93"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -18279,7 +18326,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="97"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -18306,7 +18353,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="91">
+      <c r="B76" s="98">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -18335,7 +18382,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="92"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -18362,7 +18409,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="92"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -18389,7 +18436,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="97"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -18416,7 +18463,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="91">
+      <c r="B80" s="98">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -18445,7 +18492,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="92"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -18472,7 +18519,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="92"/>
+      <c r="B82" s="93"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -18499,7 +18546,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="97"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -18526,7 +18573,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="91">
+      <c r="B84" s="98">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -18555,7 +18602,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="92"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -18582,7 +18629,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="92"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -18609,7 +18656,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="93"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -18636,7 +18683,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="98" t="s">
+      <c r="B88" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -18672,7 +18719,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="92"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -18706,7 +18753,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="92"/>
+      <c r="B90" s="93"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -18740,7 +18787,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="93"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -18776,6 +18823,12 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -18791,12 +18844,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18866,17 +18913,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -18908,7 +18955,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="91">
+      <c r="B13" s="98">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -18937,7 +18984,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="92"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -18964,7 +19011,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="92"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -18991,7 +19038,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="97"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -19018,7 +19065,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="91">
+      <c r="B17" s="98">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -19047,7 +19094,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="92"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -19074,7 +19121,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="92"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -19101,7 +19148,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -19128,7 +19175,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="91">
+      <c r="B21" s="98">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -19157,7 +19204,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="92"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -19184,7 +19231,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="92"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -19211,7 +19258,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -19238,7 +19285,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="91">
+      <c r="B25" s="98">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -19267,7 +19314,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="92"/>
+      <c r="B26" s="93"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -19294,7 +19341,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="92"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -19321,7 +19368,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -19348,7 +19395,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="91">
+      <c r="B29" s="98">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -19377,7 +19424,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="92"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -19404,7 +19451,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="92"/>
+      <c r="B31" s="93"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -19431,7 +19478,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="93"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -19458,7 +19505,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -19494,7 +19541,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
+      <c r="B34" s="93"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -19528,7 +19575,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="92"/>
+      <c r="B35" s="93"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -19562,7 +19609,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="93"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -19598,17 +19645,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="95"/>
-      <c r="J39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="97"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -19640,7 +19687,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="91">
+      <c r="B41" s="98">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -19669,7 +19716,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="92"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -19696,7 +19743,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="92"/>
+      <c r="B43" s="93"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -19723,7 +19770,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="97"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -19750,7 +19797,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="91">
+      <c r="B45" s="98">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -19779,7 +19826,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="92"/>
+      <c r="B46" s="93"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -19806,7 +19853,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="92"/>
+      <c r="B47" s="93"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -19833,7 +19880,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="97"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -19860,7 +19907,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="91">
+      <c r="B49" s="98">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -19889,7 +19936,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="92"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -19916,7 +19963,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="92"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -19943,7 +19990,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="97"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -19970,7 +20017,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="91">
+      <c r="B53" s="98">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -19999,7 +20046,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="92"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -20026,7 +20073,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="92"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -20053,7 +20100,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="97"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -20080,7 +20127,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="91">
+      <c r="B57" s="98">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -20109,7 +20156,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="92"/>
+      <c r="B58" s="93"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -20136,7 +20183,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="92"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -20163,7 +20210,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="93"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -20190,7 +20237,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="98" t="s">
+      <c r="B61" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -20226,7 +20273,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="92"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -20260,7 +20307,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="92"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -20294,7 +20341,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="93"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -20329,17 +20376,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="94" t="s">
+      <c r="B66" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="96"/>
+      <c r="J66" s="97"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -20371,7 +20418,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="91">
+      <c r="B68" s="98">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -20400,7 +20447,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="92"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -20427,7 +20474,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="92"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -20454,7 +20501,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="97"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -20481,7 +20528,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="91">
+      <c r="B72" s="98">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -20510,7 +20557,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="92"/>
+      <c r="B73" s="93"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -20537,7 +20584,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="92"/>
+      <c r="B74" s="93"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -20564,7 +20611,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="97"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -20591,7 +20638,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="91">
+      <c r="B76" s="98">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -20620,7 +20667,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="92"/>
+      <c r="B77" s="93"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -20647,7 +20694,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="92"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -20674,7 +20721,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="97"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -20701,7 +20748,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="91">
+      <c r="B80" s="98">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -20730,7 +20777,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="92"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -20757,7 +20804,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="92"/>
+      <c r="B82" s="93"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -20784,7 +20831,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="97"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -20811,7 +20858,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="91">
+      <c r="B84" s="98">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -20840,7 +20887,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="92"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -20867,7 +20914,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="92"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -20894,7 +20941,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="93"/>
+      <c r="B87" s="94"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -20921,7 +20968,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="98" t="s">
+      <c r="B88" s="92" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -20957,7 +21004,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="92"/>
+      <c r="B89" s="93"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -20991,7 +21038,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="92"/>
+      <c r="B90" s="93"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -21025,7 +21072,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="93"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -21061,15 +21108,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -21082,6 +21120,15 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21114,14 +21161,14 @@
     <row r="1" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F2" s="55"/>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="104"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="105"/>
     </row>
     <row r="3" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56"/>
@@ -21281,27 +21328,27 @@
     <row r="14" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="36"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
     </row>
     <row r="16" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F16" s="36"/>
-      <c r="G16" s="99" t="s">
+      <c r="G16" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="100"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102" t="s">
+      <c r="H16" s="101"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
     </row>
     <row r="17" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F17" s="36"/>
@@ -21516,15 +21563,15 @@
   <sheetData>
     <row r="5" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
     </row>
     <row r="7" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E7" s="71" t="s">
@@ -21548,14 +21595,14 @@
       <c r="K7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="108" t="s">
+      <c r="O7" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="109"/>
-      <c r="AB7" s="108" t="s">
+      <c r="P7" s="110"/>
+      <c r="AB7" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="109"/>
+      <c r="AC7" s="110"/>
     </row>
     <row r="8" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
@@ -21602,38 +21649,38 @@
       <c r="K9" s="53">
         <v>2.0348259999999998</v>
       </c>
-      <c r="O9" s="94" t="s">
+      <c r="O9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="96"/>
-      <c r="R9" s="94" t="s">
+      <c r="P9" s="97"/>
+      <c r="R9" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="96"/>
-      <c r="U9" s="94" t="s">
+      <c r="S9" s="97"/>
+      <c r="U9" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="V9" s="96"/>
-      <c r="X9" s="94" t="s">
+      <c r="V9" s="97"/>
+      <c r="X9" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="Y9" s="96"/>
-      <c r="AB9" s="94" t="s">
+      <c r="Y9" s="97"/>
+      <c r="AB9" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="96"/>
-      <c r="AE9" s="94" t="s">
+      <c r="AC9" s="97"/>
+      <c r="AE9" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="AF9" s="96"/>
-      <c r="AH9" s="94" t="s">
+      <c r="AF9" s="97"/>
+      <c r="AH9" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" s="96"/>
-      <c r="AK9" s="94" t="s">
+      <c r="AI9" s="97"/>
+      <c r="AK9" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="AL9" s="96"/>
+      <c r="AL9" s="97"/>
     </row>
     <row r="10" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E10" s="63" t="s">
@@ -22123,15 +22170,15 @@
       </c>
     </row>
     <row r="17" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="106"/>
-      <c r="K17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
       <c r="O17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -22882,15 +22929,15 @@
       </c>
     </row>
     <row r="28" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
       <c r="O28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
@@ -23304,15 +23351,15 @@
     </row>
     <row r="38" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="108"/>
     </row>
     <row r="40" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E40" s="71" t="s">
@@ -23534,15 +23581,15 @@
     </row>
     <row r="49" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="108"/>
     </row>
     <row r="51" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E51" s="71" t="s">
@@ -23674,7 +23721,7 @@
       <c r="I58" s="77"/>
       <c r="J58" s="77"/>
       <c r="K58" s="77"/>
-      <c r="P58" s="81"/>
+      <c r="P58" s="80"/>
     </row>
     <row r="59" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E59" s="77"/>
@@ -23684,7 +23731,7 @@
       <c r="I59" s="77"/>
       <c r="J59" s="77"/>
       <c r="K59" s="77"/>
-      <c r="P59" s="81"/>
+      <c r="P59" s="80"/>
     </row>
     <row r="60" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E60" s="77"/>
@@ -23706,21 +23753,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="E39:K39"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="X9:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23731,8 +23778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED086EA8-21A2-AA4E-8784-EC5D248DD200}">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23750,27 +23797,27 @@
   <sheetData>
     <row r="3" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="103" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
-      <c r="K4" s="94" t="s">
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="108"/>
+      <c r="K4" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="N4" s="94" t="s">
+      <c r="L4" s="97"/>
+      <c r="N4" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="96"/>
-      <c r="Q4" s="94" t="s">
+      <c r="O4" s="97"/>
+      <c r="Q4" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="R4" s="96"/>
+      <c r="R4" s="97"/>
     </row>
     <row r="5" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="42" t="s">
@@ -23794,22 +23841,22 @@
       <c r="I5" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="89" t="s">
+      <c r="K5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="90" t="s">
+      <c r="L5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="89" t="s">
+      <c r="N5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="90" t="s">
+      <c r="O5" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="89" t="s">
+      <c r="Q5" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="R5" s="90" t="s">
+      <c r="R5" s="89" t="s">
         <v>26</v>
       </c>
     </row>
@@ -23896,7 +23943,7 @@
       </c>
     </row>
     <row r="8" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>74</v>
       </c>
       <c r="D8" s="47">
@@ -23938,12 +23985,12 @@
     </row>
     <row r="9" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="76"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
       <c r="K9" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
@@ -23965,12 +24012,12 @@
     </row>
     <row r="10" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="77"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
       <c r="K10" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
@@ -23992,12 +24039,12 @@
     </row>
     <row r="11" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="77"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
       <c r="K11" s="74">
         <v>1.736111111111111E-3</v>
       </c>
@@ -24072,13 +24119,13 @@
       </c>
     </row>
     <row r="14" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="K14" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
@@ -24125,13 +24172,13 @@
       <c r="L16" s="35">
         <v>23</v>
       </c>
-      <c r="N16" s="85">
+      <c r="N16" s="84">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="O16" s="11">
         <v>16</v>
       </c>
-      <c r="Q16" s="85">
+      <c r="Q16" s="84">
         <v>3.4722222222222199E-3</v>
       </c>
       <c r="R16" s="11">
@@ -24139,117 +24186,117 @@
       </c>
     </row>
     <row r="17" spans="11:18" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="K17" s="88"/>
-      <c r="L17" s="81"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="87"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="80"/>
+      <c r="N17" s="85"/>
+      <c r="O17" s="86"/>
+      <c r="Q17" s="85"/>
+      <c r="R17" s="86"/>
     </row>
     <row r="18" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K18" s="88"/>
-      <c r="L18" s="81"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="81"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="81"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="80"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="80"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="80"/>
     </row>
     <row r="19" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K19" s="88"/>
-      <c r="L19" s="81"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="81"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="81"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="80"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="80"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="80"/>
     </row>
     <row r="20" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K20" s="88"/>
-      <c r="L20" s="81"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="81"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="81"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="80"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="80"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="80"/>
     </row>
     <row r="21" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K21" s="88"/>
-      <c r="L21" s="81"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="81"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="81"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="80"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="80"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="80"/>
     </row>
     <row r="22" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K22" s="88"/>
-      <c r="L22" s="81"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="81"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="81"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="80"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="80"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="80"/>
     </row>
     <row r="23" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K23" s="88"/>
-      <c r="L23" s="81"/>
-      <c r="N23" s="88"/>
-      <c r="O23" s="81"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="81"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="80"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="80"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="80"/>
     </row>
     <row r="24" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K24" s="88"/>
-      <c r="L24" s="81"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="81"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="81"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="80"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="80"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="80"/>
     </row>
     <row r="25" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K25" s="88"/>
-      <c r="L25" s="81"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="81"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="81"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="80"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="80"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="80"/>
     </row>
     <row r="26" spans="11:18" x14ac:dyDescent="0.2">
-      <c r="K26" s="88"/>
-      <c r="L26" s="81"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="81"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="81"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="80"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="80"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="80"/>
     </row>
     <row r="39" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="94" t="s">
+      <c r="L40" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="M40" s="96"/>
-      <c r="O40" s="94" t="s">
+      <c r="M40" s="97"/>
+      <c r="O40" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="P40" s="96"/>
-      <c r="R40" s="94" t="s">
+      <c r="P40" s="97"/>
+      <c r="R40" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="S40" s="96"/>
+      <c r="S40" s="97"/>
     </row>
     <row r="41" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L41" s="89" t="s">
+      <c r="L41" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="M41" s="90" t="s">
+      <c r="M41" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="89" t="s">
+      <c r="O41" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="P41" s="90" t="s">
+      <c r="P41" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="R41" s="89" t="s">
+      <c r="R41" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="S41" s="90" t="s">
+      <c r="S41" s="89" t="s">
         <v>26</v>
       </c>
     </row>
@@ -24258,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O42" s="74">
         <v>0</v>
@@ -24270,7 +24317,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="34">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24278,7 +24325,7 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="M43" s="34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" s="74">
         <v>3.4722222222222224E-4</v>
@@ -24298,19 +24345,19 @@
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="M44" s="34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O44" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="P44" s="34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R44" s="74">
         <v>6.9444444444444447E-4</v>
       </c>
       <c r="S44" s="34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -24318,13 +24365,13 @@
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="M45" s="34">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O45" s="74">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="P45" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R45" s="74">
         <v>1.0416666666666667E-3</v>
@@ -24338,13 +24385,13 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="M46" s="34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="O46" s="74">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="P46" s="34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R46" s="74">
         <v>1.3888888888888889E-3</v>
@@ -24354,32 +24401,32 @@
       </c>
     </row>
     <row r="47" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="108"/>
       <c r="L47" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="M47" s="34">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O47" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="P47" s="34">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R47" s="74">
         <v>1.736111111111111E-3</v>
       </c>
       <c r="S47" s="34">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -24389,13 +24436,13 @@
       <c r="D48" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="80" t="s">
+      <c r="F48" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="80" t="s">
+      <c r="G48" s="90" t="s">
         <v>42</v>
       </c>
       <c r="H48" s="59">
@@ -24408,19 +24455,19 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="M48" s="35">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O48" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="P48" s="35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R48" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="S48" s="35">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -24431,29 +24478,31 @@
         <v>5</v>
       </c>
       <c r="E49" s="44">
-        <v>4484</v>
+        <v>5718</v>
       </c>
       <c r="F49" s="44">
-        <v>67</v>
-      </c>
-      <c r="G49" s="110">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="G49" s="91">
+        <v>20</v>
       </c>
       <c r="H49" s="62">
-        <v>81</v>
-      </c>
-      <c r="I49" s="53"/>
+        <v>68</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>78</v>
+      </c>
       <c r="L49" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="M49" s="34">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="O49" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
       <c r="P49" s="34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R49" s="74">
         <v>2.4305555555555599E-3</v>
@@ -24470,99 +24519,104 @@
         <v>5</v>
       </c>
       <c r="E50" s="44">
-        <v>3571</v>
+        <v>4238</v>
       </c>
       <c r="F50" s="44">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="G50" s="44">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H50" s="62">
-        <v>130</v>
-      </c>
-      <c r="I50" s="53"/>
+        <v>117</v>
+      </c>
+      <c r="I50" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="L50" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="M50" s="34">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O50" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="P50" s="34">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R50" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
       <c r="S50" s="34">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="82" t="s">
+      <c r="C51" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="111">
         <v>5</v>
       </c>
-      <c r="E51" s="48">
-        <v>2655</v>
-      </c>
-      <c r="F51" s="48">
-        <v>113</v>
-      </c>
-      <c r="G51" s="48">
-        <v>33</v>
-      </c>
-      <c r="H51" s="66">
-        <v>163</v>
-      </c>
-      <c r="I51" s="67"/>
+      <c r="E51" s="112">
+        <v>3016</v>
+      </c>
+      <c r="F51" s="112">
+        <v>99</v>
+      </c>
+      <c r="G51" s="112">
+        <v>30</v>
+      </c>
+      <c r="H51" s="113">
+        <v>150</v>
+      </c>
+      <c r="I51" s="114" t="s">
+        <v>80</v>
+      </c>
       <c r="L51" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="M51" s="34">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O51" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="P51" s="34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R51" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S51" s="34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L52" s="75">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="M52" s="35">
-        <v>15</v>
-      </c>
-      <c r="O52" s="85">
+        <v>22</v>
+      </c>
+      <c r="O52" s="75">
         <v>3.4722222222222199E-3</v>
       </c>
-      <c r="P52" s="11">
-        <v>13</v>
-      </c>
-      <c r="R52" s="85">
+      <c r="P52" s="35">
+        <v>14</v>
+      </c>
+      <c r="R52" s="75">
         <v>3.4722222222222199E-3</v>
       </c>
-      <c r="S52" s="11">
+      <c r="S52" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="3:19" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C47:I47"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="R40:S40"/>
@@ -24570,7 +24624,6 @@
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="C47:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996B668A-437E-0843-B0C2-EE2AC6F7B23C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F4DFD5-211D-5943-9F05-684143219709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="5" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="82">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -225,12 +225,6 @@
     <t>Redis Container</t>
   </si>
   <si>
-    <t>Without SGX</t>
-  </si>
-  <si>
-    <t>With SGX</t>
-  </si>
-  <si>
     <t>Redis Proxy</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
   </si>
   <si>
     <t>1st Run</t>
-  </si>
-  <si>
-    <t>Losses</t>
   </si>
   <si>
     <t>Attestation - Service Startup Times (s)</t>
@@ -380,6 +371,18 @@
   <si>
     <t>0.27MB</t>
   </si>
+  <si>
+    <t>No SGX</t>
+  </si>
+  <si>
+    <t>SGX No Attestation</t>
+  </si>
+  <si>
+    <t>SGX with Attestation</t>
+  </si>
+  <si>
+    <t>Aprox. Attestation Time</t>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +438,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1229,11 +1232,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1436,58 +1448,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1550,18 +1512,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1584,6 +1534,59 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1591,6 +1594,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19450,23 +19480,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19827,17 +19857,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -19869,7 +19899,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="96">
+      <c r="B13" s="132">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -19898,7 +19928,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="97"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -19925,7 +19955,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="97"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -19952,7 +19982,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -19979,7 +20009,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="96">
+      <c r="B17" s="132">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -20008,7 +20038,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="97"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -20035,7 +20065,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="97"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -20062,7 +20092,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -20089,7 +20119,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="96">
+      <c r="B21" s="132">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -20118,7 +20148,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="97"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -20145,7 +20175,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="97"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -20172,7 +20202,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -20199,7 +20229,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="96">
+      <c r="B25" s="132">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -20228,7 +20258,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="97"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -20255,7 +20285,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="97"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -20282,7 +20312,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -20309,7 +20339,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="96">
+      <c r="B29" s="132">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -20338,7 +20368,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="97"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -20365,7 +20395,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="97"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -20392,7 +20422,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="98"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -20419,7 +20449,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -20455,7 +20485,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="97"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -20489,7 +20519,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="97"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -20523,7 +20553,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -20559,17 +20589,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -20601,7 +20631,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="96">
+      <c r="B41" s="132">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -20630,7 +20660,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="97"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -20657,7 +20687,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="97"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -20684,7 +20714,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="102"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -20711,7 +20741,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="96">
+      <c r="B45" s="132">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -20740,7 +20770,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="97"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -20767,7 +20797,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="97"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -20794,7 +20824,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="102"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -20821,7 +20851,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="96">
+      <c r="B49" s="132">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -20850,7 +20880,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="97"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -20877,7 +20907,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="97"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -20904,7 +20934,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="102"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -20931,7 +20961,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="96">
+      <c r="B53" s="132">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -20960,7 +20990,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="97"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -20987,7 +21017,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="97"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -21014,7 +21044,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="102"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -21041,7 +21071,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="96">
+      <c r="B57" s="132">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -21070,7 +21100,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="97"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -21097,7 +21127,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="97"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -21124,7 +21154,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="98"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -21151,7 +21181,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -21187,7 +21217,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="97"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -21221,7 +21251,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="97"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -21255,7 +21285,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="98"/>
+      <c r="B64" s="128"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -21290,17 +21320,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="99" t="s">
+      <c r="B66" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="101"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="131"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -21332,7 +21362,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="96">
+      <c r="B68" s="132">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -21361,7 +21391,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="97"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -21388,7 +21418,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="97"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -21415,7 +21445,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="102"/>
+      <c r="B71" s="133"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -21442,7 +21472,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="96">
+      <c r="B72" s="132">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -21471,7 +21501,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="97"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -21498,7 +21528,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="97"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -21525,7 +21555,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="102"/>
+      <c r="B75" s="133"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -21552,7 +21582,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="96">
+      <c r="B76" s="132">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -21581,7 +21611,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="97"/>
+      <c r="B77" s="127"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -21608,7 +21638,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="97"/>
+      <c r="B78" s="127"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -21635,7 +21665,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="102"/>
+      <c r="B79" s="133"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -21662,7 +21692,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="96">
+      <c r="B80" s="132">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -21691,7 +21721,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="97"/>
+      <c r="B81" s="127"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -21718,7 +21748,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="97"/>
+      <c r="B82" s="127"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -21745,7 +21775,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="102"/>
+      <c r="B83" s="133"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -21772,7 +21802,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="96">
+      <c r="B84" s="132">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -21801,7 +21831,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="97"/>
+      <c r="B85" s="127"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -21828,7 +21858,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="97"/>
+      <c r="B86" s="127"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -21855,7 +21885,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="98"/>
+      <c r="B87" s="128"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -21882,7 +21912,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -21918,7 +21948,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="97"/>
+      <c r="B89" s="127"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -21952,7 +21982,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="97"/>
+      <c r="B90" s="127"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -21986,7 +22016,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="98"/>
+      <c r="B91" s="128"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -22022,6 +22052,12 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -22037,12 +22073,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22112,17 +22142,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -22154,7 +22184,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="96">
+      <c r="B13" s="132">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -22183,7 +22213,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="97"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -22210,7 +22240,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="97"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -22237,7 +22267,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -22264,7 +22294,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="96">
+      <c r="B17" s="132">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -22293,7 +22323,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="97"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -22320,7 +22350,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="97"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -22347,7 +22377,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -22374,7 +22404,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="96">
+      <c r="B21" s="132">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -22403,7 +22433,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="97"/>
+      <c r="B22" s="127"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -22430,7 +22460,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="97"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -22457,7 +22487,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="102"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -22484,7 +22514,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="96">
+      <c r="B25" s="132">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -22513,7 +22543,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="97"/>
+      <c r="B26" s="127"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -22540,7 +22570,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="97"/>
+      <c r="B27" s="127"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -22567,7 +22597,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="102"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -22594,7 +22624,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="96">
+      <c r="B29" s="132">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -22623,7 +22653,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="97"/>
+      <c r="B30" s="127"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -22650,7 +22680,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="97"/>
+      <c r="B31" s="127"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -22677,7 +22707,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="98"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -22704,7 +22734,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="103" t="s">
+      <c r="B33" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -22740,7 +22770,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
+      <c r="B34" s="127"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -22774,7 +22804,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="97"/>
+      <c r="B35" s="127"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -22808,7 +22838,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="98"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -22844,17 +22874,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="129" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="101"/>
+      <c r="C39" s="130"/>
+      <c r="D39" s="130"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -22886,7 +22916,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="96">
+      <c r="B41" s="132">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -22915,7 +22945,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="97"/>
+      <c r="B42" s="127"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -22942,7 +22972,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="97"/>
+      <c r="B43" s="127"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -22969,7 +22999,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="102"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -22996,7 +23026,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="96">
+      <c r="B45" s="132">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -23025,7 +23055,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="97"/>
+      <c r="B46" s="127"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -23052,7 +23082,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="97"/>
+      <c r="B47" s="127"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -23079,7 +23109,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="102"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -23106,7 +23136,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="96">
+      <c r="B49" s="132">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -23135,7 +23165,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="97"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -23162,7 +23192,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="97"/>
+      <c r="B51" s="127"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -23189,7 +23219,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="102"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -23216,7 +23246,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="96">
+      <c r="B53" s="132">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -23245,7 +23275,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="97"/>
+      <c r="B54" s="127"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -23272,7 +23302,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="97"/>
+      <c r="B55" s="127"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -23299,7 +23329,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="102"/>
+      <c r="B56" s="133"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -23326,7 +23356,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="96">
+      <c r="B57" s="132">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -23355,7 +23385,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="97"/>
+      <c r="B58" s="127"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -23382,7 +23412,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="97"/>
+      <c r="B59" s="127"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -23409,7 +23439,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="98"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -23436,7 +23466,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="103" t="s">
+      <c r="B61" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -23472,7 +23502,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="97"/>
+      <c r="B62" s="127"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -23506,7 +23536,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="97"/>
+      <c r="B63" s="127"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -23540,7 +23570,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="98"/>
+      <c r="B64" s="128"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -23575,17 +23605,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="99" t="s">
+      <c r="B66" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="100"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="100"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="101"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="131"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -23617,7 +23647,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="96">
+      <c r="B68" s="132">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -23646,7 +23676,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="97"/>
+      <c r="B69" s="127"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -23673,7 +23703,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="97"/>
+      <c r="B70" s="127"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -23700,7 +23730,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="102"/>
+      <c r="B71" s="133"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -23727,7 +23757,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="96">
+      <c r="B72" s="132">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -23756,7 +23786,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="97"/>
+      <c r="B73" s="127"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -23783,7 +23813,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="97"/>
+      <c r="B74" s="127"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -23810,7 +23840,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="102"/>
+      <c r="B75" s="133"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -23837,7 +23867,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="96">
+      <c r="B76" s="132">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -23866,7 +23896,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="97"/>
+      <c r="B77" s="127"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -23893,7 +23923,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="97"/>
+      <c r="B78" s="127"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -23920,7 +23950,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="102"/>
+      <c r="B79" s="133"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -23947,7 +23977,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="96">
+      <c r="B80" s="132">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -23976,7 +24006,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="97"/>
+      <c r="B81" s="127"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -24003,7 +24033,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="97"/>
+      <c r="B82" s="127"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -24030,7 +24060,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="102"/>
+      <c r="B83" s="133"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -24057,7 +24087,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="96">
+      <c r="B84" s="132">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -24086,7 +24116,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="97"/>
+      <c r="B85" s="127"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -24113,7 +24143,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="97"/>
+      <c r="B86" s="127"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -24140,7 +24170,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="98"/>
+      <c r="B87" s="128"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -24167,7 +24197,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="126" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -24203,7 +24233,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="97"/>
+      <c r="B89" s="127"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -24237,7 +24267,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="97"/>
+      <c r="B90" s="127"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -24271,7 +24301,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="98"/>
+      <c r="B91" s="128"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -24307,15 +24337,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -24328,6 +24349,15 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24336,10 +24366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074A9C4C-98EA-374F-B3FE-F455AC9FA99B}">
-  <dimension ref="F1:L24"/>
+  <dimension ref="F1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:L6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24350,116 +24380,129 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F2" s="55"/>
-      <c r="G2" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="109"/>
-    </row>
-    <row r="3" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="139"/>
+    </row>
+    <row r="3" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56"/>
       <c r="G3" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="96"/>
+      <c r="I3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="L3" s="96"/>
+      <c r="M3" s="59">
+        <v>0.99</v>
+      </c>
+      <c r="N3" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="59">
-        <v>0.99</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F4" s="61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G4" s="43">
         <v>10</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="43"/>
+      <c r="I4" s="44">
         <v>1491</v>
       </c>
-      <c r="I4" s="44">
+      <c r="J4" s="44">
         <v>402</v>
       </c>
-      <c r="J4" s="44">
+      <c r="K4" s="44">
         <v>188</v>
       </c>
-      <c r="K4" s="62">
+      <c r="L4" s="62"/>
+      <c r="M4" s="62">
         <v>549</v>
       </c>
-      <c r="L4" s="53">
+      <c r="N4" s="53">
         <v>2.4809999999999999</v>
       </c>
     </row>
-    <row r="5" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="6:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F5" s="63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="45">
         <v>10</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45"/>
+      <c r="I5" s="46">
         <v>1492</v>
       </c>
-      <c r="I5" s="46">
+      <c r="J5" s="46">
         <v>401</v>
       </c>
-      <c r="J5" s="46">
+      <c r="K5" s="46">
         <v>179</v>
       </c>
-      <c r="K5" s="64">
+      <c r="L5" s="64"/>
+      <c r="M5" s="64">
         <v>550</v>
       </c>
-      <c r="L5" s="54">
+      <c r="N5" s="54">
         <v>2.4830000000000001</v>
       </c>
     </row>
-    <row r="6" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="63" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="47">
         <v>10</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="47"/>
+      <c r="I6" s="48">
         <v>1494</v>
       </c>
-      <c r="I6" s="48">
+      <c r="J6" s="48">
         <v>401</v>
       </c>
-      <c r="J6" s="48">
+      <c r="K6" s="48">
         <v>164</v>
       </c>
-      <c r="K6" s="66">
+      <c r="L6" s="66"/>
+      <c r="M6" s="66">
         <v>546</v>
       </c>
-      <c r="L6" s="67">
+      <c r="N6" s="67">
         <v>2.4860000000000002</v>
       </c>
     </row>
-    <row r="7" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="65" t="s">
         <v>18</v>
       </c>
@@ -24467,235 +24510,284 @@
         <f>AVERAGE(G4:G6)</f>
         <v>10</v>
       </c>
-      <c r="H7" s="69">
-        <f t="shared" ref="H7:L7" si="0">AVERAGE(H4:H6)</f>
+      <c r="H7" s="153"/>
+      <c r="I7" s="69">
+        <f t="shared" ref="I7:N7" si="0">AVERAGE(I4:I6)</f>
         <v>1492.3333333333333</v>
       </c>
-      <c r="I7" s="69">
+      <c r="J7" s="69">
         <f t="shared" si="0"/>
         <v>401.33333333333331</v>
       </c>
-      <c r="J7" s="69">
+      <c r="K7" s="69">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="K7" s="69">
+      <c r="L7" s="69"/>
+      <c r="M7" s="69">
         <f t="shared" si="0"/>
         <v>548.33333333333337</v>
       </c>
-      <c r="L7" s="70">
+      <c r="N7" s="70">
         <f t="shared" si="0"/>
         <v>2.4833333333333338</v>
       </c>
     </row>
-    <row r="8" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="6:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
-    </row>
-    <row r="11" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="38"/>
+    </row>
+    <row r="11" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38"/>
       <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="38"/>
+    </row>
+    <row r="12" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
-    </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="6:14" x14ac:dyDescent="0.2">
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="6:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="6:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="36"/>
-      <c r="G15" s="107" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="109"/>
-    </row>
-    <row r="16" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="140"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="139"/>
+    </row>
+    <row r="16" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F16" s="36"/>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="105"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="108"/>
-      <c r="L16" s="109"/>
-    </row>
-    <row r="17" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="140"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="139"/>
+    </row>
+    <row r="17" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F17" s="36"/>
       <c r="G17" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>29</v>
+        <v>78</v>
+      </c>
+      <c r="H17" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>81</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="49" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L17" s="152" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="152"/>
+    </row>
+    <row r="18" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F18" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" s="43">
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="154">
+        <v>0.28539999999999999</v>
+      </c>
+      <c r="I18" s="44">
         <v>1.7849999999999999</v>
       </c>
-      <c r="I18" s="44">
-        <f>H18-G18</f>
-        <v>1.7743</v>
-      </c>
       <c r="J18" s="44">
+        <f>I18-H18</f>
+        <v>1.4996</v>
+      </c>
+      <c r="K18" s="44">
         <v>3.0228000000000002</v>
       </c>
-      <c r="K18" s="44">
+      <c r="L18" s="44">
+        <v>66.290700000000001</v>
+      </c>
+      <c r="M18" s="44">
         <v>68.592399999999998</v>
       </c>
-      <c r="L18" s="44">
-        <f>K18-J18</f>
-        <v>65.569599999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N18" s="44">
+        <f>M18-L18</f>
+        <v>2.3016999999999967</v>
+      </c>
+    </row>
+    <row r="19" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G19" s="45">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="155">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="I19" s="46">
         <v>1.5032000000000001</v>
       </c>
-      <c r="I19" s="44">
-        <f t="shared" ref="I19:I23" si="1">H19-G19</f>
-        <v>1.4939</v>
-      </c>
-      <c r="J19" s="46">
+      <c r="J19" s="44">
+        <f t="shared" ref="J19:J23" si="1">I19-H19</f>
+        <v>1.1658000000000002</v>
+      </c>
+      <c r="K19" s="46">
         <v>3.2038000000000002</v>
       </c>
-      <c r="K19" s="46">
+      <c r="L19" s="46">
+        <v>64.498699999999999</v>
+      </c>
+      <c r="M19" s="46">
         <v>71.489400000000003</v>
       </c>
-      <c r="L19" s="44">
-        <f t="shared" ref="L19:L23" si="2">K19-J19</f>
-        <v>68.285600000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N19" s="44">
+        <f t="shared" ref="N19:N22" si="2">M19-L19</f>
+        <v>6.9907000000000039</v>
+      </c>
+    </row>
+    <row r="20" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F20" s="40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="45">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="155">
+        <v>0.29930000000000001</v>
+      </c>
+      <c r="I20" s="46">
         <v>1.5134000000000001</v>
       </c>
-      <c r="I20" s="44">
+      <c r="J20" s="44">
         <f t="shared" si="1"/>
-        <v>1.5039</v>
-      </c>
-      <c r="J20" s="46">
+        <v>1.2141000000000002</v>
+      </c>
+      <c r="K20" s="46">
         <v>3.1208</v>
       </c>
-      <c r="K20" s="46">
+      <c r="L20" s="46">
+        <v>66.615600000000001</v>
+      </c>
+      <c r="M20" s="46">
         <v>68.456400000000002</v>
       </c>
-      <c r="L20" s="44">
+      <c r="N20" s="44">
         <f t="shared" si="2"/>
-        <v>65.335599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>1.8408000000000015</v>
+      </c>
+    </row>
+    <row r="21" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21" s="45">
         <v>9.4000000000000004E-3</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="155">
+        <v>0.3085</v>
+      </c>
+      <c r="I21" s="46">
         <v>1.7422</v>
       </c>
-      <c r="I21" s="44">
+      <c r="J21" s="44">
         <f t="shared" si="1"/>
-        <v>1.7327999999999999</v>
-      </c>
-      <c r="J21" s="46">
+        <v>1.4337</v>
+      </c>
+      <c r="K21" s="46">
         <v>3.1332</v>
       </c>
-      <c r="K21" s="46">
+      <c r="L21" s="46">
+        <v>67.264399999999995</v>
+      </c>
+      <c r="M21" s="46">
         <v>67.299000000000007</v>
       </c>
-      <c r="L21" s="44">
+      <c r="N21" s="44">
         <f t="shared" si="2"/>
-        <v>64.165800000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.4600000000011732E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F22" s="41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22" s="47">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="156">
+        <v>0.33360000000000001</v>
+      </c>
+      <c r="I22" s="48">
         <v>1.4784999999999999</v>
       </c>
-      <c r="I22" s="44">
+      <c r="J22" s="44">
         <f t="shared" si="1"/>
-        <v>1.4691999999999998</v>
-      </c>
-      <c r="J22" s="48">
+        <v>1.1448999999999998</v>
+      </c>
+      <c r="K22" s="48">
         <v>3.0632999999999999</v>
       </c>
-      <c r="K22" s="48">
+      <c r="L22" s="48">
+        <v>65.917900000000003</v>
+      </c>
+      <c r="M22" s="48">
         <v>69.897099999999995</v>
       </c>
-      <c r="L22" s="44">
+      <c r="N22" s="44">
         <f t="shared" si="2"/>
-        <v>66.833799999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="6:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>3.9791999999999916</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F23" s="50" t="s">
         <v>18</v>
       </c>
@@ -24705,36 +24797,44 @@
       </c>
       <c r="H23" s="51">
         <f>AVERAGE(H18:H22)</f>
+        <v>0.31284000000000001</v>
+      </c>
+      <c r="I23" s="51">
+        <f>AVERAGE(I18:I22)</f>
         <v>1.60446</v>
       </c>
-      <c r="I23" s="51">
+      <c r="J23" s="44">
         <f t="shared" si="1"/>
-        <v>1.5948199999999999</v>
-      </c>
-      <c r="J23" s="51">
-        <f>AVERAGE(J18:J22)</f>
-        <v>3.1087800000000003</v>
+        <v>1.29162</v>
       </c>
       <c r="K23" s="51">
         <f>AVERAGE(K18:K22)</f>
+        <v>3.1087800000000003</v>
+      </c>
+      <c r="L23" s="51">
+        <f>AVERAGE(L18:L22)</f>
+        <v>66.117460000000008</v>
+      </c>
+      <c r="M23" s="51">
+        <f>AVERAGE(M18:M22)</f>
         <v>69.14685999999999</v>
       </c>
-      <c r="L23" s="52">
-        <f t="shared" si="2"/>
-        <v>66.038079999999994</v>
-      </c>
-    </row>
-    <row r="24" spans="6:12" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="N23" s="52">
+        <f>M23-L23</f>
+        <v>3.0293999999999812</v>
+      </c>
+    </row>
+    <row r="24" spans="6:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="G2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="K7" formulaRange="1"/>
+    <ignoredError sqref="M7" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -24762,49 +24862,49 @@
   <sheetData>
     <row r="3" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="107" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="112"/>
-      <c r="K4" s="99" t="s">
+      <c r="C4" s="137" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="142"/>
+      <c r="K4" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="131"/>
+      <c r="N4" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="N4" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="101"/>
-      <c r="Q4" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="101"/>
+      <c r="O4" s="131"/>
+      <c r="Q4" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="131"/>
     </row>
     <row r="5" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H5" s="59">
         <v>0.95</v>
       </c>
       <c r="I5" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K5" s="88" t="s">
         <v>25</v>
@@ -24827,7 +24927,7 @@
     </row>
     <row r="6" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="43">
         <v>5</v>
@@ -24845,7 +24945,7 @@
         <v>48</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K6" s="74">
         <v>0</v>
@@ -24868,7 +24968,7 @@
     </row>
     <row r="7" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D7" s="43">
         <v>5</v>
@@ -24886,7 +24986,7 @@
         <v>69</v>
       </c>
       <c r="I7" s="53" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K7" s="74">
         <v>3.4722222222222224E-4</v>
@@ -24909,7 +25009,7 @@
     </row>
     <row r="8" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="81" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D8" s="47">
         <v>5</v>
@@ -24927,7 +25027,7 @@
         <v>54</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K8" s="74">
         <v>6.9444444444444447E-4</v>
@@ -25232,18 +25332,18 @@
     </row>
     <row r="39" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="99" t="s">
+      <c r="L40" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="131"/>
+      <c r="O40" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="M40" s="101"/>
-      <c r="O40" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="P40" s="101"/>
-      <c r="R40" s="99" t="s">
-        <v>74</v>
-      </c>
-      <c r="S40" s="101"/>
+      <c r="P40" s="131"/>
+      <c r="R40" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="S40" s="131"/>
     </row>
     <row r="41" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L41" s="88" t="s">
@@ -25366,15 +25466,15 @@
       </c>
     </row>
     <row r="47" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="107" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="112"/>
+      <c r="C47" s="137" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="141"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="142"/>
       <c r="L47" s="74">
         <v>1.736111111111111E-3</v>
       </c>
@@ -25396,25 +25496,25 @@
     </row>
     <row r="48" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C48" s="42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E48" s="90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F48" s="90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" s="90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H48" s="59">
         <v>0.95</v>
       </c>
       <c r="I48" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L48" s="75">
         <v>2.0833333333333333E-3</v>
@@ -25437,7 +25537,7 @@
     </row>
     <row r="49" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C49" s="61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D49" s="43">
         <v>5</v>
@@ -25455,7 +25555,7 @@
         <v>68</v>
       </c>
       <c r="I49" s="53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L49" s="74">
         <v>2.4305555555555599E-3</v>
@@ -25478,7 +25578,7 @@
     </row>
     <row r="50" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C50" s="61" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D50" s="43">
         <v>5</v>
@@ -25496,7 +25596,7 @@
         <v>117</v>
       </c>
       <c r="I50" s="53" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L50" s="74">
         <v>2.7777777777777801E-3</v>
@@ -25519,7 +25619,7 @@
     </row>
     <row r="51" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C51" s="49" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D51" s="92">
         <v>5</v>
@@ -25537,7 +25637,7 @@
         <v>150</v>
       </c>
       <c r="I51" s="95" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L51" s="74">
         <v>3.1250000000000002E-3</v>
@@ -25618,50 +25718,50 @@
   <sheetData>
     <row r="5" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="111"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="112"/>
+      <c r="E6" s="137" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="142"/>
     </row>
     <row r="7" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E7" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F7" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>42</v>
       </c>
       <c r="J7" s="59">
         <v>0.95</v>
       </c>
       <c r="K7" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="113" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="114"/>
-      <c r="AB7" s="113" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC7" s="114"/>
+      <c r="P7" s="144"/>
+      <c r="AB7" s="143" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="144"/>
     </row>
     <row r="8" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F8" s="43">
         <v>10</v>
@@ -25679,12 +25779,12 @@
         <v>42</v>
       </c>
       <c r="K8" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E9" s="61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" s="43">
         <v>10</v>
@@ -25704,42 +25804,42 @@
       <c r="K9" s="53">
         <v>2.0348259999999998</v>
       </c>
-      <c r="O9" s="99" t="s">
+      <c r="O9" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="131"/>
+      <c r="R9" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="S9" s="131"/>
+      <c r="U9" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="131"/>
+      <c r="X9" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="P9" s="101"/>
-      <c r="R9" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="S9" s="101"/>
-      <c r="U9" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="V9" s="101"/>
-      <c r="X9" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y9" s="101"/>
-      <c r="AB9" s="99" t="s">
+      <c r="Y9" s="131"/>
+      <c r="AB9" s="129" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" s="131"/>
+      <c r="AE9" s="129" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" s="131"/>
+      <c r="AH9" s="129" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="131"/>
+      <c r="AK9" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="AC9" s="101"/>
-      <c r="AE9" s="99" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF9" s="101"/>
-      <c r="AH9" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI9" s="101"/>
-      <c r="AK9" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL9" s="101"/>
+      <c r="AL9" s="131"/>
     </row>
     <row r="10" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E10" s="63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="45">
         <v>10</v>
@@ -25757,7 +25857,7 @@
         <v>42</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>25</v>
@@ -25810,7 +25910,7 @@
     </row>
     <row r="11" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E11" s="63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="45">
         <v>10</v>
@@ -25881,7 +25981,7 @@
     </row>
     <row r="12" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E12" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F12" s="47">
         <v>10</v>
@@ -25899,7 +25999,7 @@
         <v>42</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O12" s="74">
         <v>3.4722222222222224E-4</v>
@@ -25952,7 +26052,7 @@
     </row>
     <row r="13" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E13" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F13" s="47">
         <v>10</v>
@@ -26023,7 +26123,7 @@
     </row>
     <row r="14" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E14" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="68">
         <f>AVERAGE(F8,F10,F12)</f>
@@ -26046,7 +26146,7 @@
         <v>42</v>
       </c>
       <c r="K14" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O14" s="74">
         <v>1.0416666666666667E-3</v>
@@ -26099,7 +26199,7 @@
     </row>
     <row r="15" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E15" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F15" s="68">
         <f>AVERAGE(F9,F11,F13)</f>
@@ -26225,15 +26325,15 @@
       </c>
     </row>
     <row r="17" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="107" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="112"/>
+      <c r="E17" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
       <c r="O17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -26285,25 +26385,25 @@
     </row>
     <row r="18" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E18" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F18" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="58" t="s">
-        <v>42</v>
       </c>
       <c r="J18" s="59">
         <v>0.95</v>
       </c>
       <c r="K18" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O18" s="74">
         <v>2.4305555555555599E-3</v>
@@ -26356,7 +26456,7 @@
     </row>
     <row r="19" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E19" s="61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F19" s="43">
         <v>10</v>
@@ -26374,7 +26474,7 @@
         <v>51</v>
       </c>
       <c r="K19" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O19" s="74">
         <v>2.7777777777777801E-3</v>
@@ -26427,7 +26527,7 @@
     </row>
     <row r="20" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E20" s="61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="43">
         <v>10</v>
@@ -26498,7 +26598,7 @@
     </row>
     <row r="21" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E21" s="63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="45">
         <v>10</v>
@@ -26516,7 +26616,7 @@
         <v>51</v>
       </c>
       <c r="K21" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O21" s="74">
         <v>3.4722222222222199E-3</v>
@@ -26569,7 +26669,7 @@
     </row>
     <row r="22" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E22" s="63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F22" s="45">
         <v>10</v>
@@ -26640,7 +26740,7 @@
     </row>
     <row r="23" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E23" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F23" s="47">
         <v>10</v>
@@ -26658,7 +26758,7 @@
         <v>51</v>
       </c>
       <c r="K23" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O23" s="74">
         <v>4.1666666666666701E-3</v>
@@ -26711,7 +26811,7 @@
     </row>
     <row r="24" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E24" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F24" s="47">
         <v>10</v>
@@ -26782,7 +26882,7 @@
     </row>
     <row r="25" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E25" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F25" s="68">
         <f>AVERAGE(F19,F21,F23)</f>
@@ -26805,7 +26905,7 @@
         <v>51</v>
       </c>
       <c r="K25" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O25" s="74">
         <v>4.8611111111111103E-3</v>
@@ -26858,7 +26958,7 @@
     </row>
     <row r="26" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E26" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F26" s="68">
         <f>AVERAGE(F20,F22,F24)</f>
@@ -26984,15 +27084,15 @@
       </c>
     </row>
     <row r="28" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="112"/>
+      <c r="E28" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="142"/>
       <c r="O28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
@@ -27044,25 +27144,25 @@
     </row>
     <row r="29" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E29" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F29" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" s="58" t="s">
-        <v>42</v>
       </c>
       <c r="J29" s="59">
         <v>0.95</v>
       </c>
       <c r="K29" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O29" s="74">
         <v>6.2500000000000003E-3</v>
@@ -27115,7 +27215,7 @@
     </row>
     <row r="30" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E30" s="61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F30" s="43">
         <v>10</v>
@@ -27133,7 +27233,7 @@
         <v>42</v>
       </c>
       <c r="K30" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O30" s="74">
         <v>6.5972222222222196E-3</v>
@@ -27186,7 +27286,7 @@
     </row>
     <row r="31" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E31" s="61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" s="43">
         <v>10</v>
@@ -27257,7 +27357,7 @@
     </row>
     <row r="32" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E32" s="63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F32" s="45">
         <v>10</v>
@@ -27275,12 +27375,12 @@
         <v>42</v>
       </c>
       <c r="K32" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E33" s="63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F33" s="45">
         <v>10</v>
@@ -27303,7 +27403,7 @@
     </row>
     <row r="34" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E34" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F34" s="47">
         <v>10</v>
@@ -27321,12 +27421,12 @@
         <v>42</v>
       </c>
       <c r="K34" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E35" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35" s="47">
         <v>10</v>
@@ -27349,7 +27449,7 @@
     </row>
     <row r="36" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E36" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F36" s="68">
         <f>AVERAGE(F30,F32,F34)</f>
@@ -27372,12 +27472,12 @@
         <v>42</v>
       </c>
       <c r="K36" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E37" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F37" s="68">
         <f>AVERAGE(F31,F33,F35)</f>
@@ -27406,42 +27506,42 @@
     </row>
     <row r="38" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="111"/>
-      <c r="I39" s="111"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="112"/>
+      <c r="E39" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="142"/>
     </row>
     <row r="40" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E40" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F40" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="58" t="s">
-        <v>42</v>
       </c>
       <c r="J40" s="59">
         <v>0.95</v>
       </c>
       <c r="K40" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E41" s="61" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F41" s="43">
         <v>10</v>
@@ -27459,12 +27559,12 @@
         <v>46</v>
       </c>
       <c r="K41" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E42" s="61" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F42" s="43">
         <v>10</v>
@@ -27487,7 +27587,7 @@
     </row>
     <row r="43" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E43" s="63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F43" s="45">
         <v>10</v>
@@ -27505,12 +27605,12 @@
         <v>46</v>
       </c>
       <c r="K43" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E44" s="63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F44" s="45">
         <v>10</v>
@@ -27533,7 +27633,7 @@
     </row>
     <row r="45" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E45" s="63" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F45" s="47">
         <v>10</v>
@@ -27551,12 +27651,12 @@
         <v>46</v>
       </c>
       <c r="K45" s="53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E46" s="63" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F46" s="47">
         <v>10</v>
@@ -27579,7 +27679,7 @@
     </row>
     <row r="47" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E47" s="65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F47" s="68">
         <f>AVERAGE(F41,F43,F45)</f>
@@ -27602,12 +27702,12 @@
         <v>46</v>
       </c>
       <c r="K47" s="68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E48" s="65" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F48" s="68">
         <f>AVERAGE(F42,F44,F46)</f>
@@ -27636,42 +27736,42 @@
     </row>
     <row r="49" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="112"/>
+      <c r="E50" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="142"/>
     </row>
     <row r="51" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E51" s="71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F51" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="H51" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="I51" s="58" t="s">
-        <v>42</v>
       </c>
       <c r="J51" s="59">
         <v>0.95</v>
       </c>
       <c r="K51" s="72" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E52" s="61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F52" s="68">
         <f>AVERAGE(F46,F48,F50)</f>
@@ -27695,7 +27795,7 @@
     </row>
     <row r="53" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E53" s="73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F53" s="68">
         <f>AVERAGE(F47,F49,F51)</f>
@@ -27719,7 +27819,7 @@
     </row>
     <row r="54" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E54" s="78" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F54" s="79">
         <f>AVERAGE(F48,F50,F52)</f>
@@ -27808,21 +27908,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="E39:K39"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="X9:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27833,7 +27933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD9F577-4566-DA43-8E5B-B8803065B2BC}">
   <dimension ref="C5:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -27853,87 +27953,87 @@
   <sheetData>
     <row r="5" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M6" s="150" t="s">
+      <c r="M6" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="100"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="112"/>
-      <c r="V6" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="W6" s="100"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="112"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141"/>
+      <c r="Q6" s="141"/>
+      <c r="R6" s="141"/>
+      <c r="S6" s="141"/>
+      <c r="T6" s="142"/>
+      <c r="V6" s="147" t="s">
+        <v>62</v>
+      </c>
+      <c r="W6" s="130"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="141"/>
+      <c r="Z6" s="141"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="141"/>
+      <c r="AC6" s="142"/>
     </row>
     <row r="7" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="136" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="M7" s="148" t="s">
+      <c r="C7" s="148" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="150"/>
+      <c r="M7" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="146"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="146"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="149"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="148" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q7" s="149"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="T7" s="149"/>
-      <c r="V7" s="148" t="s">
+      <c r="T7" s="146"/>
+      <c r="V7" s="145" t="s">
+        <v>58</v>
+      </c>
+      <c r="W7" s="146"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="145" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z7" s="146"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="W7" s="149"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="148" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z7" s="149"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="148" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC7" s="149"/>
+      <c r="AC7" s="146"/>
     </row>
     <row r="8" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="116" t="s">
+      <c r="C8" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="117">
+      <c r="H8" s="99">
         <v>0.95</v>
       </c>
-      <c r="I8" s="118" t="s">
-        <v>54</v>
+      <c r="I8" s="100" t="s">
+        <v>51</v>
       </c>
       <c r="M8" s="32" t="s">
         <v>25</v>
@@ -27977,26 +28077,26 @@
       </c>
     </row>
     <row r="9" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="120">
+      <c r="C9" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="102">
         <v>10</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="102">
         <v>14240</v>
       </c>
-      <c r="F9" s="120">
+      <c r="F9" s="102">
         <v>42</v>
       </c>
-      <c r="G9" s="120">
+      <c r="G9" s="102">
         <v>13</v>
       </c>
-      <c r="H9" s="121">
+      <c r="H9" s="103">
         <v>41</v>
       </c>
-      <c r="I9" s="124" t="s">
-        <v>55</v>
+      <c r="I9" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M9" s="74">
         <v>0</v>
@@ -28041,25 +28141,25 @@
     </row>
     <row r="10" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="122">
+        <v>44</v>
+      </c>
+      <c r="D10" s="104">
         <v>10</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="104">
         <v>14094</v>
       </c>
-      <c r="F10" s="122">
+      <c r="F10" s="104">
         <v>42</v>
       </c>
-      <c r="G10" s="122">
+      <c r="G10" s="104">
         <v>15</v>
       </c>
-      <c r="H10" s="123">
+      <c r="H10" s="105">
         <v>42</v>
       </c>
-      <c r="I10" s="124" t="s">
-        <v>55</v>
+      <c r="I10" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M10" s="74">
         <v>3.4722222222222224E-4</v>
@@ -28103,26 +28203,26 @@
       </c>
     </row>
     <row r="11" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="120">
+      <c r="C11" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="102">
         <v>10</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="102">
         <v>14192</v>
       </c>
-      <c r="F11" s="120">
+      <c r="F11" s="102">
         <v>42</v>
       </c>
-      <c r="G11" s="120">
+      <c r="G11" s="102">
         <v>13</v>
       </c>
-      <c r="H11" s="121">
+      <c r="H11" s="103">
         <v>41</v>
       </c>
-      <c r="I11" s="124" t="s">
-        <v>55</v>
+      <c r="I11" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M11" s="74">
         <v>6.9444444444444447E-4</v>
@@ -28166,26 +28266,26 @@
       </c>
     </row>
     <row r="12" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="120">
+      <c r="C12" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="102">
         <v>10</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="102">
         <v>14083</v>
       </c>
-      <c r="F12" s="120">
+      <c r="F12" s="102">
         <v>42</v>
       </c>
-      <c r="G12" s="120">
+      <c r="G12" s="102">
         <v>15</v>
       </c>
-      <c r="H12" s="121">
+      <c r="H12" s="103">
         <v>42</v>
       </c>
-      <c r="I12" s="124" t="s">
-        <v>55</v>
+      <c r="I12" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M12" s="74">
         <v>1.0416666666666667E-3</v>
@@ -28229,26 +28329,26 @@
       </c>
     </row>
     <row r="13" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="125">
+      <c r="C13" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="107">
         <v>10</v>
       </c>
-      <c r="E13" s="125">
+      <c r="E13" s="107">
         <v>14227</v>
       </c>
-      <c r="F13" s="125">
+      <c r="F13" s="107">
         <v>42</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="107">
         <v>13</v>
       </c>
-      <c r="H13" s="126">
+      <c r="H13" s="108">
         <v>41</v>
       </c>
-      <c r="I13" s="124" t="s">
-        <v>55</v>
+      <c r="I13" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M13" s="74">
         <v>1.3888888888888889E-3</v>
@@ -28292,26 +28392,26 @@
       </c>
     </row>
     <row r="14" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="127">
+      <c r="C14" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="109">
         <v>10</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="109">
         <v>14079</v>
       </c>
-      <c r="F14" s="127">
+      <c r="F14" s="109">
         <v>42</v>
       </c>
-      <c r="G14" s="127">
+      <c r="G14" s="109">
         <v>15</v>
       </c>
-      <c r="H14" s="128">
+      <c r="H14" s="110">
         <v>42</v>
       </c>
-      <c r="I14" s="124" t="s">
-        <v>55</v>
+      <c r="I14" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M14" s="74">
         <v>1.736111111111111E-3</v>
@@ -28355,29 +28455,29 @@
       </c>
     </row>
     <row r="15" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="129" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="130">
+      <c r="C15" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="112">
         <v>10</v>
       </c>
-      <c r="E15" s="131">
+      <c r="E15" s="113">
         <f>AVERAGE(E9,E11,E13)</f>
         <v>14219.666666666666</v>
       </c>
-      <c r="F15" s="131">
-        <f t="shared" ref="F15:I15" si="0">AVERAGE(F9,F11,F13)</f>
+      <c r="F15" s="113">
+        <f t="shared" ref="F15:H15" si="0">AVERAGE(F9,F11,F13)</f>
         <v>42</v>
       </c>
-      <c r="G15" s="131">
+      <c r="G15" s="113">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="H15" s="131">
+      <c r="H15" s="113">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="I15" s="131"/>
+      <c r="I15" s="113"/>
       <c r="M15" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -28420,29 +28520,29 @@
       </c>
     </row>
     <row r="16" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="133">
+      <c r="C16" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="115">
         <v>10</v>
       </c>
-      <c r="E16" s="131">
+      <c r="E16" s="113">
         <f>AVERAGE(E10,E12,E14)</f>
         <v>14085.333333333334</v>
       </c>
-      <c r="F16" s="131">
-        <f t="shared" ref="F16:I16" si="1">AVERAGE(F10,F12,F14)</f>
+      <c r="F16" s="113">
+        <f t="shared" ref="F16:H16" si="1">AVERAGE(F10,F12,F14)</f>
         <v>42</v>
       </c>
-      <c r="G16" s="131">
+      <c r="G16" s="113">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H16" s="131">
+      <c r="H16" s="113">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="I16" s="131"/>
+      <c r="I16" s="113"/>
       <c r="M16" s="74">
         <v>2.4305555555555599E-3</v>
       </c>
@@ -28485,13 +28585,13 @@
       </c>
     </row>
     <row r="17" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
       <c r="M17" s="74">
         <v>2.7777777777777801E-3</v>
       </c>
@@ -28534,15 +28634,15 @@
       </c>
     </row>
     <row r="18" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="136" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
+      <c r="C18" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="150"/>
       <c r="M18" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
@@ -28585,26 +28685,26 @@
       </c>
     </row>
     <row r="19" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="116" t="s">
+      <c r="C19" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="117">
+      <c r="H19" s="99">
         <v>0.95</v>
       </c>
-      <c r="I19" s="118" t="s">
-        <v>54</v>
+      <c r="I19" s="100" t="s">
+        <v>51</v>
       </c>
       <c r="M19" s="74">
         <v>3.4722222222222199E-3</v>
@@ -28648,26 +28748,26 @@
       </c>
     </row>
     <row r="20" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="119" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="120">
+      <c r="C20" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="102">
         <v>10</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="102">
         <v>12300</v>
       </c>
-      <c r="F20" s="120">
+      <c r="F20" s="102">
         <v>49</v>
       </c>
-      <c r="G20" s="120">
+      <c r="G20" s="102">
         <v>20</v>
       </c>
-      <c r="H20" s="121">
+      <c r="H20" s="103">
         <v>52</v>
       </c>
-      <c r="I20" s="124" t="s">
-        <v>55</v>
+      <c r="I20" s="106" t="s">
+        <v>52</v>
       </c>
       <c r="M20" s="74">
         <v>3.81944444444444E-3</v>
@@ -28712,25 +28812,25 @@
     </row>
     <row r="21" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C21" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="122">
+        <v>44</v>
+      </c>
+      <c r="D21" s="104">
         <v>10</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="104">
         <v>11594</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="104">
         <v>51</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="104">
         <v>71</v>
       </c>
-      <c r="H21" s="123">
+      <c r="H21" s="105">
         <v>60</v>
       </c>
-      <c r="I21" s="140" t="s">
-        <v>55</v>
+      <c r="I21" s="118" t="s">
+        <v>52</v>
       </c>
       <c r="M21" s="74">
         <v>4.1666666666666701E-3</v>
@@ -28774,26 +28874,26 @@
       </c>
     </row>
     <row r="22" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="120">
+      <c r="C22" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="102">
         <v>10</v>
       </c>
-      <c r="E22" s="120">
+      <c r="E22" s="102">
         <v>12158</v>
       </c>
-      <c r="F22" s="120">
+      <c r="F22" s="102">
         <v>49</v>
       </c>
-      <c r="G22" s="120">
+      <c r="G22" s="102">
         <v>22</v>
       </c>
-      <c r="H22" s="121">
+      <c r="H22" s="103">
         <v>53</v>
       </c>
-      <c r="I22" s="140" t="s">
-        <v>55</v>
+      <c r="I22" s="118" t="s">
+        <v>52</v>
       </c>
       <c r="M22" s="75">
         <v>4.5138888888888902E-3</v>
@@ -28837,26 +28937,26 @@
       </c>
     </row>
     <row r="23" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="120">
+      <c r="C23" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="102">
         <v>10</v>
       </c>
-      <c r="E23" s="120">
+      <c r="E23" s="102">
         <v>11397</v>
       </c>
-      <c r="F23" s="120">
+      <c r="F23" s="102">
         <v>52</v>
       </c>
-      <c r="G23" s="120">
+      <c r="G23" s="102">
         <v>96</v>
       </c>
-      <c r="H23" s="121">
+      <c r="H23" s="103">
         <v>61</v>
       </c>
-      <c r="I23" s="140" t="s">
-        <v>55</v>
+      <c r="I23" s="118" t="s">
+        <v>52</v>
       </c>
       <c r="M23" s="74">
         <v>4.8611111111111103E-3</v>
@@ -28900,26 +29000,26 @@
       </c>
     </row>
     <row r="24" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="125">
+      <c r="C24" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="107">
         <v>10</v>
       </c>
-      <c r="E24" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="140" t="s">
-        <v>55</v>
+      <c r="E24" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="118" t="s">
+        <v>52</v>
       </c>
       <c r="M24" s="74">
         <v>5.2083333333333296E-3</v>
@@ -28963,26 +29063,26 @@
       </c>
     </row>
     <row r="25" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="127">
+      <c r="C25" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="109">
         <v>10</v>
       </c>
-      <c r="E25" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" s="140" t="s">
-        <v>55</v>
+      <c r="E25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="118" t="s">
+        <v>52</v>
       </c>
       <c r="M25" s="74">
         <v>5.5555555555555601E-3</v>
@@ -29026,30 +29126,30 @@
       </c>
     </row>
     <row r="26" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="129" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="130">
+      <c r="C26" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="112">
         <v>10</v>
       </c>
-      <c r="E26" s="131">
+      <c r="E26" s="113">
         <f>AVERAGE(E20,E22)</f>
         <v>12229</v>
       </c>
-      <c r="F26" s="131">
+      <c r="F26" s="113">
         <f t="shared" ref="F26:H26" si="2">AVERAGE(F20,F22)</f>
         <v>49</v>
       </c>
-      <c r="G26" s="131">
+      <c r="G26" s="113">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="H26" s="131">
+      <c r="H26" s="113">
         <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="I26" s="140" t="s">
-        <v>55</v>
+      <c r="I26" s="118" t="s">
+        <v>52</v>
       </c>
       <c r="M26" s="74">
         <v>5.9027777777777802E-3</v>
@@ -29093,30 +29193,30 @@
       </c>
     </row>
     <row r="27" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="133">
+      <c r="C27" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="115">
         <v>10</v>
       </c>
-      <c r="E27" s="131">
+      <c r="E27" s="113">
         <f>AVERAGE(E21,E23)</f>
         <v>11495.5</v>
       </c>
-      <c r="F27" s="131">
+      <c r="F27" s="113">
         <f t="shared" ref="F27:H27" si="3">AVERAGE(F21,F23)</f>
         <v>51.5</v>
       </c>
-      <c r="G27" s="131">
+      <c r="G27" s="113">
         <f t="shared" si="3"/>
         <v>83.5</v>
       </c>
-      <c r="H27" s="131">
+      <c r="H27" s="113">
         <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
-      <c r="I27" s="141" t="s">
-        <v>55</v>
+      <c r="I27" s="119" t="s">
+        <v>52</v>
       </c>
       <c r="M27" s="74">
         <v>6.2500000000000003E-3</v>
@@ -29160,13 +29260,13 @@
       </c>
     </row>
     <row r="28" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
       <c r="M28" s="74">
         <v>6.5972222222222196E-3</v>
       </c>
@@ -29209,29 +29309,29 @@
       </c>
     </row>
     <row r="29" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="139"/>
+      <c r="C29" s="148" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="138"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="151"/>
       <c r="M29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="N29" s="35">
         <v>25</v>
       </c>
-      <c r="O29" s="147"/>
+      <c r="O29" s="125"/>
       <c r="P29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="Q29" s="35">
         <v>21</v>
       </c>
-      <c r="R29" s="147"/>
+      <c r="R29" s="125"/>
       <c r="S29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -29244,14 +29344,14 @@
       <c r="W29" s="35">
         <v>24</v>
       </c>
-      <c r="X29" s="147"/>
+      <c r="X29" s="125"/>
       <c r="Y29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
       <c r="Z29" s="35">
         <v>19</v>
       </c>
-      <c r="AA29" s="147"/>
+      <c r="AA29" s="125"/>
       <c r="AB29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -29260,335 +29360,340 @@
       </c>
     </row>
     <row r="30" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="116" t="s">
+      <c r="C30" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="116" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="117">
+      <c r="H30" s="99">
         <v>0.95</v>
       </c>
-      <c r="I30" s="118" t="s">
-        <v>54</v>
+      <c r="I30" s="100" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="119" t="s">
+      <c r="C31" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="102">
+        <v>10</v>
+      </c>
+      <c r="E31" s="102">
+        <v>13125</v>
+      </c>
+      <c r="F31" s="102">
         <v>46</v>
       </c>
-      <c r="D31" s="120">
-        <v>10</v>
-      </c>
-      <c r="E31" s="120">
-        <v>13125</v>
-      </c>
-      <c r="F31" s="120">
+      <c r="G31" s="102">
+        <v>16</v>
+      </c>
+      <c r="H31" s="103">
         <v>46</v>
       </c>
-      <c r="G31" s="120">
-        <v>16</v>
-      </c>
-      <c r="H31" s="121">
-        <v>46</v>
-      </c>
-      <c r="I31" s="146" t="s">
-        <v>55</v>
+      <c r="I31" s="124" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="104">
+        <v>10</v>
+      </c>
+      <c r="E32" s="104">
+        <v>12195</v>
+      </c>
+      <c r="F32" s="104">
+        <v>49</v>
+      </c>
+      <c r="G32" s="104">
+        <v>64</v>
+      </c>
+      <c r="H32" s="105">
+        <v>56</v>
+      </c>
+      <c r="I32" s="120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="102">
+        <v>10</v>
+      </c>
+      <c r="E33" s="102">
+        <v>13137</v>
+      </c>
+      <c r="F33" s="102">
+        <v>45</v>
+      </c>
+      <c r="G33" s="102">
+        <v>16</v>
+      </c>
+      <c r="H33" s="103">
+        <v>46</v>
+      </c>
+      <c r="I33" s="120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="102">
+        <v>10</v>
+      </c>
+      <c r="E34" s="102">
+        <v>12201</v>
+      </c>
+      <c r="F34" s="102">
+        <v>49</v>
+      </c>
+      <c r="G34" s="102">
+        <v>70</v>
+      </c>
+      <c r="H34" s="103">
+        <v>56</v>
+      </c>
+      <c r="I34" s="120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="122">
+      <c r="D35" s="107">
         <v>10</v>
       </c>
-      <c r="E32" s="122">
-        <v>12195</v>
-      </c>
-      <c r="F32" s="122">
+      <c r="E35" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="109">
+        <v>10</v>
+      </c>
+      <c r="E36" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="123" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="120" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="122">
-        <v>64</v>
-      </c>
-      <c r="H32" s="123">
-        <v>56</v>
-      </c>
-      <c r="I32" s="142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="119" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="120">
+      <c r="D37" s="112">
         <v>10</v>
       </c>
-      <c r="E33" s="120">
-        <v>13137</v>
-      </c>
-      <c r="F33" s="120">
-        <v>45</v>
-      </c>
-      <c r="G33" s="120">
-        <v>16</v>
-      </c>
-      <c r="H33" s="121">
-        <v>46</v>
-      </c>
-      <c r="I33" s="142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="120">
-        <v>10</v>
-      </c>
-      <c r="E34" s="120">
-        <v>12201</v>
-      </c>
-      <c r="F34" s="120">
-        <v>49</v>
-      </c>
-      <c r="G34" s="120">
-        <v>70</v>
-      </c>
-      <c r="H34" s="121">
-        <v>56</v>
-      </c>
-      <c r="I34" s="142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="125">
-        <v>10</v>
-      </c>
-      <c r="E35" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="144" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" s="142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="119" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="127">
-        <v>10</v>
-      </c>
-      <c r="E36" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" s="142" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="129" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="130">
-        <v>10</v>
-      </c>
-      <c r="E37" s="131">
+      <c r="E37" s="113">
         <f>AVERAGE(E31,E33)</f>
         <v>13131</v>
       </c>
-      <c r="F37" s="131">
+      <c r="F37" s="113">
         <f t="shared" ref="F37:H37" si="4">AVERAGE(F31,F33)</f>
         <v>45.5</v>
       </c>
-      <c r="G37" s="131">
+      <c r="G37" s="113">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="H37" s="131">
+      <c r="H37" s="113">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="I37" s="142" t="s">
-        <v>55</v>
+      <c r="I37" s="120" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="132" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="133">
+      <c r="C38" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="115">
         <v>10</v>
       </c>
-      <c r="E38" s="131">
+      <c r="E38" s="113">
         <f>AVERAGE(E32,E34)</f>
         <v>12198</v>
       </c>
-      <c r="F38" s="131">
+      <c r="F38" s="113">
         <f t="shared" ref="F38:H38" si="5">AVERAGE(F32,F34)</f>
         <v>49</v>
       </c>
-      <c r="G38" s="131">
+      <c r="G38" s="113">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="H38" s="131">
+      <c r="H38" s="113">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="I38" s="143" t="s">
-        <v>55</v>
+      <c r="I38" s="121" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="135"/>
-      <c r="D39" s="135"/>
-      <c r="E39" s="135"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="135"/>
-      <c r="H39" s="135"/>
-      <c r="I39" s="135"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
     </row>
     <row r="40" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="136" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="138"/>
+      <c r="C40" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="150"/>
     </row>
     <row r="41" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="116" t="s">
+      <c r="C41" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="E41" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="116" t="s">
+      <c r="H41" s="99">
+        <v>0.95</v>
+      </c>
+      <c r="I41" s="100" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="115">
+        <v>10</v>
+      </c>
+      <c r="E42" s="113">
+        <v>14219</v>
+      </c>
+      <c r="F42" s="113">
         <v>41</v>
       </c>
-      <c r="G41" s="116" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="117">
-        <v>0.95</v>
-      </c>
-      <c r="I41" s="118" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="119" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="133">
-        <v>10</v>
-      </c>
-      <c r="E42" s="131">
-        <v>14219</v>
-      </c>
-      <c r="F42" s="131">
+      <c r="G42" s="113">
+        <v>13</v>
+      </c>
+      <c r="H42" s="113">
         <v>41</v>
       </c>
-      <c r="G42" s="131">
-        <v>13</v>
-      </c>
-      <c r="H42" s="131">
-        <v>41</v>
-      </c>
-      <c r="I42" s="134" t="s">
-        <v>55</v>
+      <c r="I42" s="116" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="133">
+        <v>64</v>
+      </c>
+      <c r="D43" s="115">
         <v>10</v>
       </c>
-      <c r="E43" s="134">
+      <c r="E43" s="116">
         <v>12229</v>
       </c>
-      <c r="F43" s="134">
+      <c r="F43" s="116">
         <v>49</v>
       </c>
-      <c r="G43" s="134">
+      <c r="G43" s="116">
         <v>21</v>
       </c>
-      <c r="H43" s="134">
+      <c r="H43" s="116">
         <v>53</v>
       </c>
-      <c r="I43" s="134" t="s">
-        <v>55</v>
+      <c r="I43" s="116" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="133">
+      <c r="C44" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="115">
         <v>10</v>
       </c>
-      <c r="E44" s="134">
+      <c r="E44" s="116">
         <v>13131</v>
       </c>
-      <c r="F44" s="134">
+      <c r="F44" s="116">
         <v>46</v>
       </c>
-      <c r="G44" s="134">
+      <c r="G44" s="116">
         <v>16</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="116">
         <v>46</v>
       </c>
-      <c r="I44" s="134" t="s">
-        <v>55</v>
+      <c r="I44" s="116" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="M6:T6"/>
     <mergeCell ref="V6:AC6"/>
@@ -29596,11 +29701,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C827F164-F1EA-7F4B-90B3-8A5978CC22C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F368F1E-A69E-F44F-9D4D-FB8B8CEF1C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="7" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="8" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Cluster Redis" sheetId="7" r:id="rId6"/>
     <sheet name="Memory &amp; CPU" sheetId="8" r:id="rId7"/>
     <sheet name="Performance over Size" sheetId="9" r:id="rId8"/>
+    <sheet name="Cluster Nodes Memory" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Memory &amp; CPU'!$AN$125:$AU$521</definedName>
@@ -141,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="835">
   <si>
     <t>Test Configurations</t>
   </si>
@@ -2634,6 +2635,18 @@
   </si>
   <si>
     <t>Average Latency</t>
+  </si>
+  <si>
+    <t>Standalone Memory</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Total Memory (Masters)</t>
+  </si>
+  <si>
+    <t>Slaves</t>
   </si>
 </sst>
 </file>
@@ -3526,7 +3539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -3866,7 +3879,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3884,10 +3897,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3919,15 +3932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3939,6 +3943,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3965,6 +3978,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -36127,23 +36149,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36546,7 +36568,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="169">
+      <c r="B13" s="163">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -36629,7 +36651,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="170"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -36656,7 +36678,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="169">
+      <c r="B17" s="163">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -36739,7 +36761,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="170"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -36766,7 +36788,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="169">
+      <c r="B21" s="163">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -36849,7 +36871,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="170"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -36876,7 +36898,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="169">
+      <c r="B25" s="163">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -36959,7 +36981,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="170"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -36986,7 +37008,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="169">
+      <c r="B29" s="163">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -37096,7 +37118,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="170" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -37278,7 +37300,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="169">
+      <c r="B41" s="163">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -37361,7 +37383,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="170"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -37388,7 +37410,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="169">
+      <c r="B45" s="163">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -37471,7 +37493,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="170"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -37498,7 +37520,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="169">
+      <c r="B49" s="163">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -37581,7 +37603,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="170"/>
+      <c r="B52" s="169"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -37608,7 +37630,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="169">
+      <c r="B53" s="163">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -37691,7 +37713,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="170"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -37718,7 +37740,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="169">
+      <c r="B57" s="163">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -37828,7 +37850,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="163" t="s">
+      <c r="B61" s="170" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -38009,7 +38031,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="169">
+      <c r="B68" s="163">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -38092,7 +38114,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="170"/>
+      <c r="B71" s="169"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -38119,7 +38141,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="169">
+      <c r="B72" s="163">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -38202,7 +38224,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="170"/>
+      <c r="B75" s="169"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -38229,7 +38251,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="169">
+      <c r="B76" s="163">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -38312,7 +38334,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="170"/>
+      <c r="B79" s="169"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -38339,7 +38361,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="169">
+      <c r="B80" s="163">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -38422,7 +38444,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="170"/>
+      <c r="B83" s="169"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -38449,7 +38471,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="169">
+      <c r="B84" s="163">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -38559,7 +38581,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="163" t="s">
+      <c r="B88" s="170" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -38699,12 +38721,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -38720,6 +38736,12 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38831,7 +38853,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="169">
+      <c r="B13" s="163">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -38914,7 +38936,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="170"/>
+      <c r="B16" s="169"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -38941,7 +38963,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="169">
+      <c r="B17" s="163">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -39024,7 +39046,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="170"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -39051,7 +39073,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="169">
+      <c r="B21" s="163">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -39134,7 +39156,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="170"/>
+      <c r="B24" s="169"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -39161,7 +39183,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="169">
+      <c r="B25" s="163">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -39244,7 +39266,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="170"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -39271,7 +39293,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="169">
+      <c r="B29" s="163">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -39381,7 +39403,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="170" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -39563,7 +39585,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="169">
+      <c r="B41" s="163">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -39646,7 +39668,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="170"/>
+      <c r="B44" s="169"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -39673,7 +39695,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="169">
+      <c r="B45" s="163">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -39756,7 +39778,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="170"/>
+      <c r="B48" s="169"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -39783,7 +39805,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="169">
+      <c r="B49" s="163">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -39866,7 +39888,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="170"/>
+      <c r="B52" s="169"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -39893,7 +39915,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="169">
+      <c r="B53" s="163">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -39976,7 +39998,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="170"/>
+      <c r="B56" s="169"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -40003,7 +40025,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="169">
+      <c r="B57" s="163">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -40113,7 +40135,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="163" t="s">
+      <c r="B61" s="170" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -40294,7 +40316,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="169">
+      <c r="B68" s="163">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -40377,7 +40399,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="170"/>
+      <c r="B71" s="169"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -40404,7 +40426,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="169">
+      <c r="B72" s="163">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -40487,7 +40509,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="170"/>
+      <c r="B75" s="169"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -40514,7 +40536,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="169">
+      <c r="B76" s="163">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -40597,7 +40619,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="170"/>
+      <c r="B79" s="169"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -40624,7 +40646,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="169">
+      <c r="B80" s="163">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -40707,7 +40729,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="170"/>
+      <c r="B83" s="169"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -40734,7 +40756,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="169">
+      <c r="B84" s="163">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -40844,7 +40866,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="163" t="s">
+      <c r="B88" s="170" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -40984,6 +41006,15 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -40996,15 +41027,6 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44555,21 +44577,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E39:K39"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="E6:K6"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="E50:K50"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E39:K39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44600,7 +44622,7 @@
   <sheetData>
     <row r="5" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M6" s="184" t="s">
+      <c r="M6" s="188" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="167"/>
@@ -44610,7 +44632,7 @@
       <c r="R6" s="178"/>
       <c r="S6" s="178"/>
       <c r="T6" s="179"/>
-      <c r="V6" s="184" t="s">
+      <c r="V6" s="188" t="s">
         <v>62</v>
       </c>
       <c r="W6" s="167"/>
@@ -44622,43 +44644,43 @@
       <c r="AC6" s="179"/>
     </row>
     <row r="7" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="185" t="s">
+      <c r="C7" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="187"/>
-      <c r="M7" s="182" t="s">
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="184"/>
+      <c r="M7" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="183"/>
+      <c r="N7" s="187"/>
       <c r="O7" s="80"/>
-      <c r="P7" s="182" t="s">
+      <c r="P7" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="183"/>
+      <c r="Q7" s="187"/>
       <c r="R7" s="80"/>
-      <c r="S7" s="182" t="s">
+      <c r="S7" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="183"/>
-      <c r="V7" s="182" t="s">
+      <c r="T7" s="187"/>
+      <c r="V7" s="186" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="183"/>
+      <c r="W7" s="187"/>
       <c r="X7" s="80"/>
-      <c r="Y7" s="182" t="s">
+      <c r="Y7" s="186" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="183"/>
+      <c r="Z7" s="187"/>
       <c r="AA7" s="80"/>
-      <c r="AB7" s="182" t="s">
+      <c r="AB7" s="186" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="183"/>
+      <c r="AC7" s="187"/>
     </row>
     <row r="8" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="97" t="s">
@@ -45281,15 +45303,15 @@
       </c>
     </row>
     <row r="18" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="185" t="s">
+      <c r="C18" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="187"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="184"/>
       <c r="M18" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
@@ -45956,7 +45978,7 @@
       </c>
     </row>
     <row r="29" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="182" t="s">
         <v>55</v>
       </c>
       <c r="D29" s="176"/>
@@ -45964,7 +45986,7 @@
       <c r="F29" s="176"/>
       <c r="G29" s="176"/>
       <c r="H29" s="176"/>
-      <c r="I29" s="188"/>
+      <c r="I29" s="185"/>
       <c r="M29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -46231,15 +46253,15 @@
       <c r="I39" s="117"/>
     </row>
     <row r="40" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="182" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="187"/>
+      <c r="D40" s="183"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="184"/>
     </row>
     <row r="41" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="97" t="s">
@@ -46336,11 +46358,6 @@
     <row r="45" spans="3:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="M7:N7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="M6:T6"/>
     <mergeCell ref="V6:AC6"/>
@@ -46348,6 +46365,11 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -46602,7 +46624,7 @@
       <c r="BT3" s="134"/>
     </row>
     <row r="4" spans="2:88" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="182"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="194"/>
       <c r="D4" s="194"/>
       <c r="E4" s="194"/>
@@ -46620,9 +46642,9 @@
       <c r="Q4" s="194"/>
       <c r="R4" s="194"/>
       <c r="S4" s="194"/>
-      <c r="T4" s="183"/>
+      <c r="T4" s="187"/>
       <c r="U4" s="133"/>
-      <c r="V4" s="182"/>
+      <c r="V4" s="186"/>
       <c r="W4" s="194"/>
       <c r="X4" s="194"/>
       <c r="Y4" s="194"/>
@@ -46640,9 +46662,9 @@
       <c r="AK4" s="194"/>
       <c r="AL4" s="194"/>
       <c r="AM4" s="194"/>
-      <c r="AN4" s="183"/>
+      <c r="AN4" s="187"/>
       <c r="AO4" s="134"/>
-      <c r="AP4" s="182"/>
+      <c r="AP4" s="186"/>
       <c r="AQ4" s="194"/>
       <c r="AR4" s="194"/>
       <c r="AS4" s="194"/>
@@ -46660,7 +46682,7 @@
       <c r="BE4" s="194"/>
       <c r="BF4" s="194"/>
       <c r="BG4" s="194"/>
-      <c r="BH4" s="183"/>
+      <c r="BH4" s="187"/>
       <c r="BI4" s="134"/>
       <c r="BJ4" s="134"/>
       <c r="BK4" s="134"/>
@@ -59581,21 +59603,21 @@
       <c r="CG83" s="135"/>
     </row>
     <row r="84" spans="2:88" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="182"/>
+      <c r="B84" s="186"/>
       <c r="C84" s="194"/>
       <c r="D84" s="194"/>
       <c r="E84" s="194"/>
-      <c r="F84" s="183"/>
-      <c r="H84" s="182"/>
+      <c r="F84" s="187"/>
+      <c r="H84" s="186"/>
       <c r="I84" s="194"/>
       <c r="J84" s="194"/>
       <c r="K84" s="194"/>
-      <c r="L84" s="183"/>
-      <c r="N84" s="182"/>
+      <c r="L84" s="187"/>
+      <c r="N84" s="186"/>
       <c r="O84" s="194"/>
       <c r="P84" s="194"/>
       <c r="Q84" s="194"/>
-      <c r="R84" s="183"/>
+      <c r="R84" s="187"/>
       <c r="T84" s="80"/>
       <c r="U84" s="80"/>
       <c r="AH84" s="132"/>
@@ -67184,7 +67206,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91155465-0821-354B-A803-746CB83E7063}">
   <dimension ref="B3:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -68082,4 +68104,160 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366567EE-2038-0845-9A44-27E88E9E6E15}">
+  <dimension ref="C1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="204" t="s">
+        <v>832</v>
+      </c>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204" t="s">
+        <v>834</v>
+      </c>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+    </row>
+    <row r="3" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="198">
+        <v>7000</v>
+      </c>
+      <c r="E3" s="198">
+        <v>7001</v>
+      </c>
+      <c r="F3" s="198">
+        <v>7002</v>
+      </c>
+      <c r="G3" s="198">
+        <v>7003</v>
+      </c>
+      <c r="H3" s="198">
+        <v>7004</v>
+      </c>
+      <c r="I3" s="198">
+        <v>7005</v>
+      </c>
+      <c r="J3" s="198" t="s">
+        <v>833</v>
+      </c>
+      <c r="K3" s="198" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="198" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1.004618</v>
+      </c>
+      <c r="E4" s="199">
+        <v>1.0296920000000001</v>
+      </c>
+      <c r="F4" s="199">
+        <v>1.016632</v>
+      </c>
+      <c r="G4" s="199">
+        <v>1.0100279999999999</v>
+      </c>
+      <c r="H4" s="199">
+        <v>1.01498</v>
+      </c>
+      <c r="I4" s="199">
+        <v>1.0060359999999999</v>
+      </c>
+      <c r="J4" s="199">
+        <f>SUM(D4:F4)</f>
+        <v>3.050942</v>
+      </c>
+      <c r="K4" s="33">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="198" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="200">
+        <v>0.92722700000000002</v>
+      </c>
+      <c r="E5" s="201">
+        <v>0.93923100000000004</v>
+      </c>
+      <c r="F5" s="201">
+        <v>0.93503700000000001</v>
+      </c>
+      <c r="G5" s="201">
+        <v>0.93920199999999998</v>
+      </c>
+      <c r="H5" s="201">
+        <v>0.93542400000000003</v>
+      </c>
+      <c r="I5" s="201">
+        <v>0.92906999999999995</v>
+      </c>
+      <c r="J5" s="201">
+        <f t="shared" ref="J5:J6" si="0">SUM(D5:F5)</f>
+        <v>2.8014950000000001</v>
+      </c>
+      <c r="K5" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="198" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="202">
+        <v>2.719738</v>
+      </c>
+      <c r="E6" s="203">
+        <v>2.6514899999999999</v>
+      </c>
+      <c r="F6" s="203">
+        <v>2.676488</v>
+      </c>
+      <c r="G6" s="203">
+        <v>2.6573000000000002</v>
+      </c>
+      <c r="H6" s="203">
+        <v>2.743134</v>
+      </c>
+      <c r="I6" s="203">
+        <v>2.6507299999999998</v>
+      </c>
+      <c r="J6" s="203">
+        <f t="shared" si="0"/>
+        <v>8.0477160000000012</v>
+      </c>
+      <c r="K6" s="35">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thesis-tests.xlsx
+++ b/thesis-tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelanciaes/Desktop/thesis/novathesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F368F1E-A69E-F44F-9D4D-FB8B8CEF1C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1ABCC7-B537-1A47-890C-59E6FC65CA09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="8" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="3" xr2:uid="{6308EBAC-DE62-D645-97F4-0D2E9D77B78B}"/>
   </bookViews>
   <sheets>
     <sheet name="External Redis-Benchmarks" sheetId="2" r:id="rId1"/>
@@ -3879,7 +3879,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3897,10 +3903,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3932,6 +3938,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3943,15 +3958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3978,12 +3984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10699,7 +10699,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -12301,7 +12301,128 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
+        <c:numFmt formatCode="[$]mm:ss;@" c16r2:formatcode2="[$-en-PT,1]mm:ss;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-3720000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553196815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1553196815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:t>Memory (MB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12320,6 +12441,1704 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1553195167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-PT"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Encrypted Redis Memory Usage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Used Memory</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Memory &amp; CPU'!$C$86:$C$157</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>44158.999997503597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44159.000196712506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44159.00039615672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44159.000600774307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44159.000799996764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44159.000999395605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44159.001202845488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44159.001402309492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44159.001601754055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44159.001804937732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44159.002004151618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44159.002203721764</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44159.002407025117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44159.002606519331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44159.002805860764</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44159.003009132757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44159.003208521644</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44159.003407812852</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44159.003611215747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44159.003810534028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44159.004009966207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44159.004213326509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44159.004412724076</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44159.004612406607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159.004815413544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44159.005014712391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44159.005214156139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44159.005417495027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44159.005616901391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44159.005816192475</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44159.006019580447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44159.006219122457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44159.006418710771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44159.006621656947</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44159.006820721064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44159.007020228943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44159.00722372489</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44159.007423159383</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44159.007622405676</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44159.007825812965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44159.008025155905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44159.008224570956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44159.008427900924</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159.008627077666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159.008826367943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44159.009029972571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44159.009229533105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44159.009429021535</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44159.009632076508</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44159.009831340511</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44159.010030713544</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44159.010234158566</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44159.010433553827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44159.010633050355</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44159.010836230213</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44159.011035726973</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44159.011234942365</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44159.011438322916</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44159.011637859032</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44159.011837398262</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44159.012040403592</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44159.012240002317</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44159.01243906968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44159.0126424845</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44159.012841792712</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44159.013041091901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44159.013244554284</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44159.013443925585</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44159.013643341204</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44159.013846637157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44159.014045897107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44159.014245323269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory &amp; CPU'!$P$86:$P$157</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>887616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>939208</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1118928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300808</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1549856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1744680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1941208</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2092184</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2338752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2537552</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2740896</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2949352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3154400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3393352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3602944</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3808560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4011336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4215816</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4422568</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4588368</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4838912</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5045096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5253552</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5423328</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5693912</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5942752</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6154048</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6362504</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6549856</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6762288</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7010560</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7197464</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7370648</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7580808</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7789832</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7972160</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8034088</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8034088</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8034088</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8013104</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7972152</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8034088</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7993136</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7993128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A21-354A-9417-BFE01CA5D636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RSS Used Memory</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Memory &amp; CPU'!$C$86:$C$157</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>44158.999997503597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44159.000196712506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44159.00039615672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44159.000600774307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44159.000799996764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44159.000999395605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44159.001202845488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44159.001402309492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44159.001601754055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44159.001804937732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44159.002004151618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44159.002203721764</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44159.002407025117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44159.002606519331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44159.002805860764</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44159.003009132757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44159.003208521644</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44159.003407812852</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44159.003611215747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44159.003810534028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44159.004009966207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44159.004213326509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44159.004412724076</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44159.004612406607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159.004815413544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44159.005014712391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44159.005214156139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44159.005417495027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44159.005616901391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44159.005816192475</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44159.006019580447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44159.006219122457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44159.006418710771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44159.006621656947</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44159.006820721064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44159.007020228943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44159.00722372489</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44159.007423159383</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44159.007622405676</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44159.007825812965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44159.008025155905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44159.008224570956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44159.008427900924</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159.008627077666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159.008826367943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44159.009029972571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44159.009229533105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44159.009429021535</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44159.009632076508</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44159.009831340511</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44159.010030713544</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44159.010234158566</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44159.010433553827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44159.010633050355</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44159.010836230213</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44159.011035726973</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44159.011234942365</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44159.011438322916</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44159.011637859032</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44159.011837398262</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44159.012040403592</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44159.012240002317</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44159.01243906968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44159.0126424845</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44159.012841792712</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44159.013041091901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44159.013244554284</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44159.013443925585</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44159.013643341204</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44159.013846637157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44159.014045897107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44159.014245323269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory &amp; CPU'!$Q$86:$Q$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>6610944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6598656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7032832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7286784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7532544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7753728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7753728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8015872</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8237056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8503296</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8761344</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8749056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9179136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9383936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9613312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9871360</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9863168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10117120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10371072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10625024</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10870784</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10862592</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11116544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11370496</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11804672</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12001280</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12001280</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12263424</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12529664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12881920</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12902400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13111296</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13324288</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13578240</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13824000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14077952</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14069760</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14065664</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14057472</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14057472</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14045184</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14032896</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14024704</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14024704</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14008320</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14118912</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14118912</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14114816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14114816</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13873152</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13950976</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13905920</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13860864</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13950976</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14057472</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13893632</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13996032</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14094336</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13934592</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14012416</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>13910016</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13893632</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13893632</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13873152</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13860864</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14118912</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14118912</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14106624</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14098432</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14098432</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14098432</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14090240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A21-354A-9417-BFE01CA5D636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Dataset Used Memory</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Memory &amp; CPU'!$C$86:$C$157</c:f>
+              <c:numCache>
+                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+                  <mc:Choice Requires="c16r2">
+                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
+                  </mc:Choice>
+                  <mc:Fallback>
+                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
+                  </mc:Fallback>
+                </mc:AlternateContent>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>44158.999997503597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44159.000196712506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44159.00039615672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44159.000600774307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44159.000799996764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44159.000999395605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44159.001202845488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44159.001402309492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44159.001601754055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44159.001804937732</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44159.002004151618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44159.002203721764</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44159.002407025117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44159.002606519331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44159.002805860764</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44159.003009132757</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44159.003208521644</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44159.003407812852</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44159.003611215747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44159.003810534028</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44159.004009966207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44159.004213326509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44159.004412724076</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44159.004612406607</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44159.004815413544</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44159.005014712391</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44159.005214156139</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44159.005417495027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44159.005616901391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44159.005816192475</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44159.006019580447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44159.006219122457</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44159.006418710771</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44159.006621656947</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44159.006820721064</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44159.007020228943</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44159.00722372489</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44159.007423159383</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44159.007622405676</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44159.007825812965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44159.008025155905</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44159.008224570956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44159.008427900924</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159.008627077666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44159.008826367943</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44159.009029972571</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44159.009229533105</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44159.009429021535</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44159.009632076508</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44159.009831340511</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44159.010030713544</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44159.010234158566</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44159.010433553827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44159.010633050355</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44159.010836230213</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44159.011035726973</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44159.011234942365</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44159.011438322916</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44159.011637859032</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44159.011837398262</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44159.012040403592</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44159.012240002317</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44159.01243906968</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44159.0126424845</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44159.012841792712</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44159.013041091901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44159.013244554284</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44159.013443925585</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44159.013643341204</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44159.013846637157</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44159.014045897107</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44159.014245323269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Memory &amp; CPU'!$R$86:$R$157</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>66030</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>113038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>442510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>653780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>834884</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1017572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1155310</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1387398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1572198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1761222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1954998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2145606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2337270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2532102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2723238</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2911734</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3101814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3294006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3428258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3681030</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3872694</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4066470</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4221406</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4412014</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4646214</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4842630</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5036406</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5175184</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5389644</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5623316</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5812566</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5953682</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6166030</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6360334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6529822</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6574764</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6574764</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6574764</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6529814</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6570766</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6512826</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6574764</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6533812</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6533804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A21-354A-9417-BFE01CA5D636}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1553195167"/>
+        <c:axId val="1553196815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1553195167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$]mm:ss;@" c16r2:formatcode2="[$-en-PT,1]mm:ss;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-3720000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -12489,1797 +14308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Redis Encrypted Memory Usage</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Used Memory</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Memory &amp; CPU'!$C$86:$C$157</c:f>
-              <c:numCache>
-                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-                  <mc:Choice Requires="c16r2">
-                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
-                  </mc:Choice>
-                  <mc:Fallback>
-                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
-                  </mc:Fallback>
-                </mc:AlternateContent>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>44158.999997503597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44159.000196712506</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44159.00039615672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44159.000600774307</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44159.000799996764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44159.000999395605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44159.001202845488</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44159.001402309492</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44159.001601754055</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44159.001804937732</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44159.002004151618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44159.002203721764</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44159.002407025117</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44159.002606519331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44159.002805860764</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44159.003009132757</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44159.003208521644</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44159.003407812852</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44159.003611215747</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44159.003810534028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44159.004009966207</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44159.004213326509</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44159.004412724076</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44159.004612406607</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44159.004815413544</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44159.005014712391</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44159.005214156139</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44159.005417495027</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44159.005616901391</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44159.005816192475</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44159.006019580447</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44159.006219122457</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44159.006418710771</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44159.006621656947</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44159.006820721064</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44159.007020228943</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44159.00722372489</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44159.007423159383</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44159.007622405676</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44159.007825812965</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44159.008025155905</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44159.008224570956</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44159.008427900924</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44159.008627077666</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44159.008826367943</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44159.009029972571</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44159.009229533105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44159.009429021535</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44159.009632076508</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44159.009831340511</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44159.010030713544</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44159.010234158566</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44159.010433553827</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44159.010633050355</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44159.010836230213</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44159.011035726973</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44159.011234942365</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44159.011438322916</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44159.011637859032</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44159.011837398262</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44159.012040403592</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44159.012240002317</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44159.01243906968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44159.0126424845</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44159.012841792712</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44159.013041091901</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44159.013244554284</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44159.013443925585</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44159.013643341204</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44159.013846637157</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44159.014045897107</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44159.014245323269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Memory &amp; CPU'!$P$86:$P$157</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>887616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>939208</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1118928</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300808</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1549856</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1744680</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1941208</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2092184</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2338752</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2537552</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2740896</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2949352</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3154400</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3393352</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3602944</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3808560</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4011336</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4215816</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4422568</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4588368</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4838912</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5045096</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5253552</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5423328</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5693912</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5942752</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6154048</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6362504</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6549856</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6762288</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7010560</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7197464</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7370648</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7580808</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7789832</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7972160</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8034088</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8034088</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8034088</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8013104</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7972152</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8034088</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7993136</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7993128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9A21-354A-9417-BFE01CA5D636}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>RSS Used Memory</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Memory &amp; CPU'!$C$86:$C$157</c:f>
-              <c:numCache>
-                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-                  <mc:Choice Requires="c16r2">
-                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
-                  </mc:Choice>
-                  <mc:Fallback>
-                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
-                  </mc:Fallback>
-                </mc:AlternateContent>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>44158.999997503597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44159.000196712506</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44159.00039615672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44159.000600774307</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44159.000799996764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44159.000999395605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44159.001202845488</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44159.001402309492</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44159.001601754055</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44159.001804937732</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44159.002004151618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44159.002203721764</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44159.002407025117</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44159.002606519331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44159.002805860764</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44159.003009132757</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44159.003208521644</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44159.003407812852</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44159.003611215747</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44159.003810534028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44159.004009966207</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44159.004213326509</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44159.004412724076</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44159.004612406607</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44159.004815413544</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44159.005014712391</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44159.005214156139</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44159.005417495027</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44159.005616901391</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44159.005816192475</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44159.006019580447</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44159.006219122457</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44159.006418710771</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44159.006621656947</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44159.006820721064</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44159.007020228943</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44159.00722372489</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44159.007423159383</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44159.007622405676</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44159.007825812965</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44159.008025155905</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44159.008224570956</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44159.008427900924</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44159.008627077666</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44159.008826367943</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44159.009029972571</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44159.009229533105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44159.009429021535</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44159.009632076508</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44159.009831340511</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44159.010030713544</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44159.010234158566</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44159.010433553827</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44159.010633050355</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44159.010836230213</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44159.011035726973</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44159.011234942365</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44159.011438322916</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44159.011637859032</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44159.011837398262</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44159.012040403592</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44159.012240002317</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44159.01243906968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44159.0126424845</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44159.012841792712</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44159.013041091901</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44159.013244554284</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44159.013443925585</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44159.013643341204</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44159.013846637157</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44159.014045897107</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44159.014245323269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Memory &amp; CPU'!$Q$86:$Q$157</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>6610944</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6598656</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7032832</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7286784</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7532544</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7753728</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7753728</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8015872</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8237056</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8503296</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8761344</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8749056</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9179136</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9383936</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9613312</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9871360</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9863168</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10117120</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10371072</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10625024</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10870784</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10862592</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11116544</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11370496</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11804672</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12001280</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12001280</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12263424</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12529664</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12881920</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12902400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>13111296</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>13324288</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13578240</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>13824000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14077952</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14069760</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14065664</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14057472</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14057472</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14045184</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14032896</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14024704</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14024704</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14008320</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14118912</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14118912</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14114816</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14114816</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>13873152</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>13950976</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>13905920</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>13860864</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13950976</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>14057472</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>13893632</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>13996032</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14094336</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>13934592</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14012416</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>13910016</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13893632</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>13893632</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>13873152</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>13860864</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14118912</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14118912</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14106624</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>14098432</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>14098432</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14098432</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14090240</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9A21-354A-9417-BFE01CA5D636}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Dataset Used Memory</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Memory &amp; CPU'!$C$86:$C$157</c:f>
-              <c:numCache>
-                <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-                  <mc:Choice Requires="c16r2">
-                    <c16r2:formatcode2>[$-en-PT,1]hh:mm:ss;@</c16r2:formatcode2>
-                  </mc:Choice>
-                  <mc:Fallback>
-                    <c:formatCode>[$]hh:mm:ss;@</c:formatCode>
-                  </mc:Fallback>
-                </mc:AlternateContent>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>44158.999997503597</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44159.000196712506</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44159.00039615672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44159.000600774307</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44159.000799996764</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44159.000999395605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44159.001202845488</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44159.001402309492</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44159.001601754055</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44159.001804937732</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44159.002004151618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44159.002203721764</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44159.002407025117</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44159.002606519331</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44159.002805860764</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>44159.003009132757</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44159.003208521644</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>44159.003407812852</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44159.003611215747</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>44159.003810534028</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44159.004009966207</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>44159.004213326509</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>44159.004412724076</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>44159.004612406607</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>44159.004815413544</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44159.005014712391</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44159.005214156139</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>44159.005417495027</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>44159.005616901391</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>44159.005816192475</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>44159.006019580447</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>44159.006219122457</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44159.006418710771</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44159.006621656947</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44159.006820721064</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>44159.007020228943</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44159.00722372489</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>44159.007423159383</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>44159.007622405676</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44159.007825812965</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44159.008025155905</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>44159.008224570956</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44159.008427900924</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44159.008627077666</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44159.008826367943</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44159.009029972571</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>44159.009229533105</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>44159.009429021535</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>44159.009632076508</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44159.009831340511</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>44159.010030713544</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>44159.010234158566</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>44159.010433553827</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>44159.010633050355</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>44159.010836230213</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>44159.011035726973</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>44159.011234942365</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>44159.011438322916</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>44159.011637859032</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>44159.011837398262</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>44159.012040403592</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>44159.012240002317</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44159.01243906968</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>44159.0126424845</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>44159.012841792712</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>44159.013041091901</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44159.013244554284</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>44159.013443925585</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>44159.013643341204</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44159.013846637157</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>44159.014045897107</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>44159.014245323269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Memory &amp; CPU'!$R$86:$R$157</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>66030</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>113038</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>277246</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>442510</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>653780</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>834884</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1017572</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1155310</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1387398</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1572198</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1761222</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1954998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2145606</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2337270</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2532102</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2723238</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2911734</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3101814</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3294006</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3428258</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3681030</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3872694</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4066470</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4221406</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4412014</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4646214</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4842630</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5036406</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5175184</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5389644</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5623316</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5812566</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5953682</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6166030</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6360334</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6529822</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6574764</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6574764</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6574764</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6529814</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6570766</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6512826</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6574764</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6533812</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6533804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9A21-354A-9417-BFE01CA5D636}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1553195167"/>
-        <c:axId val="1553196815"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1553195167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1553196815"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1553196815"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
-                  <a:t>Memory (MB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-PT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1553195167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="millions"/>
-        </c:dispUnits>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -17902,7 +17931,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -17915,14 +17944,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>Redis</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> Benchmark Throughput</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -17939,7 +17968,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -18002,7 +18031,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -18110,6 +18139,69 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3777265017625679E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7213-8045-BEFB-6F997049A61D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.2055106890422405E-2"/>
+                  <c:y val="3.8312107319754007E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7213-8045-BEFB-6F997049A61D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3777265017625679E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7213-8045-BEFB-6F997049A61D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -18125,7 +18217,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -18233,6 +18325,69 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8886325088128395E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-7213-8045-BEFB-6F997049A61D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.610790636016049E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7213-8045-BEFB-6F997049A61D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.8886325088128395E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7213-8045-BEFB-6F997049A61D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -18248,7 +18403,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -18416,7 +18571,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -18429,14 +18584,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Operations</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
                   <a:t> Per Second</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1200"/>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -18453,7 +18608,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -18485,7 +18640,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -18513,7 +18668,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18527,7 +18682,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -19252,7 +19407,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -19265,14 +19420,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>Redis</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> Benchmark Latency</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -19289,7 +19444,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -19352,7 +19507,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -19475,7 +19630,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -19598,7 +19753,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -19766,7 +19921,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -19779,14 +19934,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
-                  <a:t>Operations</a:t>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Latency (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
-                  <a:t> Per Second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -19803,7 +19953,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -19835,7 +19985,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -19863,7 +20013,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19877,7 +20027,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -21425,7 +21575,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -21438,14 +21588,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="1600"/>
               <a:t>Redis</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="1600" baseline="0"/>
               <a:t> Benchmark Latency</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -21462,7 +21612,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -21525,7 +21675,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -21648,7 +21798,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -21771,7 +21921,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -21939,7 +22089,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -21952,14 +22102,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
-                  <a:t>Operations</a:t>
+                  <a:rPr lang="en-GB" sz="1600"/>
+                  <a:t>Latency (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
-                  <a:t> Per Second</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-GB" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -21976,7 +22121,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -22008,7 +22153,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -22036,7 +22181,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22050,7 +22195,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -22226,7 +22371,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -22412,7 +22557,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -22601,7 +22746,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -22770,7 +22915,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -22783,14 +22928,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200"/>
+                  <a:rPr lang="en-GB" sz="1600"/>
                   <a:t>Operations</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="1600" baseline="0"/>
                   <a:t> Per Second</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1200"/>
+                <a:endParaRPr lang="en-GB" sz="1600"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -22807,7 +22952,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -22839,7 +22984,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -22867,7 +23012,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22881,7 +23026,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -23421,7 +23566,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
+        <c:numFmt formatCode="[$]mm:ss;@" c16r2:formatcode2="[$-en-PT,1]mm:ss;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -23439,7 +23584,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-3720000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -24151,7 +24296,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="[$]hh:mm:ss;@" c16r2:formatcode2="[$-en-PT,1]hh:mm:ss;@" sourceLinked="1"/>
+        <c:numFmt formatCode="[$]mm:ss;@" c16r2:formatcode2="[$-en-PT,1]mm:ss;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -24169,7 +24314,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-3720000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -35400,15 +35545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>594753</xdr:colOff>
+      <xdr:colOff>594754</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>28231</xdr:rowOff>
+      <xdr:rowOff>28230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>560888</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>19160</xdr:rowOff>
+      <xdr:colOff>43296</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145409</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35437,14 +35582,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>589561</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>101606</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>173765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>555696</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>15246</xdr:rowOff>
+      <xdr:colOff>34825</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>189344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35552,14 +35697,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>201340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>667175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>82369</xdr:rowOff>
+      <xdr:colOff>346035</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>92604</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35595,9 +35740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>667175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133169</xdr:rowOff>
+      <xdr:colOff>346035</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -36149,23 +36294,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_5" connectionId="4" xr16:uid="{F7C01357-A0B7-9C46-A14F-E3A5D11E2DD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_1" connectionId="5" xr16:uid="{83893D2E-64E6-4141-91BF-17E4FBF6D821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_2" connectionId="1" xr16:uid="{EE16474F-CCD2-364B-A607-51BAF623E71C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_3" connectionId="2" xr16:uid="{493998F8-C237-CC45-95DE-DE52776EC4BA}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tests_6" connectionId="6" xr16:uid="{F0609839-D860-594D-A6DC-121FFC03226C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36467,8 +36612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF65E5F0-7FEC-2D44-A2C2-0F5F83647661}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="G40" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView topLeftCell="F30" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36526,17 +36671,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="168"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -36568,7 +36713,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="163">
+      <c r="B13" s="175">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -36597,7 +36742,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="164"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -36624,7 +36769,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="164"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -36651,7 +36796,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="169"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -36678,7 +36823,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="163">
+      <c r="B17" s="175">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -36707,7 +36852,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="164"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -36734,7 +36879,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="164"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -36761,7 +36906,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="169"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -36788,7 +36933,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="163">
+      <c r="B21" s="175">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -36817,7 +36962,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="164"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -36844,7 +36989,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="164"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -36871,7 +37016,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="169"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -36898,7 +37043,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="163">
+      <c r="B25" s="175">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -36927,7 +37072,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="164"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -36954,7 +37099,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="164"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -36981,7 +37126,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="169"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -37008,7 +37153,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="163">
+      <c r="B29" s="175">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -37037,7 +37182,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="164"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -37064,7 +37209,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="164"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -37091,7 +37236,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="165"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -37118,7 +37263,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="169" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="16" t="s">
@@ -37154,7 +37299,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="164"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -37188,7 +37333,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="164"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -37222,7 +37367,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="165"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -37258,17 +37403,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="168"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -37300,7 +37445,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="163">
+      <c r="B41" s="175">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -37329,7 +37474,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="164"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -37356,7 +37501,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="164"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -37383,7 +37528,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="169"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -37410,7 +37555,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="163">
+      <c r="B45" s="175">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -37439,7 +37584,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="164"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -37466,7 +37611,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="164"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -37493,7 +37638,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="169"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -37520,7 +37665,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="163">
+      <c r="B49" s="175">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -37549,7 +37694,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="164"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -37576,7 +37721,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="164"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -37603,7 +37748,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="169"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -37630,7 +37775,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="163">
+      <c r="B53" s="175">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -37659,7 +37804,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="164"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -37686,7 +37831,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="164"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -37713,7 +37858,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="169"/>
+      <c r="B56" s="176"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -37740,7 +37885,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="163">
+      <c r="B57" s="175">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -37769,7 +37914,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="164"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -37796,7 +37941,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="164"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -37823,7 +37968,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="165"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -37850,7 +37995,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="170" t="s">
+      <c r="B61" s="169" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -37886,7 +38031,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="164"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -37920,7 +38065,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="164"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -37954,7 +38099,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="165"/>
+      <c r="B64" s="171"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -37989,17 +38134,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
-      <c r="J66" s="168"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="173"/>
+      <c r="F66" s="173"/>
+      <c r="G66" s="173"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="174"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -38031,7 +38176,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="163">
+      <c r="B68" s="175">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -38060,7 +38205,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="164"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -38087,7 +38232,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="164"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -38114,7 +38259,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="169"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -38141,7 +38286,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="163">
+      <c r="B72" s="175">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -38170,7 +38315,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="164"/>
+      <c r="B73" s="170"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -38197,7 +38342,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="164"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -38224,7 +38369,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="169"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -38251,7 +38396,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="163">
+      <c r="B76" s="175">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -38280,7 +38425,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="164"/>
+      <c r="B77" s="170"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -38307,7 +38452,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="164"/>
+      <c r="B78" s="170"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -38334,7 +38479,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="169"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -38361,7 +38506,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="163">
+      <c r="B80" s="175">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -38390,7 +38535,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="164"/>
+      <c r="B81" s="170"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -38417,7 +38562,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="164"/>
+      <c r="B82" s="170"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -38444,7 +38589,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
+      <c r="B83" s="176"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -38471,7 +38616,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="163">
+      <c r="B84" s="175">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -38500,7 +38645,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="164"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -38527,7 +38672,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="164"/>
+      <c r="B86" s="170"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -38554,7 +38699,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="165"/>
+      <c r="B87" s="171"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -38581,7 +38726,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="170" t="s">
+      <c r="B88" s="169" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="16" t="s">
@@ -38617,7 +38762,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="164"/>
+      <c r="B89" s="170"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -38651,7 +38796,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="164"/>
+      <c r="B90" s="170"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -38685,7 +38830,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="165"/>
+      <c r="B91" s="171"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -38721,6 +38866,12 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
     <mergeCell ref="B61:B64"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="B88:B91"/>
@@ -38736,12 +38887,6 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38752,8 +38897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1D7AB5-56EB-A14B-8A61-C582BDE41FCF}">
   <dimension ref="B2:J92"/>
   <sheetViews>
-    <sheetView topLeftCell="Q4" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
+    <sheetView topLeftCell="O16" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38811,17 +38956,17 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="168"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="173"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="26" t="s">
@@ -38853,7 +38998,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="163">
+      <c r="B13" s="175">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -38882,7 +39027,7 @@
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="164"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
@@ -38909,7 +39054,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="164"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -38936,7 +39081,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="169"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="10" t="s">
         <v>17</v>
       </c>
@@ -38963,7 +39108,7 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="163">
+      <c r="B17" s="175">
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -38992,7 +39137,7 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="164"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="9" t="s">
         <v>15</v>
       </c>
@@ -39019,7 +39164,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="164"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
@@ -39046,7 +39191,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="169"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="10" t="s">
         <v>17</v>
       </c>
@@ -39073,7 +39218,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="163">
+      <c r="B21" s="175">
         <v>3</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -39102,7 +39247,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="164"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="9" t="s">
         <v>15</v>
       </c>
@@ -39129,7 +39274,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="164"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="9" t="s">
         <v>16</v>
       </c>
@@ -39156,7 +39301,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="169"/>
+      <c r="B24" s="176"/>
       <c r="C24" s="10" t="s">
         <v>17</v>
       </c>
@@ -39183,7 +39328,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="163">
+      <c r="B25" s="175">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -39212,7 +39357,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="164"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="9" t="s">
         <v>15</v>
       </c>
@@ -39239,7 +39384,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="164"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
@@ -39266,7 +39411,7 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="169"/>
+      <c r="B28" s="176"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -39293,7 +39438,7 @@
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="163">
+      <c r="B29" s="175">
         <v>5</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -39322,7 +39467,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="164"/>
+      <c r="B30" s="170"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
       </c>
@@ -39349,7 +39494,7 @@
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="164"/>
+      <c r="B31" s="170"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
       </c>
@@ -39376,7 +39521,7 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="165"/>
+      <c r="B32" s="171"/>
       <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
@@ -39403,7 +39548,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="170" t="s">
+      <c r="B33" s="169" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -39439,7 +39584,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="164"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="9" t="s">
         <v>15</v>
       </c>
@@ -39473,7 +39618,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="164"/>
+      <c r="B35" s="170"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
       </c>
@@ -39507,7 +39652,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="165"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="14" t="s">
         <v>21</v>
       </c>
@@ -39543,17 +39688,17 @@
     <row r="37" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="168"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
     </row>
     <row r="40" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="26" t="s">
@@ -39585,7 +39730,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="163">
+      <c r="B41" s="175">
         <v>1</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -39614,7 +39759,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="164"/>
+      <c r="B42" s="170"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
       </c>
@@ -39641,7 +39786,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="164"/>
+      <c r="B43" s="170"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
@@ -39668,7 +39813,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="169"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="10" t="s">
         <v>17</v>
       </c>
@@ -39695,7 +39840,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="163">
+      <c r="B45" s="175">
         <v>2</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -39724,7 +39869,7 @@
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="164"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="9" t="s">
         <v>15</v>
       </c>
@@ -39751,7 +39896,7 @@
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="164"/>
+      <c r="B47" s="170"/>
       <c r="C47" s="9" t="s">
         <v>16</v>
       </c>
@@ -39778,7 +39923,7 @@
       </c>
     </row>
     <row r="48" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="169"/>
+      <c r="B48" s="176"/>
       <c r="C48" s="10" t="s">
         <v>17</v>
       </c>
@@ -39805,7 +39950,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="163">
+      <c r="B49" s="175">
         <v>3</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -39834,7 +39979,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="164"/>
+      <c r="B50" s="170"/>
       <c r="C50" s="9" t="s">
         <v>15</v>
       </c>
@@ -39861,7 +40006,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="164"/>
+      <c r="B51" s="170"/>
       <c r="C51" s="9" t="s">
         <v>16</v>
       </c>
@@ -39888,7 +40033,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="169"/>
+      <c r="B52" s="176"/>
       <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
@@ -39915,7 +40060,7 @@
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="163">
+      <c r="B53" s="175">
         <v>4</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -39944,7 +40089,7 @@
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="164"/>
+      <c r="B54" s="170"/>
       <c r="C54" s="9" t="s">
         <v>15</v>
       </c>
@@ -39971,7 +40116,7 @@
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="164"/>
+      <c r="B55" s="170"/>
       <c r="C55" s="9" t="s">
         <v>16</v>
       </c>
@@ -39998,7 +40143,7 @@
       </c>
     </row>
     <row r="56" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="169"/>
+      <c r="B56" s="176"/>
       <c r="C56" s="10" t="s">
         <v>17</v>
       </c>
@@ -40025,7 +40170,7 @@
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="163">
+      <c r="B57" s="175">
         <v>5</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -40054,7 +40199,7 @@
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="164"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="9" t="s">
         <v>15</v>
       </c>
@@ -40081,7 +40226,7 @@
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="164"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="9" t="s">
         <v>16</v>
       </c>
@@ -40108,7 +40253,7 @@
       </c>
     </row>
     <row r="60" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="165"/>
+      <c r="B60" s="171"/>
       <c r="C60" s="14" t="s">
         <v>17</v>
       </c>
@@ -40135,7 +40280,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="170" t="s">
+      <c r="B61" s="169" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -40171,7 +40316,7 @@
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="164"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="9" t="s">
         <v>15</v>
       </c>
@@ -40205,7 +40350,7 @@
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="164"/>
+      <c r="B63" s="170"/>
       <c r="C63" s="9" t="s">
         <v>16</v>
       </c>
@@ -40239,7 +40384,7 @@
       </c>
     </row>
     <row r="64" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="165"/>
+      <c r="B64" s="171"/>
       <c r="C64" s="14" t="s">
         <v>17</v>
       </c>
@@ -40274,17 +40419,17 @@
     </row>
     <row r="65" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="66" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="172" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
-      <c r="J66" s="168"/>
+      <c r="C66" s="173"/>
+      <c r="D66" s="173"/>
+      <c r="E66" s="173"/>
+      <c r="F66" s="173"/>
+      <c r="G66" s="173"/>
+      <c r="H66" s="173"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="174"/>
     </row>
     <row r="67" spans="2:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="26" t="s">
@@ -40316,7 +40461,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="163">
+      <c r="B68" s="175">
         <v>1</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -40345,7 +40490,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="164"/>
+      <c r="B69" s="170"/>
       <c r="C69" s="9" t="s">
         <v>15</v>
       </c>
@@ -40372,7 +40517,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="164"/>
+      <c r="B70" s="170"/>
       <c r="C70" s="9" t="s">
         <v>16</v>
       </c>
@@ -40399,7 +40544,7 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="169"/>
+      <c r="B71" s="176"/>
       <c r="C71" s="10" t="s">
         <v>17</v>
       </c>
@@ -40426,7 +40571,7 @@
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="163">
+      <c r="B72" s="175">
         <v>2</v>
       </c>
       <c r="C72" s="8" t="s">
@@ -40455,7 +40600,7 @@
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="164"/>
+      <c r="B73" s="170"/>
       <c r="C73" s="9" t="s">
         <v>15</v>
       </c>
@@ -40482,7 +40627,7 @@
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="164"/>
+      <c r="B74" s="170"/>
       <c r="C74" s="9" t="s">
         <v>16</v>
       </c>
@@ -40509,7 +40654,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="169"/>
+      <c r="B75" s="176"/>
       <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
@@ -40536,7 +40681,7 @@
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="163">
+      <c r="B76" s="175">
         <v>3</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -40565,7 +40710,7 @@
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="164"/>
+      <c r="B77" s="170"/>
       <c r="C77" s="9" t="s">
         <v>15</v>
       </c>
@@ -40592,7 +40737,7 @@
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="164"/>
+      <c r="B78" s="170"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
       </c>
@@ -40619,7 +40764,7 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="169"/>
+      <c r="B79" s="176"/>
       <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
@@ -40646,7 +40791,7 @@
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="163">
+      <c r="B80" s="175">
         <v>4</v>
       </c>
       <c r="C80" s="8" t="s">
@@ -40675,7 +40820,7 @@
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="164"/>
+      <c r="B81" s="170"/>
       <c r="C81" s="9" t="s">
         <v>15</v>
       </c>
@@ -40702,7 +40847,7 @@
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="164"/>
+      <c r="B82" s="170"/>
       <c r="C82" s="9" t="s">
         <v>16</v>
       </c>
@@ -40729,7 +40874,7 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="169"/>
+      <c r="B83" s="176"/>
       <c r="C83" s="10" t="s">
         <v>17</v>
       </c>
@@ -40756,7 +40901,7 @@
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="163">
+      <c r="B84" s="175">
         <v>5</v>
       </c>
       <c r="C84" s="8" t="s">
@@ -40785,7 +40930,7 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="164"/>
+      <c r="B85" s="170"/>
       <c r="C85" s="9" t="s">
         <v>15</v>
       </c>
@@ -40812,7 +40957,7 @@
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="164"/>
+      <c r="B86" s="170"/>
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -40839,7 +40984,7 @@
       </c>
     </row>
     <row r="87" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="165"/>
+      <c r="B87" s="171"/>
       <c r="C87" s="14" t="s">
         <v>17</v>
       </c>
@@ -40866,7 +41011,7 @@
       </c>
     </row>
     <row r="88" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="170" t="s">
+      <c r="B88" s="169" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="8" t="s">
@@ -40902,7 +41047,7 @@
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="164"/>
+      <c r="B89" s="170"/>
       <c r="C89" s="9" t="s">
         <v>15</v>
       </c>
@@ -40936,7 +41081,7 @@
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="164"/>
+      <c r="B90" s="170"/>
       <c r="C90" s="9" t="s">
         <v>16</v>
       </c>
@@ -40970,7 +41115,7 @@
       </c>
     </row>
     <row r="91" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="165"/>
+      <c r="B91" s="171"/>
       <c r="C91" s="14" t="s">
         <v>17</v>
       </c>
@@ -41006,15 +41151,6 @@
     <row r="92" spans="2:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B76:B79"/>
     <mergeCell ref="B53:B56"/>
     <mergeCell ref="B11:J11"/>
     <mergeCell ref="B13:B16"/>
@@ -41027,6 +41163,15 @@
     <mergeCell ref="B41:B44"/>
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41062,16 +41207,16 @@
     <row r="1" spans="6:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F2" s="55"/>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="177"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="183"/>
     </row>
     <row r="3" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F3" s="56"/>
@@ -41247,31 +41392,31 @@
     <row r="14" spans="6:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F15" s="36"/>
-      <c r="G15" s="174" t="s">
+      <c r="G15" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="177"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="182"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="183"/>
     </row>
     <row r="16" spans="6:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F16" s="36"/>
-      <c r="G16" s="171" t="s">
+      <c r="G16" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="174" t="s">
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
+      <c r="K16" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="L16" s="175"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="177"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="183"/>
     </row>
     <row r="17" spans="6:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F17" s="36"/>
@@ -41512,8 +41657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED086EA8-21A2-AA4E-8784-EC5D248DD200}">
   <dimension ref="C3:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="I49" zoomScale="125" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78"/>
+    <sheetView tabSelected="1" topLeftCell="G50" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -41531,27 +41676,27 @@
   <sheetData>
     <row r="3" spans="3:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="174" t="s">
+      <c r="C4" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="179"/>
-      <c r="K4" s="166" t="s">
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="185"/>
+      <c r="K4" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="168"/>
-      <c r="N4" s="166" t="s">
+      <c r="L4" s="174"/>
+      <c r="N4" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="168"/>
-      <c r="Q4" s="166" t="s">
+      <c r="O4" s="174"/>
+      <c r="Q4" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="R4" s="168"/>
+      <c r="R4" s="174"/>
     </row>
     <row r="5" spans="3:18" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="42" t="s">
@@ -42001,18 +42146,18 @@
     </row>
     <row r="39" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="166" t="s">
+      <c r="L40" s="172" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="168"/>
-      <c r="O40" s="166" t="s">
+      <c r="M40" s="174"/>
+      <c r="O40" s="172" t="s">
         <v>69</v>
       </c>
-      <c r="P40" s="168"/>
-      <c r="R40" s="166" t="s">
+      <c r="P40" s="174"/>
+      <c r="R40" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="S40" s="168"/>
+      <c r="S40" s="174"/>
     </row>
     <row r="41" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L41" s="88" t="s">
@@ -42135,15 +42280,15 @@
       </c>
     </row>
     <row r="47" spans="3:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="174" t="s">
+      <c r="C47" s="180" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="179"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="185"/>
       <c r="L47" s="74">
         <v>1.736111111111111E-3</v>
       </c>
@@ -42368,8 +42513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07C94FA-5716-C64B-A50C-F7393C7D3918}">
   <dimension ref="E5:AL61"/>
   <sheetViews>
-    <sheetView topLeftCell="Z32" zoomScale="181" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="AJ43" sqref="AJ43"/>
+    <sheetView topLeftCell="S28" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AI54" sqref="AI54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42387,15 +42532,15 @@
   <sheetData>
     <row r="5" spans="5:38" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="174" t="s">
+      <c r="E6" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="178"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="179"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="185"/>
     </row>
     <row r="7" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E7" s="71" t="s">
@@ -42419,14 +42564,14 @@
       <c r="K7" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="180" t="s">
+      <c r="O7" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="181"/>
-      <c r="AB7" s="180" t="s">
+      <c r="P7" s="187"/>
+      <c r="AB7" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="AC7" s="181"/>
+      <c r="AC7" s="187"/>
     </row>
     <row r="8" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E8" s="61" t="s">
@@ -42473,38 +42618,38 @@
       <c r="K9" s="53">
         <v>2.0348259999999998</v>
       </c>
-      <c r="O9" s="166" t="s">
+      <c r="O9" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="168"/>
-      <c r="R9" s="166" t="s">
+      <c r="P9" s="174"/>
+      <c r="R9" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="S9" s="168"/>
-      <c r="U9" s="166" t="s">
+      <c r="S9" s="174"/>
+      <c r="U9" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="V9" s="168"/>
-      <c r="X9" s="166" t="s">
+      <c r="V9" s="174"/>
+      <c r="X9" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="168"/>
-      <c r="AB9" s="166" t="s">
+      <c r="Y9" s="174"/>
+      <c r="AB9" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="168"/>
-      <c r="AE9" s="166" t="s">
+      <c r="AC9" s="174"/>
+      <c r="AE9" s="172" t="s">
         <v>59</v>
       </c>
-      <c r="AF9" s="168"/>
-      <c r="AH9" s="166" t="s">
+      <c r="AF9" s="174"/>
+      <c r="AH9" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="AI9" s="168"/>
-      <c r="AK9" s="166" t="s">
+      <c r="AI9" s="174"/>
+      <c r="AK9" s="172" t="s">
         <v>61</v>
       </c>
-      <c r="AL9" s="168"/>
+      <c r="AL9" s="174"/>
     </row>
     <row r="10" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E10" s="63" t="s">
@@ -42994,15 +43139,15 @@
       </c>
     </row>
     <row r="17" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="174" t="s">
+      <c r="E17" s="180" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="185"/>
       <c r="O17" s="75">
         <v>2.0833333333333333E-3</v>
       </c>
@@ -43753,15 +43898,15 @@
       </c>
     </row>
     <row r="28" spans="5:38" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E28" s="174" t="s">
+      <c r="E28" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="178"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="185"/>
       <c r="O28" s="74">
         <v>5.9027777777777802E-3</v>
       </c>
@@ -44175,15 +44320,15 @@
     </row>
     <row r="38" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="174" t="s">
+      <c r="E39" s="180" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="179"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="185"/>
     </row>
     <row r="40" spans="5:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E40" s="71" t="s">
@@ -44405,15 +44550,15 @@
     </row>
     <row r="49" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E50" s="174" t="s">
+      <c r="E50" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="178"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="179"/>
+      <c r="F50" s="184"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="184"/>
+      <c r="I50" s="184"/>
+      <c r="J50" s="184"/>
+      <c r="K50" s="185"/>
     </row>
     <row r="51" spans="5:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E51" s="71" t="s">
@@ -44577,21 +44722,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="E50:K50"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="AB7:AC7"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="AE9:AF9"/>
     <mergeCell ref="AH9:AI9"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="E28:K28"/>
     <mergeCell ref="E39:K39"/>
-    <mergeCell ref="AB7:AC7"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="E50:K50"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="X9:Y9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -44602,8 +44747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD9F577-4566-DA43-8E5B-B8803065B2BC}">
   <dimension ref="C5:AC45"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView topLeftCell="L25" workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44622,65 +44767,65 @@
   <sheetData>
     <row r="5" spans="3:29" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M6" s="188" t="s">
+      <c r="M6" s="190" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="167"/>
-      <c r="O6" s="178"/>
-      <c r="P6" s="178"/>
-      <c r="Q6" s="178"/>
-      <c r="R6" s="178"/>
-      <c r="S6" s="178"/>
-      <c r="T6" s="179"/>
-      <c r="V6" s="188" t="s">
+      <c r="N6" s="173"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="185"/>
+      <c r="V6" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="W6" s="167"/>
-      <c r="X6" s="178"/>
-      <c r="Y6" s="178"/>
-      <c r="Z6" s="178"/>
-      <c r="AA6" s="178"/>
-      <c r="AB6" s="178"/>
-      <c r="AC6" s="179"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="184"/>
+      <c r="Y6" s="184"/>
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="184"/>
+      <c r="AB6" s="184"/>
+      <c r="AC6" s="185"/>
     </row>
     <row r="7" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="182" t="s">
+      <c r="C7" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="183"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
-      <c r="M7" s="186" t="s">
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="193"/>
+      <c r="M7" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="187"/>
+      <c r="N7" s="189"/>
       <c r="O7" s="80"/>
-      <c r="P7" s="186" t="s">
+      <c r="P7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="187"/>
+      <c r="Q7" s="189"/>
       <c r="R7" s="80"/>
-      <c r="S7" s="186" t="s">
+      <c r="S7" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="187"/>
-      <c r="V7" s="186" t="s">
+      <c r="T7" s="189"/>
+      <c r="V7" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="W7" s="187"/>
+      <c r="W7" s="189"/>
       <c r="X7" s="80"/>
-      <c r="Y7" s="186" t="s">
+      <c r="Y7" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="Z7" s="187"/>
+      <c r="Z7" s="189"/>
       <c r="AA7" s="80"/>
-      <c r="AB7" s="186" t="s">
+      <c r="AB7" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="AC7" s="187"/>
+      <c r="AC7" s="189"/>
     </row>
     <row r="8" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C8" s="97" t="s">
@@ -45303,15 +45448,15 @@
       </c>
     </row>
     <row r="18" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="182" t="s">
+      <c r="C18" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="184"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
       <c r="M18" s="74">
         <v>3.1250000000000002E-3</v>
       </c>
@@ -45978,15 +46123,15 @@
       </c>
     </row>
     <row r="29" spans="3:29" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="182" t="s">
+      <c r="C29" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="185"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="194"/>
       <c r="M29" s="75">
         <v>6.9444444444444397E-3</v>
       </c>
@@ -46253,15 +46398,15 @@
       <c r="I39" s="117"/>
     </row>
     <row r="40" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="182" t="s">
+      <c r="C40" s="191" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="183"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="184"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="193"/>
     </row>
     <row r="41" spans="3:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="97" t="s">
@@ -46358,6 +46503,11 @@
     <row r="45" spans="3:9" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="M7:N7"/>
     <mergeCell ref="AB7:AC7"/>
     <mergeCell ref="M6:T6"/>
     <mergeCell ref="V6:AC6"/>
@@ -46365,11 +46515,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="V7:W7"/>
     <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="M7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -46380,8 +46525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD85871-9A08-0642-90DE-6F08EA98A635}">
   <dimension ref="B1:CJ521"/>
   <sheetViews>
-    <sheetView topLeftCell="M157" zoomScale="164" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="T174" sqref="T174"/>
+    <sheetView topLeftCell="F157" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="R163" sqref="R163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46472,71 +46617,71 @@
   <sheetData>
     <row r="1" spans="2:88" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:88" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
-      <c r="N2" s="190"/>
-      <c r="O2" s="190"/>
-      <c r="P2" s="190"/>
-      <c r="Q2" s="190"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="191"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
+      <c r="M2" s="196"/>
+      <c r="N2" s="196"/>
+      <c r="O2" s="196"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
       <c r="U2" s="133"/>
-      <c r="V2" s="189" t="s">
+      <c r="V2" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="190"/>
-      <c r="AB2" s="190"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="190"/>
-      <c r="AL2" s="190"/>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="191"/>
+      <c r="W2" s="196"/>
+      <c r="X2" s="196"/>
+      <c r="Y2" s="196"/>
+      <c r="Z2" s="196"/>
+      <c r="AA2" s="196"/>
+      <c r="AB2" s="196"/>
+      <c r="AC2" s="196"/>
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="196"/>
+      <c r="AH2" s="196"/>
+      <c r="AI2" s="196"/>
+      <c r="AJ2" s="196"/>
+      <c r="AK2" s="196"/>
+      <c r="AL2" s="196"/>
+      <c r="AM2" s="196"/>
+      <c r="AN2" s="197"/>
       <c r="AO2" s="134"/>
-      <c r="AP2" s="189" t="s">
+      <c r="AP2" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="AQ2" s="190"/>
-      <c r="AR2" s="190"/>
-      <c r="AS2" s="190"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="190"/>
-      <c r="AV2" s="190"/>
-      <c r="AW2" s="190"/>
-      <c r="AX2" s="190"/>
-      <c r="AY2" s="190"/>
-      <c r="AZ2" s="190"/>
-      <c r="BA2" s="190"/>
-      <c r="BB2" s="190"/>
-      <c r="BC2" s="190"/>
-      <c r="BD2" s="190"/>
-      <c r="BE2" s="190"/>
-      <c r="BF2" s="190"/>
-      <c r="BG2" s="190"/>
-      <c r="BH2" s="191"/>
+      <c r="AQ2" s="196"/>
+      <c r="AR2" s="196"/>
+      <c r="AS2" s="196"/>
+      <c r="AT2" s="196"/>
+      <c r="AU2" s="196"/>
+      <c r="AV2" s="196"/>
+      <c r="AW2" s="196"/>
+      <c r="AX2" s="196"/>
+      <c r="AY2" s="196"/>
+      <c r="AZ2" s="196"/>
+      <c r="BA2" s="196"/>
+      <c r="BB2" s="196"/>
+      <c r="BC2" s="196"/>
+      <c r="BD2" s="196"/>
+      <c r="BE2" s="196"/>
+      <c r="BF2" s="196"/>
+      <c r="BG2" s="196"/>
+      <c r="BH2" s="197"/>
       <c r="BI2" s="134"/>
       <c r="BJ2" s="134"/>
       <c r="BK2" s="134"/>
@@ -46551,65 +46696,65 @@
       <c r="BT2" s="134"/>
     </row>
     <row r="3" spans="2:88" x14ac:dyDescent="0.2">
-      <c r="B3" s="192"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="181"/>
-      <c r="R3" s="181"/>
-      <c r="S3" s="181"/>
-      <c r="T3" s="193"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="199"/>
       <c r="U3" s="133"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="181"/>
-      <c r="AA3" s="181"/>
-      <c r="AB3" s="181"/>
-      <c r="AC3" s="181"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="181"/>
-      <c r="AG3" s="181"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="181"/>
-      <c r="AJ3" s="181"/>
-      <c r="AK3" s="181"/>
-      <c r="AL3" s="181"/>
-      <c r="AM3" s="181"/>
-      <c r="AN3" s="193"/>
+      <c r="V3" s="198"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="187"/>
+      <c r="Y3" s="187"/>
+      <c r="Z3" s="187"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="187"/>
+      <c r="AC3" s="187"/>
+      <c r="AD3" s="187"/>
+      <c r="AE3" s="187"/>
+      <c r="AF3" s="187"/>
+      <c r="AG3" s="187"/>
+      <c r="AH3" s="187"/>
+      <c r="AI3" s="187"/>
+      <c r="AJ3" s="187"/>
+      <c r="AK3" s="187"/>
+      <c r="AL3" s="187"/>
+      <c r="AM3" s="187"/>
+      <c r="AN3" s="199"/>
       <c r="AO3" s="134"/>
-      <c r="AP3" s="192"/>
-      <c r="AQ3" s="181"/>
-      <c r="AR3" s="181"/>
-      <c r="AS3" s="181"/>
-      <c r="AT3" s="181"/>
-      <c r="AU3" s="181"/>
-      <c r="AV3" s="181"/>
-      <c r="AW3" s="181"/>
-      <c r="AX3" s="181"/>
-      <c r="AY3" s="181"/>
-      <c r="AZ3" s="181"/>
-      <c r="BA3" s="181"/>
-      <c r="BB3" s="181"/>
-      <c r="BC3" s="181"/>
-      <c r="BD3" s="181"/>
-      <c r="BE3" s="181"/>
-      <c r="BF3" s="181"/>
-      <c r="BG3" s="181"/>
-      <c r="BH3" s="193"/>
+      <c r="AP3" s="198"/>
+      <c r="AQ3" s="187"/>
+      <c r="AR3" s="187"/>
+      <c r="AS3" s="187"/>
+      <c r="AT3" s="187"/>
+      <c r="AU3" s="187"/>
+      <c r="AV3" s="187"/>
+      <c r="AW3" s="187"/>
+      <c r="AX3" s="187"/>
+      <c r="AY3" s="187"/>
+      <c r="AZ3" s="187"/>
+      <c r="BA3" s="187"/>
+      <c r="BB3" s="187"/>
+      <c r="BC3" s="187"/>
+      <c r="BD3" s="187"/>
+      <c r="BE3" s="187"/>
+      <c r="BF3" s="187"/>
+      <c r="BG3" s="187"/>
+      <c r="BH3" s="199"/>
       <c r="BI3" s="134"/>
       <c r="BJ3" s="134"/>
       <c r="BK3" s="134"/>
@@ -46624,65 +46769,65 @@
       <c r="BT3" s="134"/>
     </row>
     <row r="4" spans="2:88" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="186"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="194"/>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="194"/>
-      <c r="T4" s="187"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="189"/>
       <c r="U4" s="133"/>
-      <c r="V4" s="186"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
-      <c r="AD4" s="194"/>
-      <c r="AE4" s="194"/>
-      <c r="AF4" s="194"/>
-      <c r="AG4" s="194"/>
-      <c r="AH4" s="194"/>
-      <c r="AI4" s="194"/>
-      <c r="AJ4" s="194"/>
-      <c r="AK4" s="194"/>
-      <c r="AL4" s="194"/>
-      <c r="AM4" s="194"/>
-      <c r="AN4" s="187"/>
+      <c r="V4" s="188"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="200"/>
+      <c r="AD4" s="200"/>
+      <c r="AE4" s="200"/>
+      <c r="AF4" s="200"/>
+      <c r="AG4" s="200"/>
+      <c r="AH4" s="200"/>
+      <c r="AI4" s="200"/>
+      <c r="AJ4" s="200"/>
+      <c r="AK4" s="200"/>
+      <c r="AL4" s="200"/>
+      <c r="AM4" s="200"/>
+      <c r="AN4" s="189"/>
       <c r="AO4" s="134"/>
-      <c r="AP4" s="186"/>
-      <c r="AQ4" s="194"/>
-      <c r="AR4" s="194"/>
-      <c r="AS4" s="194"/>
-      <c r="AT4" s="194"/>
-      <c r="AU4" s="194"/>
-      <c r="AV4" s="194"/>
-      <c r="AW4" s="194"/>
-      <c r="AX4" s="194"/>
-      <c r="AY4" s="194"/>
-      <c r="AZ4" s="194"/>
-      <c r="BA4" s="194"/>
-      <c r="BB4" s="194"/>
-      <c r="BC4" s="194"/>
-      <c r="BD4" s="194"/>
-      <c r="BE4" s="194"/>
-      <c r="BF4" s="194"/>
-      <c r="BG4" s="194"/>
-      <c r="BH4" s="187"/>
+      <c r="AP4" s="188"/>
+      <c r="AQ4" s="200"/>
+      <c r="AR4" s="200"/>
+      <c r="AS4" s="200"/>
+      <c r="AT4" s="200"/>
+      <c r="AU4" s="200"/>
+      <c r="AV4" s="200"/>
+      <c r="AW4" s="200"/>
+      <c r="AX4" s="200"/>
+      <c r="AY4" s="200"/>
+      <c r="AZ4" s="200"/>
+      <c r="BA4" s="200"/>
+      <c r="BB4" s="200"/>
+      <c r="BC4" s="200"/>
+      <c r="BD4" s="200"/>
+      <c r="BE4" s="200"/>
+      <c r="BF4" s="200"/>
+      <c r="BG4" s="200"/>
+      <c r="BH4" s="189"/>
       <c r="BI4" s="134"/>
       <c r="BJ4" s="134"/>
       <c r="BK4" s="134"/>
@@ -59565,27 +59710,27 @@
       <c r="CJ82" s="132"/>
     </row>
     <row r="83" spans="2:88" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="195" t="s">
+      <c r="B83" s="201" t="s">
         <v>825</v>
       </c>
-      <c r="C83" s="190"/>
-      <c r="D83" s="190"/>
-      <c r="E83" s="190"/>
-      <c r="F83" s="191"/>
-      <c r="H83" s="195" t="s">
+      <c r="C83" s="196"/>
+      <c r="D83" s="196"/>
+      <c r="E83" s="196"/>
+      <c r="F83" s="197"/>
+      <c r="H83" s="201" t="s">
         <v>826</v>
       </c>
-      <c r="I83" s="190"/>
-      <c r="J83" s="190"/>
-      <c r="K83" s="190"/>
-      <c r="L83" s="191"/>
-      <c r="N83" s="195" t="s">
+      <c r="I83" s="196"/>
+      <c r="J83" s="196"/>
+      <c r="K83" s="196"/>
+      <c r="L83" s="197"/>
+      <c r="N83" s="201" t="s">
         <v>827</v>
       </c>
-      <c r="O83" s="190"/>
-      <c r="P83" s="190"/>
-      <c r="Q83" s="190"/>
-      <c r="R83" s="191"/>
+      <c r="O83" s="196"/>
+      <c r="P83" s="196"/>
+      <c r="Q83" s="196"/>
+      <c r="R83" s="197"/>
       <c r="T83" s="80"/>
       <c r="U83" s="80"/>
       <c r="AH83" s="132"/>
@@ -59603,21 +59748,21 @@
       <c r="CG83" s="135"/>
     </row>
     <row r="84" spans="2:88" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="186"/>
-      <c r="C84" s="194"/>
-      <c r="D84" s="194"/>
-      <c r="E84" s="194"/>
-      <c r="F84" s="187"/>
-      <c r="H84" s="186"/>
-      <c r="I84" s="194"/>
-      <c r="J84" s="194"/>
-      <c r="K84" s="194"/>
-      <c r="L84" s="187"/>
-      <c r="N84" s="186"/>
-      <c r="O84" s="194"/>
-      <c r="P84" s="194"/>
-      <c r="Q84" s="194"/>
-      <c r="R84" s="187"/>
+      <c r="B84" s="188"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="200"/>
+      <c r="E84" s="200"/>
+      <c r="F84" s="189"/>
+      <c r="H84" s="188"/>
+      <c r="I84" s="200"/>
+      <c r="J84" s="200"/>
+      <c r="K84" s="200"/>
+      <c r="L84" s="189"/>
+      <c r="N84" s="188"/>
+      <c r="O84" s="200"/>
+      <c r="P84" s="200"/>
+      <c r="Q84" s="200"/>
+      <c r="R84" s="189"/>
       <c r="T84" s="80"/>
       <c r="U84" s="80"/>
       <c r="AH84" s="132"/>
@@ -67230,30 +67375,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
+      <c r="B3" s="203"/>
+      <c r="C3" s="203"/>
+      <c r="D3" s="203"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="196" t="s">
+      <c r="B4" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="187"/>
       <c r="D4" s="136"/>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="202" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="181"/>
+      <c r="F4" s="187"/>
       <c r="G4" s="131"/>
-      <c r="H4" s="196" t="s">
+      <c r="H4" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="181"/>
+      <c r="I4" s="187"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="131" t="s">
@@ -68110,7 +68255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366567EE-2038-0845-9A44-27E88E9E6E15}">
   <dimension ref="C1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -68133,58 +68278,58 @@
       </c>
       <c r="H2" s="204"/>
       <c r="I2" s="204"/>
-      <c r="J2" s="198"/>
-      <c r="K2" s="198"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="198">
+      <c r="D3" s="163">
         <v>7000</v>
       </c>
-      <c r="E3" s="198">
+      <c r="E3" s="163">
         <v>7001</v>
       </c>
-      <c r="F3" s="198">
+      <c r="F3" s="163">
         <v>7002</v>
       </c>
-      <c r="G3" s="198">
+      <c r="G3" s="163">
         <v>7003</v>
       </c>
-      <c r="H3" s="198">
+      <c r="H3" s="163">
         <v>7004</v>
       </c>
-      <c r="I3" s="198">
+      <c r="I3" s="163">
         <v>7005</v>
       </c>
-      <c r="J3" s="198" t="s">
+      <c r="J3" s="163" t="s">
         <v>833</v>
       </c>
-      <c r="K3" s="198" t="s">
+      <c r="K3" s="163" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="4" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="198" t="s">
+      <c r="C4" s="163" t="s">
         <v>58</v>
       </c>
       <c r="D4" s="32">
         <v>1.004618</v>
       </c>
-      <c r="E4" s="199">
+      <c r="E4" s="164">
         <v>1.0296920000000001</v>
       </c>
-      <c r="F4" s="199">
+      <c r="F4" s="164">
         <v>1.016632</v>
       </c>
-      <c r="G4" s="199">
+      <c r="G4" s="164">
         <v>1.0100279999999999</v>
       </c>
-      <c r="H4" s="199">
+      <c r="H4" s="164">
         <v>1.01498</v>
       </c>
-      <c r="I4" s="199">
+      <c r="I4" s="164">
         <v>1.0060359999999999</v>
       </c>
-      <c r="J4" s="199">
+      <c r="J4" s="164">
         <f>SUM(D4:F4)</f>
         <v>3.050942</v>
       </c>
@@ -68193,28 +68338,28 @@
       </c>
     </row>
     <row r="5" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="200">
+      <c r="D5" s="165">
         <v>0.92722700000000002</v>
       </c>
-      <c r="E5" s="201">
+      <c r="E5" s="166">
         <v>0.93923100000000004</v>
       </c>
-      <c r="F5" s="201">
+      <c r="F5" s="166">
         <v>0.93503700000000001</v>
       </c>
-      <c r="G5" s="201">
+      <c r="G5" s="166">
         <v>0.93920199999999998</v>
       </c>
-      <c r="H5" s="201">
+      <c r="H5" s="166">
         <v>0.93542400000000003</v>
       </c>
-      <c r="I5" s="201">
+      <c r="I5" s="166">
         <v>0.92906999999999995</v>
       </c>
-      <c r="J5" s="201">
+      <c r="J5" s="166">
         <f t="shared" ref="J5:J6" si="0">SUM(D5:F5)</f>
         <v>2.8014950000000001</v>
       </c>
@@ -68223,28 +68368,28 @@
       </c>
     </row>
     <row r="6" spans="3:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="198" t="s">
+      <c r="C6" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="202">
+      <c r="D6" s="167">
         <v>2.719738</v>
       </c>
-      <c r="E6" s="203">
+      <c r="E6" s="168">
         <v>2.6514899999999999</v>
       </c>
-      <c r="F6" s="203">
+      <c r="F6" s="168">
         <v>2.676488</v>
       </c>
-      <c r="G6" s="203">
+      <c r="G6" s="168">
         <v>2.6573000000000002</v>
       </c>
-      <c r="H6" s="203">
+      <c r="H6" s="168">
         <v>2.743134</v>
       </c>
-      <c r="I6" s="203">
+      <c r="I6" s="168">
         <v>2.6507299999999998</v>
       </c>
-      <c r="J6" s="203">
+      <c r="J6" s="168">
         <f t="shared" si="0"/>
         <v>8.0477160000000012</v>
       </c>
